--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4CCD55-F340-4130-AE24-F6318BB48BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C413368E-32BF-43DE-BC13-9FB69EB0FE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="0" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="292">
   <si>
     <t>Word</t>
   </si>
@@ -827,13 +827,121 @@
   <si>
     <t>An advocate for hospital workers/
 Those charged should be represented by trained, qualified legal advocates.</t>
+  </si>
+  <si>
+    <t>cornerstone</t>
+  </si>
+  <si>
+    <t>the most important part of something that the rest depends on</t>
+  </si>
+  <si>
+    <t>This study is the cornerstone of the whole research programme.</t>
+  </si>
+  <si>
+    <t>cornerstone practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paying down debt </t>
+  </si>
+  <si>
+    <t>trả nợ</t>
+  </si>
+  <si>
+    <t>spur-of-the moment</t>
+  </si>
+  <si>
+    <t>on the spur of the moment</t>
+  </si>
+  <si>
+    <t>suddenly, without planning in advance</t>
+  </si>
+  <si>
+    <t>I phoned him up on the spur of the moment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frugality </t>
+  </si>
+  <si>
+    <t>/fruːˈɡæləti/</t>
+  </si>
+  <si>
+    <t>She taught me simplicity and frugality.</t>
+  </si>
+  <si>
+    <t>a way of living in which you use only as much money or food as is necessary
+​the fact of a meal being small and plain and not costing very much
+the frugality of the meal</t>
+  </si>
+  <si>
+    <t>frugal</t>
+  </si>
+  <si>
+    <t>/ˈfruːɡl/</t>
+  </si>
+  <si>
+    <r>
+      <t>a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>frugal existence/life</t>
+    </r>
+  </si>
+  <si>
+    <t>opp: extravagant</t>
+  </si>
+  <si>
+    <t>using only as much money or food as is necessary
+(of meals) small, plain and not costing very much (syn: meagre)</t>
+  </si>
+  <si>
+    <t>a frugal lunch of bread and cheese</t>
+  </si>
+  <si>
+    <t>/diːˈklʌtə(r)/</t>
+  </si>
+  <si>
+    <t>declutter (also de-clutter)</t>
+  </si>
+  <si>
+    <t>to remove things that you do not use so that you have more space and can easily find things when you need them</t>
+  </si>
+  <si>
+    <r>
+      <t>declutter something</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> a 7-step plan to help you declutter your home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+She helps people declutter their schedules, houses, and minds.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,6 +961,43 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF1A3561"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Source Sans Pro"/>
@@ -894,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -904,6 +1049,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1208,20 +1362,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G64:G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="6" max="6" width="87.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="151.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1267,7 +1421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1304,7 +1458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1324,7 +1478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1341,7 +1495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1355,7 +1509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1369,7 +1523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1392,7 +1546,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1409,7 +1563,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1417,7 +1571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1434,7 +1588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1454,7 +1608,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1471,7 +1625,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1491,7 +1645,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1511,7 +1665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1528,7 +1682,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -1548,7 +1702,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -1568,7 +1722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -1588,7 +1742,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -1608,7 +1762,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -1628,7 +1782,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -1648,7 +1802,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -1668,7 +1822,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -1682,7 +1836,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -1699,7 +1853,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -1713,7 +1867,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -1727,7 +1881,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -1747,7 +1901,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -1767,7 +1921,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -1787,7 +1941,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -1807,7 +1961,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -1827,7 +1981,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>158</v>
       </c>
@@ -1847,7 +2001,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -1864,7 +2018,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>167</v>
       </c>
@@ -1884,7 +2038,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>172</v>
       </c>
@@ -1904,7 +2058,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -1924,7 +2078,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>182</v>
       </c>
@@ -1944,7 +2098,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -1964,7 +2118,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>193</v>
       </c>
@@ -1984,7 +2138,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>198</v>
       </c>
@@ -2004,7 +2158,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>203</v>
       </c>
@@ -2021,7 +2175,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>207</v>
       </c>
@@ -2041,7 +2195,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>212</v>
       </c>
@@ -2061,7 +2215,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>217</v>
       </c>
@@ -2081,7 +2235,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>222</v>
       </c>
@@ -2101,7 +2255,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>227</v>
       </c>
@@ -2121,7 +2275,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -2141,7 +2295,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>238</v>
       </c>
@@ -2161,7 +2315,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>243</v>
       </c>
@@ -2169,7 +2323,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="28.8">
       <c r="A52" t="s">
         <v>245</v>
       </c>
@@ -2189,7 +2343,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>251</v>
       </c>
@@ -2209,7 +2363,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>255</v>
       </c>
@@ -2232,7 +2386,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>261</v>
       </c>
@@ -2252,7 +2406,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="220.8">
       <c r="A56" t="s">
         <v>261</v>
       </c>
@@ -2267,6 +2421,105 @@
       </c>
       <c r="F56" s="3" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F57" t="s">
+        <v>271</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>272</v>
+      </c>
+      <c r="E58" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>274</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="276">
+      <c r="A60" t="s">
+        <v>278</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="181.8">
+      <c r="A61" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>285</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="27.6">
+      <c r="A62" t="s">
+        <v>289</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vi2.tran\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C413368E-32BF-43DE-BC13-9FB69EB0FE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="0" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="0" windowWidth="20760" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="310">
   <si>
     <t>Word</t>
   </si>
@@ -936,11 +935,100 @@
 She helps people declutter their schedules, houses, and minds.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>get into the groove or get into the swing of things</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>phrase verb</t>
+  </si>
+  <si>
+    <t>familiar with the work</t>
+  </si>
+  <si>
+    <t>invigilator</t>
+  </si>
+  <si>
+    <t>/ɪnˈvɪdʒɪleɪtə(r)/</t>
+  </si>
+  <si>
+    <t>proctor</t>
+  </si>
+  <si>
+    <t>a person who watches people while they are taking an exam to make sure that they have everything they need, that they keep to the rules, etc.</t>
+  </si>
+  <si>
+    <t>If you have a problem, ask the invigilator.</t>
+  </si>
+  <si>
+    <t>undermine</t>
+  </si>
+  <si>
+    <t>/ˌʌndəˈmaɪn/</t>
+  </si>
+  <si>
+    <t>to make something, especially somebody’s confidence or authority, gradually weaker or less effective</t>
+  </si>
+  <si>
+    <t>undermine something/somebody</t>
+  </si>
+  <si>
+    <t>The director saw this move as an attempt to undermine his authority.</t>
+  </si>
+  <si>
+    <r>
+      <t>vocational training center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vocational education center</t>
+    </r>
+  </si>
+  <si>
+    <t>barber</t>
+  </si>
+  <si>
+    <t>a person whose job is to cut men’s hair and sometimes to shave them</t>
+  </si>
+  <si>
+    <t>female hairdresser/ women's hair stylist</t>
+  </si>
+  <si>
+    <t>a person whose job is to cut women’s hair and sometimes to shave them</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -979,18 +1067,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FF1A3561"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Source Sans Pro"/>
@@ -1001,6 +1077,20 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1056,10 +1146,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,18 +1451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G65" sqref="G64:G65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="87.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="151.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="131.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="151.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2323,7 +2414,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.8">
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" t="s">
         <v>245</v>
       </c>
@@ -2406,7 +2497,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="220.8">
+    <row r="56" spans="1:7" ht="30">
       <c r="A56" t="s">
         <v>261</v>
       </c>
@@ -2465,7 +2556,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="276">
+    <row r="60" spans="1:7" ht="39">
       <c r="A60" t="s">
         <v>278</v>
       </c>
@@ -2482,8 +2573,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="181.8">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:7" ht="26.25">
+      <c r="A61" t="s">
         <v>282</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2505,7 +2596,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27.6">
+    <row r="62" spans="1:7" ht="26.25">
       <c r="A62" t="s">
         <v>289</v>
       </c>
@@ -2518,8 +2609,77 @@
       <c r="E62" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="8" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>292</v>
+      </c>
+      <c r="C63" t="s">
+        <v>293</v>
+      </c>
+      <c r="E63" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>295</v>
+      </c>
+      <c r="B64" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>297</v>
+      </c>
+      <c r="E64" t="s">
+        <v>298</v>
+      </c>
+      <c r="G64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>300</v>
+      </c>
+      <c r="B65" t="s">
+        <v>301</v>
+      </c>
+      <c r="E65" t="s">
+        <v>302</v>
+      </c>
+      <c r="F65" t="s">
+        <v>303</v>
+      </c>
+      <c r="G65" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75">
+      <c r="A67" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E67" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>308</v>
+      </c>
+      <c r="E68" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vi2.tran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3B76EA-2E4E-452D-BF76-AE59AF7215C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="0" windowWidth="20760" windowHeight="12510"/>
+    <workbookView xWindow="768" yWindow="456" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="379">
   <si>
     <t>Word</t>
   </si>
@@ -1024,12 +1025,326 @@
   <si>
     <t>a person whose job is to cut women’s hair and sometimes to shave them</t>
   </si>
+  <si>
+    <t>insanely</t>
+  </si>
+  <si>
+    <t>/ɪnˈseɪnli/</t>
+  </si>
+  <si>
+    <t>điên cuồng</t>
+  </si>
+  <si>
+    <t>to an unreasonable degree, in an crazy way</t>
+  </si>
+  <si>
+    <t>He is insanely jealous, she laughs insanely</t>
+  </si>
+  <si>
+    <t>whilst (especially British English, formal)</t>
+  </si>
+  <si>
+    <t>/waɪlst/</t>
+  </si>
+  <si>
+    <t>conjunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when, while </t>
+  </si>
+  <si>
+    <t>during the time that something is happening; at the same time as something else is happening</t>
+  </si>
+  <si>
+    <t>In the UK it is illegal to drive whilst holding a mobile phone.</t>
+  </si>
+  <si>
+    <t>snuggle</t>
+  </si>
+  <si>
+    <t>/ˈsnʌɡl/</t>
+  </si>
+  <si>
+    <t>hug</t>
+  </si>
+  <si>
+    <t>to get into, or to put somebody/something into, a warm comfortable position, especially close to somebody</t>
+  </si>
+  <si>
+    <r>
+      <t>The child </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>snuggled up to</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> her mother.</t>
+    </r>
+  </si>
+  <si>
+    <t>uptight</t>
+  </si>
+  <si>
+    <t>/ˌʌpˈtaɪt/</t>
+  </si>
+  <si>
+    <r>
+      <t>uptight (about something)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> anxious and/or angry about something</t>
+    </r>
+  </si>
+  <si>
+    <t>Relax! You're getting too uptight about it.</t>
+  </si>
+  <si>
+    <t>gnaw</t>
+  </si>
+  <si>
+    <t>/nɔː/</t>
+  </si>
+  <si>
+    <t>gặm nhấm</t>
+  </si>
+  <si>
+    <t>to keep biting something</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gnaw something The dog was gnawing a bone.
+ gnaw through something Rats had gnawed through the cable.
+ gnaw at/on something She gnawed at her fingernails.
+ gnaw away at/on something (figurative) Self-doubt began to gnaw away at her confidence.</t>
+  </si>
+  <si>
+    <t>overt</t>
+  </si>
+  <si>
+    <t>/əʊˈvɜːt/</t>
+  </si>
+  <si>
+    <t>open, op: covert</t>
+  </si>
+  <si>
+    <t>done or shown publicly or in an obvious way and not secret:</t>
+  </si>
+  <si>
+    <t>overt criticism
+overt racism</t>
+  </si>
+  <si>
+    <t>modestly</t>
+  </si>
+  <si>
+    <t>/ˈmɒd.ɪst.li/</t>
+  </si>
+  <si>
+    <t>khiêm tốn</t>
+  </si>
+  <si>
+    <t>in a way that is not very large in size, amount or degree, or not expensive:</t>
+  </si>
+  <si>
+    <t>He had a modestly successful career as an artist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">means </t>
+  </si>
+  <si>
+    <t>/miːnz/</t>
+  </si>
+  <si>
+    <r>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D2A57"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, for example from an income, that allows you to buy things:</t>
+    </r>
+  </si>
+  <si>
+    <t>live within your means: to spend less money than you receive as income - He promised that he wouldn't use his credit card too much - he wanted to live within his means.
+a man/woman of means: a rich man/woman - You can tell from the clothes she wears that she's a woman of means.</t>
+  </si>
+  <si>
+    <t>splurge</t>
+  </si>
+  <si>
+    <t>/splɜːdʒ/</t>
+  </si>
+  <si>
+    <t>n, v</t>
+  </si>
+  <si>
+    <t>splash out (something) </t>
+  </si>
+  <si>
+    <t>to spend a lot of money on buying goods, especially expensive goods:</t>
+  </si>
+  <si>
+    <r>
+      <t>I feel like splurging </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF1D2A57"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(out)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF1D2A57"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF1D2A57"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF1D2A57"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> a new dress. // Gen Z is  spluring on luxury goods to moothe their economic despair - Thế hệ Z đang vung tiền mua hàng xa xỉ để xoa dịu nỗi tuyệt vọng về kinh tế của họ</t>
+    </r>
+  </si>
+  <si>
+    <t>mindset of flugality rather than splurging luxury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lead us toward greater wealth or steer us away from it </t>
+  </si>
+  <si>
+    <t>dẫn chúng ta đến với sự giàu có hơn hoặc đưa chúng ta ra khỏi nó</t>
+  </si>
+  <si>
+    <t>steer</t>
+  </si>
+  <si>
+    <t>/stɪər/</t>
+  </si>
+  <si>
+    <t>to control the direction of a vehicle:</t>
+  </si>
+  <si>
+    <t>[ T ] It’s not easy to steer the car through these narrow streets.
+[ I ] fig. The speech steered clear of (= avoided) controversial issues.</t>
+  </si>
+  <si>
+    <t>cervix</t>
+  </si>
+  <si>
+    <t>/ˈsɜːvɪks/</t>
+  </si>
+  <si>
+    <t>tử cung</t>
+  </si>
+  <si>
+    <t>intertwine</t>
+  </si>
+  <si>
+    <t>/ˌɪntəˈtwaɪn/</t>
+  </si>
+  <si>
+    <t>Intertwine là xoắn hoặc quấn vào nhau, linh hoạt và mềm mại.
+Interlock là gắn chắc chắn vào nhau, cố định và cứng cáp hơn</t>
+  </si>
+  <si>
+    <t>if two or more things intertwine or are intertwined, they are twisted together so that they are very difficult to separate</t>
+  </si>
+  <si>
+    <t>(be) intertwined (with something)</t>
+  </si>
+  <si>
+    <t>a necklace of rubies intertwined with pearls</t>
+  </si>
+  <si>
+    <t>fatalistic</t>
+  </si>
+  <si>
+    <t>/ˌfeɪtəˈlɪstɪk/</t>
+  </si>
+  <si>
+    <t>showing a belief in fate and feeling that you cannot control events or stop them from happening</t>
+  </si>
+  <si>
+    <r>
+      <t>a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>fatalistic attitude/outlook</t>
+    </r>
+  </si>
+  <si>
+    <t>fatalism</t>
+  </si>
+  <si>
+    <t>/ˈfeɪtəlɪzəm/</t>
+  </si>
+  <si>
+    <t>the belief that events are decided by fate and that you cannot control them; the fact of accepting that you cannot prevent something from happening</t>
+  </si>
+  <si>
+    <t>There is a mood of profound fatalism amongst party members.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,6 +1408,53 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF1D2A57"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1D2A57"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF1D2A57"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF1D2A57"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF1A3561"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1126,10 +1488,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1150,8 +1513,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1451,19 +1822,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69:G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="131.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="151.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="131.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="151.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2414,7 +2785,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="28.8">
       <c r="A52" t="s">
         <v>245</v>
       </c>
@@ -2497,7 +2868,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30">
+    <row r="56" spans="1:7" ht="28.8">
       <c r="A56" t="s">
         <v>261</v>
       </c>
@@ -2556,7 +2927,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="39">
+    <row r="60" spans="1:7" ht="40.200000000000003">
       <c r="A60" t="s">
         <v>278</v>
       </c>
@@ -2573,7 +2944,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="26.25">
+    <row r="61" spans="1:7" ht="27">
       <c r="A61" t="s">
         <v>282</v>
       </c>
@@ -2596,7 +2967,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="26.25">
+    <row r="62" spans="1:7" ht="27.6">
       <c r="A62" t="s">
         <v>289</v>
       </c>
@@ -2666,7 +3037,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75">
+    <row r="67" spans="1:7" ht="15.6">
       <c r="A67" s="9" t="s">
         <v>306</v>
       </c>
@@ -2682,8 +3053,291 @@
         <v>309</v>
       </c>
     </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>310</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" t="s">
+        <v>312</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>315</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C70" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" t="s">
+        <v>318</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>321</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>323</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>326</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="57.6">
+      <c r="A73" t="s">
+        <v>330</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" t="s">
+        <v>332</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="28.8">
+      <c r="A74" t="s">
+        <v>335</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>337</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>340</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" t="s">
+        <v>342</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="57.6">
+      <c r="A76" t="s">
+        <v>345</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="27.6">
+      <c r="A77" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C77" t="s">
+        <v>351</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>355</v>
+      </c>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>356</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="E79" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="28.8">
+      <c r="A80" t="s">
+        <v>358</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>362</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="230.4">
+      <c r="A82" t="s">
+        <v>365</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E82" t="s">
+        <v>368</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>371</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" t="s">
+        <v>373</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="25.8">
+      <c r="A84" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>377</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D77" r:id="rId1" tooltip="meaning of splash out (something)" display="https://dictionary.cambridge.org/dictionary/english/splash-out" xr:uid="{9B2475DC-788B-4BD8-81E7-4EAD67015E7D}"/>
+    <hyperlink ref="E82" r:id="rId2" location="twist_topg_1" tooltip="twisted definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/twist_2 - twist_topg_1" xr:uid="{13B9D463-D5DC-45B7-8E1E-06B84EB951F4}"/>
+    <hyperlink ref="E83" r:id="rId3" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate" xr:uid="{215C5BBE-BB40-42C7-950E-59BB5AEA7AE1}"/>
+    <hyperlink ref="E84" r:id="rId4" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate" xr:uid="{37FEFB69-3ECE-432E-BD70-6DD80C5EFA7B}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3B76EA-2E4E-452D-BF76-AE59AF7215C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F676AB87-2609-410F-9D99-51324D3533D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="456" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="421">
   <si>
     <t>Word</t>
   </si>
@@ -1339,6 +1339,132 @@
   <si>
     <t>There is a mood of profound fatalism amongst party members.</t>
   </si>
+  <si>
+    <t>boulevard</t>
+  </si>
+  <si>
+    <t>đại lộ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherish </t>
+  </si>
+  <si>
+    <t>trân trọng, yêu thương</t>
+  </si>
+  <si>
+    <t>Children need to be cherished.</t>
+  </si>
+  <si>
+    <t>In 2014, he started working in an ice cream parlor</t>
+  </si>
+  <si>
+    <t>Năm 2014, anh bắt đầu làm việc trong một tiệm kem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parlor </t>
+  </si>
+  <si>
+    <t>tiệm kem</t>
+  </si>
+  <si>
+    <t>aesthetic style</t>
+  </si>
+  <si>
+    <t>phong cách thẩm mỹ</t>
+  </si>
+  <si>
+    <t>dissipate</t>
+  </si>
+  <si>
+    <t>tan biến, to gradually become or make something become weaker until it disappears</t>
+  </si>
+  <si>
+    <t>Eventually, his anger dissipated.</t>
+  </si>
+  <si>
+    <t>fluffy cotton candy</t>
+  </si>
+  <si>
+    <t>kẹo bông xốp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valve </t>
+  </si>
+  <si>
+    <t>/vælv/</t>
+  </si>
+  <si>
+    <t>van, a device for controlling the flow of a liquid or gas, letting it move in one direction only</t>
+  </si>
+  <si>
+    <t>You need special tools to open the valve</t>
+  </si>
+  <si>
+    <t>fragrance</t>
+  </si>
+  <si>
+    <t>/ˈfreɪɡrəns/</t>
+  </si>
+  <si>
+    <t>hương thơm, a pleasant smell</t>
+  </si>
+  <si>
+    <t>The bath oil comes in various fragrances.</t>
+  </si>
+  <si>
+    <t>rev up</t>
+  </si>
+  <si>
+    <t>tăng tốc</t>
+  </si>
+  <si>
+    <t>counteract stress</t>
+  </si>
+  <si>
+    <t>chống lại căng thẳng</t>
+  </si>
+  <si>
+    <t>free wellness services.</t>
+  </si>
+  <si>
+    <t>dịch vụ chăm sóc sức khỏe miễn phí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downshift </t>
+  </si>
+  <si>
+    <t>v, n</t>
+  </si>
+  <si>
+    <t>giảm tốc, to change to a lower gear in a vehicle;  to change to a job or style of life where you may earn less but which puts less pressure on you and involves less stress</t>
+  </si>
+  <si>
+    <t>lessen</t>
+  </si>
+  <si>
+    <t>/ˈlesn/</t>
+  </si>
+  <si>
+    <t>giảm bớt, to become or make something become smaller, weaker, less important, etc.</t>
+  </si>
+  <si>
+    <t>if you feel the emotional charge lessen.</t>
+  </si>
+  <si>
+    <t>nếu bạn cảm thấy điện tích cảm xúc giảm bớt.</t>
+  </si>
+  <si>
+    <t>diminish</t>
+  </si>
+  <si>
+    <t>The noise began to lessen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porn star </t>
+  </si>
+  <si>
+    <t>ngôi sao khiêu dâm</t>
+  </si>
 </sst>
 </file>
 
@@ -1356,6 +1482,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1823,11 +1950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69:G84"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3330,6 +3457,167 @@
         <v>378</v>
       </c>
     </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>379</v>
+      </c>
+      <c r="E85" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>381</v>
+      </c>
+      <c r="E86" t="s">
+        <v>382</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>384</v>
+      </c>
+      <c r="E87" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>386</v>
+      </c>
+      <c r="E88" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>388</v>
+      </c>
+      <c r="E89" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>390</v>
+      </c>
+      <c r="E90" t="s">
+        <v>391</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>393</v>
+      </c>
+      <c r="E91" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>395</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E92" t="s">
+        <v>397</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>399</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E93" t="s">
+        <v>401</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>403</v>
+      </c>
+      <c r="E94" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>405</v>
+      </c>
+      <c r="E95" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>407</v>
+      </c>
+      <c r="E96" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>409</v>
+      </c>
+      <c r="C97" t="s">
+        <v>410</v>
+      </c>
+      <c r="E97" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>412</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>415</v>
+      </c>
+      <c r="E99" t="s">
+        <v>416</v>
+      </c>
+      <c r="F99" t="s">
+        <v>417</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>419</v>
+      </c>
+      <c r="E100" t="s">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D77" r:id="rId1" tooltip="meaning of splash out (something)" display="https://dictionary.cambridge.org/dictionary/english/splash-out" xr:uid="{9B2475DC-788B-4BD8-81E7-4EAD67015E7D}"/>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F676AB87-2609-410F-9D99-51324D3533D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E5A54-FE0A-497F-BD89-732EBD23D60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="474">
   <si>
     <t>Word</t>
   </si>
@@ -1465,12 +1477,249 @@
   <si>
     <t>ngôi sao khiêu dâm</t>
   </si>
+  <si>
+    <t>pacifier</t>
+  </si>
+  <si>
+    <t>/ˈpæsɪfaɪə(r)/</t>
+  </si>
+  <si>
+    <r>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>a rubber or plastic object with a special shape that a baby </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00860E"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>sucks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t> on with its lips and tongue</t>
+    </r>
+  </si>
+  <si>
+    <t>roulette</t>
+  </si>
+  <si>
+    <t>/ruːˈlet/</t>
+  </si>
+  <si>
+    <r>
+      <t>a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00860E"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>gambling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> game in which a ball is dropped onto a moving wheel that has holes with numbers on it. Players bet on which hole the ball will be in when the wheel stops.</t>
+    </r>
+  </si>
+  <si>
+    <t>roulette ball/table/wheel</t>
+  </si>
+  <si>
+    <t>wield</t>
+  </si>
+  <si>
+    <t>/wiːld/</t>
+  </si>
+  <si>
+    <r>
+      <t>wield something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> to have and use power, authority, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>She wields enormous power within the party.</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>/vəˈlɒsəti/</t>
+  </si>
+  <si>
+    <t>the speed of something in a particular direction</t>
+  </si>
+  <si>
+    <r>
+      <t>to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>gain/lose velocity</t>
+    </r>
+  </si>
+  <si>
+    <t>the velocity of light</t>
+  </si>
+  <si>
+    <t>seasoning</t>
+  </si>
+  <si>
+    <r>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>a substance used to add taste to food, especially salt and pepper</t>
+    </r>
+  </si>
+  <si>
+    <t>/ˈsiːzənɪŋ/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nagging work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a great day with a big grin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">porch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gullible public </t>
+  </si>
+  <si>
+    <t>substantial</t>
+  </si>
+  <si>
+    <t>công việc khó chịu</t>
+  </si>
+  <si>
+    <t>chúc một ngày tuyệt vời với nụ cười toe toét</t>
+  </si>
+  <si>
+    <t>hiên nhà</t>
+  </si>
+  <si>
+    <t>cau mày</t>
+  </si>
+  <si>
+    <t>công chúng cả tin</t>
+  </si>
+  <si>
+    <t>đáng kể</t>
+  </si>
+  <si>
+    <t>secondhand from thrift store</t>
+  </si>
+  <si>
+    <t>my go-to hacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weed out </t>
+  </si>
+  <si>
+    <t>fusion</t>
+  </si>
+  <si>
+    <t>mẹo của tôi</t>
+  </si>
+  <si>
+    <t>loại bỏ</t>
+  </si>
+  <si>
+    <t>ví</t>
+  </si>
+  <si>
+    <t>giải phóng</t>
+  </si>
+  <si>
+    <t>purse &lt;&gt; wallet</t>
+  </si>
+  <si>
+    <t>handbag</t>
+  </si>
+  <si>
+    <t>/ˈfjuːʒn/</t>
+  </si>
+  <si>
+    <t>hợp nhất, fusion (of A and B) the process or result of joining two or more things together to form one</t>
+  </si>
+  <si>
+    <t>the fusion of copper and zinc to produce brass</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>don’t mistake my kindness for weakness</t>
+  </si>
+  <si>
+    <t>/speə(r)/</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>that is not being used or is not needed at the present time</t>
+  </si>
+  <si>
+    <t>not used/ needed</t>
+  </si>
+  <si>
+    <t>spare their lives: tha mạng cho họ</t>
+  </si>
+  <si>
+    <t>we have a spare bedroom, if you'd like to stay</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1582,6 +1831,27 @@
       <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4577BF"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00860E"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00860E"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1619,7 +1889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1647,6 +1917,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1950,11 +2222,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3094,7 +3366,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27.6">
+    <row r="62" spans="1:7" ht="27">
       <c r="A62" t="s">
         <v>289</v>
       </c>
@@ -3440,7 +3712,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="25.8">
+    <row r="84" spans="1:7" ht="24.6">
       <c r="A84" s="16" t="s">
         <v>375</v>
       </c>
@@ -3616,6 +3888,209 @@
       </c>
       <c r="E100" t="s">
         <v>420</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>421</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>424</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F102" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>428</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>432</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>437</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>440</v>
+      </c>
+      <c r="E106" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>441</v>
+      </c>
+      <c r="E107" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>442</v>
+      </c>
+      <c r="E108" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>443</v>
+      </c>
+      <c r="E109" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>444</v>
+      </c>
+      <c r="E110" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>445</v>
+      </c>
+      <c r="E111" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>453</v>
+      </c>
+      <c r="E113" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>454</v>
+      </c>
+      <c r="E114" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>460</v>
+      </c>
+      <c r="D115" t="s">
+        <v>461</v>
+      </c>
+      <c r="E115" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>455</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E116" t="s">
+        <v>463</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>465</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
+        <v>466</v>
+      </c>
+      <c r="E117" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>469</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D119" t="s">
+        <v>471</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F119" t="s">
+        <v>472</v>
+      </c>
+      <c r="G119" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E5A54-FE0A-497F-BD89-732EBD23D60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14046251-B7D9-4893-9146-6EE821FEC3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="546">
   <si>
     <t>Word</t>
   </si>
@@ -1714,12 +1714,383 @@
   <si>
     <t>we have a spare bedroom, if you'd like to stay</t>
   </si>
+  <si>
+    <t>spice</t>
+  </si>
+  <si>
+    <t>sabotage</t>
+  </si>
+  <si>
+    <t>/ˈsæbətɑːʒ/</t>
+  </si>
+  <si>
+    <r>
+      <t>sabotage something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> to damage or destroy something deliberately to prevent an enemy from using it or to protest about something</t>
+    </r>
+  </si>
+  <si>
+    <t>The main electricity supply had been sabotaged by the rebels.</t>
+  </si>
+  <si>
+    <t>newly minted president-elect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crack the whip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">warrm and cordial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">engulf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambiguity </t>
+  </si>
+  <si>
+    <t>ambitious</t>
+  </si>
+  <si>
+    <t>ambivert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my own inclination </t>
+  </si>
+  <si>
+    <t>adversary and ally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carpricious </t>
+  </si>
+  <si>
+    <t>tổng thống mới đắc cử</t>
+  </si>
+  <si>
+    <t>bẻ roi</t>
+  </si>
+  <si>
+    <t>ấm áp và thân thiện</t>
+  </si>
+  <si>
+    <t>tham vọng</t>
+  </si>
+  <si>
+    <t>hướng nội</t>
+  </si>
+  <si>
+    <t>khuynh hướng riêng của tôi</t>
+  </si>
+  <si>
+    <t>kẻ thù và đồng minh</t>
+  </si>
+  <si>
+    <t>minted</t>
+  </si>
+  <si>
+    <t> recently produced, invented, etc.</t>
+  </si>
+  <si>
+    <t>freshly/newly minted</t>
+  </si>
+  <si>
+    <t>a roll of newly minted banknotes</t>
+  </si>
+  <si>
+    <t>/ˌæmbɪˈɡjuːəti/</t>
+  </si>
+  <si>
+    <t>mơ hồ, the state of having more than one possible meaning</t>
+  </si>
+  <si>
+    <t>Write clear definitions in order to avoid ambiguity.</t>
+  </si>
+  <si>
+    <t>/ˈkɔːdiəl/</t>
+  </si>
+  <si>
+    <r>
+      <t>a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>cordial atmosphere/meeting/relationship</t>
+    </r>
+  </si>
+  <si>
+    <t>Their government has maintained cordial relations with the UK.</t>
+  </si>
+  <si>
+    <t>unpredictable</t>
+  </si>
+  <si>
+    <t>cáu kỉnh, showing sudden changes in attitude or behaviour</t>
+  </si>
+  <si>
+    <t>a movie star who was capricious and difficult to please</t>
+  </si>
+  <si>
+    <t>/ɪnˈɡʌlf/</t>
+  </si>
+  <si>
+    <t>nuốt chửng, engulf somebody/something to surround or to cover somebody/something completely; to affect somebody/something very strongly</t>
+  </si>
+  <si>
+    <r>
+      <t>The vehicle was </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>engulfed in flames</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>./ Fear engulfed her.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">perish </t>
+  </si>
+  <si>
+    <t>/ˈperɪʃ/</t>
+  </si>
+  <si>
+    <t>to die, especially in a sudden violent way</t>
+  </si>
+  <si>
+    <t>Thousands perished at the hands of the invading forces.</t>
+  </si>
+  <si>
+    <t>grudge</t>
+  </si>
+  <si>
+    <t>1.to do or give something unwillingly' 2. grudge somebody something to think that somebody does not deserve to have</t>
+  </si>
+  <si>
+    <t>Begrudge, dislike, be annoyed by, resent; "You surely don’t resent her for her success?"
+"You surely don’t begrudge her her success?"</t>
+  </si>
+  <si>
+    <t>1a.  grudge doing something I grudge having to pay so much tax. 
+1b. grudge something He grudges the time he spends travelling to work. 
+2. You surely don't grudge her her success?</t>
+  </si>
+  <si>
+    <t>I have wanderlust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a big fan of travelling </t>
+  </si>
+  <si>
+    <t>to blow off steam</t>
+  </si>
+  <si>
+    <t>xả stress</t>
+  </si>
+  <si>
+    <t>Outdoors (av)
+Outdoor (a)</t>
+  </si>
+  <si>
+    <t>outdoor activities
+I like to go outdoors</t>
+  </si>
+  <si>
+    <t>at times</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <r>
+      <t>in my free time = in my leisure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = in my spare time</t>
+    </r>
+  </si>
+  <si>
+    <t>be eager to do sth</t>
+  </si>
+  <si>
+    <t>very enthusiastic, excited, or keen to do sth</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She’s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eager to learn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more about data analysis.</t>
+    </r>
+  </si>
+  <si>
+    <t>use or take full advantage of a situation, opportunity, or resource in the best possible way to achieve maximum benefit or value</t>
+  </si>
+  <si>
+    <t>make the most of sth</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you want to succeed in your new job, you should </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make the most of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the training and resources provided.</t>
+    </r>
+  </si>
+  <si>
+    <t>work solo</t>
+  </si>
+  <si>
+    <t>/ˈsəʊləʊ/</t>
+  </si>
+  <si>
+    <t>to work alone, without help or collaboration from others. It emphasizes doing a task independently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take something for granted </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I usually </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>work solo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when I need to focus on complex data analysis.</t>
+    </r>
+  </si>
+  <si>
+    <t>to assume that something will always be available or that it’s a given, without appreciating its value or realizing its importance. It can refer to things, people, or situations that are overlooked or not fully appreciated because they are taken as a certainty.</t>
+  </si>
+  <si>
+    <t>Overlook
+Underappreciate
+Fail to appreciate</t>
+  </si>
+  <si>
+    <t>Work alone
+Work independently
+Go solo (often used for creative or artistic endeavors)</t>
+  </si>
+  <si>
+    <t>to take years off someone</t>
+  </si>
+  <si>
+    <t>to make someone look or feel much younger, healthier, or more energetic. It often refers to the positive effects of something on a person's appearance or mood.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A new haircut can sometimes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>take years off you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, making you look much younger.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1852,6 +2223,22 @@
       <color rgb="FF333333"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1889,7 +2276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1919,6 +2306,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2222,15 +2615,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G119" sqref="G119"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="51.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="131.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="87.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="151.6640625" bestFit="1" customWidth="1"/>
@@ -3956,6 +4350,9 @@
       <c r="C105" t="s">
         <v>9</v>
       </c>
+      <c r="D105" t="s">
+        <v>474</v>
+      </c>
       <c r="E105" s="17" t="s">
         <v>438</v>
       </c>
@@ -4091,6 +4488,291 @@
       </c>
       <c r="G119" t="s">
         <v>473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C120" t="s">
+        <v>410</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G120" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>479</v>
+      </c>
+      <c r="E121" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>480</v>
+      </c>
+      <c r="E122" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>481</v>
+      </c>
+      <c r="B123" t="s">
+        <v>503</v>
+      </c>
+      <c r="E123" t="s">
+        <v>491</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>482</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" t="s">
+        <v>510</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>483</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>501</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>484</v>
+      </c>
+      <c r="E126" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>485</v>
+      </c>
+      <c r="E127" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>486</v>
+      </c>
+      <c r="E128" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>487</v>
+      </c>
+      <c r="E129" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>488</v>
+      </c>
+      <c r="C130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" t="s">
+        <v>506</v>
+      </c>
+      <c r="E130" t="s">
+        <v>507</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>496</v>
+      </c>
+      <c r="C131" t="s">
+        <v>34</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F131" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>512</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C132" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="273.60000000000002">
+      <c r="A133" t="s">
+        <v>516</v>
+      </c>
+      <c r="C133" t="s">
+        <v>410</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>520</v>
+      </c>
+      <c r="D134" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="E135" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="28.8">
+      <c r="A136" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>526</v>
+      </c>
+      <c r="D137" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>529</v>
+      </c>
+      <c r="E139" t="s">
+        <v>530</v>
+      </c>
+      <c r="G139" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>533</v>
+      </c>
+      <c r="E140" t="s">
+        <v>532</v>
+      </c>
+      <c r="G140" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="172.8">
+      <c r="A141" t="s">
+        <v>535</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C141" t="s">
+        <v>183</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E141" t="s">
+        <v>537</v>
+      </c>
+      <c r="G141" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="86.4">
+      <c r="A142" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E142" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="E143" t="s">
+        <v>544</v>
+      </c>
+      <c r="G143" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14046251-B7D9-4893-9146-6EE821FEC3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B863B2-1BB0-43F9-B9CE-EB33473CA348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="555">
   <si>
     <t>Word</t>
   </si>
@@ -2084,6 +2084,56 @@
       </rPr>
       <t>, making you look much younger.</t>
     </r>
+  </si>
+  <si>
+    <t>intrinsic and extrinsic</t>
+  </si>
+  <si>
+    <t>/ɪnˈtrɪnzɪk/   /eksˈtrɪnzɪk/</t>
+  </si>
+  <si>
+    <t>intrinsic/extrinsic motivation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Có nghĩa là sẵn sàng đầu tư thời gian và nỗ lực vào một việc gì đó </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trong thời gian dài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>in it for a long haul</t>
+  </si>
+  <si>
+    <t>Starting a business is challenging, but I'm in it for the long haul</t>
+  </si>
+  <si>
+    <t>Long-haul flight"</t>
+  </si>
+  <si>
+    <t>Chuyến bay đường dài (thường kéo dài hơn 6 tiếng)</t>
+  </si>
+  <si>
+    <t>booked a long-haul flight from New York to Tokyo</t>
   </si>
 </sst>
 </file>
@@ -2615,11 +2665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G142" sqref="G142"/>
+      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4775,6 +4825,42 @@
         <v>545</v>
       </c>
     </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>546</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C144" t="s">
+        <v>34</v>
+      </c>
+      <c r="F144" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>550</v>
+      </c>
+      <c r="E145" t="s">
+        <v>549</v>
+      </c>
+      <c r="G145" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>552</v>
+      </c>
+      <c r="E146" t="s">
+        <v>553</v>
+      </c>
+      <c r="G146" t="s">
+        <v>554</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D77" r:id="rId1" tooltip="meaning of splash out (something)" display="https://dictionary.cambridge.org/dictionary/english/splash-out" xr:uid="{9B2475DC-788B-4BD8-81E7-4EAD67015E7D}"/>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B863B2-1BB0-43F9-B9CE-EB33473CA348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C42164-5B2D-4D53-86CE-A324F0FD4F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="584">
   <si>
     <t>Word</t>
   </si>
@@ -2135,12 +2135,141 @@
   <si>
     <t>booked a long-haul flight from New York to Tokyo</t>
   </si>
+  <si>
+    <t>I am not a big beliver in saving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complacent </t>
+  </si>
+  <si>
+    <t>/kəmˈpleɪsnt/</t>
+  </si>
+  <si>
+    <t>too satisfied with yourself or with a situation, so that you do not feel that any change is necessary; showing or feeling complacency</t>
+  </si>
+  <si>
+    <r>
+      <t>complacent about somebody/something</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> We must not become complacent about progress.</t>
+    </r>
+  </si>
+  <si>
+    <t>procrastinate</t>
+  </si>
+  <si>
+    <t>/prəˈkræstɪneɪt/</t>
+  </si>
+  <si>
+    <t>to delay doing something that you should do, usually because you do not want to do it</t>
+  </si>
+  <si>
+    <t>People were dying of starvation while governments procrastinated.</t>
+  </si>
+  <si>
+    <t>lethargic</t>
+  </si>
+  <si>
+    <t>/ləˈθɑːdʒɪk/</t>
+  </si>
+  <si>
+    <r>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>without any energy or enthusiasm for doing things</t>
+    </r>
+  </si>
+  <si>
+    <t>listless</t>
+  </si>
+  <si>
+    <t>The weather made her lethargic.</t>
+  </si>
+  <si>
+    <t>civilian</t>
+  </si>
+  <si>
+    <t>səˈvɪliən/</t>
+  </si>
+  <si>
+    <t>a person who is not a member of the armed forces or the police</t>
+  </si>
+  <si>
+    <r>
+      <t>Hundreds of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>innocent civilians</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t> have died in the air strikes.</t>
+    </r>
+  </si>
+  <si>
+    <t>civilian life, civilian clothes, civilian job, protecting civilians</t>
+  </si>
+  <si>
+    <t>complicated</t>
+  </si>
+  <si>
+    <t>/ˈkɒmplɪkeɪtɪd/</t>
+  </si>
+  <si>
+    <t>ade of many different things or parts that are connected; difficult to understand</t>
+  </si>
+  <si>
+    <t>a complicated issue/process/system</t>
+  </si>
+  <si>
+    <t>The instructions look very complicated.</t>
+  </si>
+  <si>
+    <t>complex, intricate/ˈɪntrɪkət/, not simple or easy</t>
+  </si>
+  <si>
+    <t>concur</t>
+  </si>
+  <si>
+    <t>/kənˈkɜː(r)/</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Historians have concurred with each other in this view.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2289,6 +2418,23 @@
       <color rgb="FF202124"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF002147"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2326,7 +2472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2362,6 +2508,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2665,11 +2813,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4861,14 +5009,134 @@
         <v>554</v>
       </c>
     </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>556</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C148" t="s">
+        <v>34</v>
+      </c>
+      <c r="E148" t="s">
+        <v>558</v>
+      </c>
+      <c r="G148" s="23" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>560</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C149" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>564</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C150" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" t="s">
+        <v>567</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>569</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="F151" t="s">
+        <v>573</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>574</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C152" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152" t="s">
+        <v>579</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>580</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C153" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" t="s">
+        <v>582</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D77" r:id="rId1" tooltip="meaning of splash out (something)" display="https://dictionary.cambridge.org/dictionary/english/splash-out" xr:uid="{9B2475DC-788B-4BD8-81E7-4EAD67015E7D}"/>
     <hyperlink ref="E82" r:id="rId2" location="twist_topg_1" tooltip="twisted definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/twist_2 - twist_topg_1" xr:uid="{13B9D463-D5DC-45B7-8E1E-06B84EB951F4}"/>
     <hyperlink ref="E83" r:id="rId3" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate" xr:uid="{215C5BBE-BB40-42C7-950E-59BB5AEA7AE1}"/>
     <hyperlink ref="E84" r:id="rId4" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate" xr:uid="{37FEFB69-3ECE-432E-BD70-6DD80C5EFA7B}"/>
+    <hyperlink ref="E148" r:id="rId5" tooltip="complacency definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/complacency" xr:uid="{2BE70147-893A-43F9-8691-063C148C705E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vi2.tran\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C42164-5B2D-4D53-86CE-A324F0FD4F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="615">
   <si>
     <t>Word</t>
   </si>
@@ -2264,12 +2263,128 @@
   <si>
     <t>Historians have concurred with each other in this view.</t>
   </si>
+  <si>
+    <t>deteriorate</t>
+  </si>
+  <si>
+    <t>/dɪˈtɪəriəreɪt/</t>
+  </si>
+  <si>
+    <t>to become worse</t>
+  </si>
+  <si>
+    <t>Her health deteriorated rapidly, and she died shortly afterwards.</t>
+  </si>
+  <si>
+    <t>reconciliation</t>
+  </si>
+  <si>
+    <t>/ˌrekənsɪliˈeɪʃn/</t>
+  </si>
+  <si>
+    <t>an end to a disagreement or conflict with somebody and the start of a good relationship again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconciliation with somebody,    
+reconciliation between A and B </t>
+  </si>
+  <si>
+    <t>Their change of policy brought about a reconciliation with Britain.</t>
+  </si>
+  <si>
+    <t>discrepancy</t>
+  </si>
+  <si>
+    <t>/dɪˈskrepənsi/</t>
+  </si>
+  <si>
+    <t>a difference between two or more things that should be the same</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> discrepancy (in something) wide discrepancies in prices quoted for the work;   
+ discrepancy between A and B What are the reasons for the discrepancy between girls' and boys' performance in school?</t>
+  </si>
+  <si>
+    <t>fatality</t>
+  </si>
+  <si>
+    <t>/fəˈtæləti/</t>
+  </si>
+  <si>
+    <t>a death that is caused in an accident or a war, or by violence or disease</t>
+  </si>
+  <si>
+    <t>a campaign to reduce the number of fatalities on the roads</t>
+  </si>
+  <si>
+    <t>fate</t>
+  </si>
+  <si>
+    <t>/feɪt/</t>
+  </si>
+  <si>
+    <t>the things, especially bad things, that will happen or have happened to somebody/something</t>
+  </si>
+  <si>
+    <r>
+      <t>Each of the managers </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>suffered the same fate</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>sufficient</t>
+  </si>
+  <si>
+    <t>/səˈfɪʃnt/</t>
+  </si>
+  <si>
+    <t>op: insufficient</t>
+  </si>
+  <si>
+    <t>enough for a particular purpose; as much as you need</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sufficient to do something These reasons are not sufficient to justify the ban./
+Our budget is hardly sufficient to pay people, let alone buy any new equipment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recreational </t>
+  </si>
+  <si>
+    <t>/ˌrekriˈeɪʃənl/</t>
+  </si>
+  <si>
+    <t>connected with activities that people do for pleasure when they are not working</t>
+  </si>
+  <si>
+    <t>recreational drug/ activity/facility</t>
+  </si>
+  <si>
+    <t>These areas are set aside for public recreational use.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2431,9 +2546,22 @@
     </font>
     <font>
       <i/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2472,7 +2600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2510,6 +2638,11 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2812,20 +2945,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E158" sqref="E158"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="131.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="87.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="151.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="131.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="151.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3776,7 +3909,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.8">
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" t="s">
         <v>245</v>
       </c>
@@ -3859,7 +3992,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.8">
+    <row r="56" spans="1:7" ht="30">
       <c r="A56" t="s">
         <v>261</v>
       </c>
@@ -3918,7 +4051,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="40.200000000000003">
+    <row r="60" spans="1:7" ht="39">
       <c r="A60" t="s">
         <v>278</v>
       </c>
@@ -3935,7 +4068,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="27">
+    <row r="61" spans="1:7" ht="26.25">
       <c r="A61" t="s">
         <v>282</v>
       </c>
@@ -3958,7 +4091,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27">
+    <row r="62" spans="1:7" ht="26.25">
       <c r="A62" t="s">
         <v>289</v>
       </c>
@@ -4028,7 +4161,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.6">
+    <row r="67" spans="1:7" ht="15.75">
       <c r="A67" s="9" t="s">
         <v>306</v>
       </c>
@@ -4121,7 +4254,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="57.6">
+    <row r="73" spans="1:7" ht="60">
       <c r="A73" t="s">
         <v>330</v>
       </c>
@@ -4141,7 +4274,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="28.8">
+    <row r="74" spans="1:7" ht="30">
       <c r="A74" t="s">
         <v>335</v>
       </c>
@@ -4181,7 +4314,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="57.6">
+    <row r="76" spans="1:7" ht="60">
       <c r="A76" t="s">
         <v>345</v>
       </c>
@@ -4198,7 +4331,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="27.6">
+    <row r="77" spans="1:7" ht="27">
       <c r="A77" s="13" t="s">
         <v>349</v>
       </c>
@@ -4233,7 +4366,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="28.8">
+    <row r="80" spans="1:7" ht="30">
       <c r="A80" t="s">
         <v>358</v>
       </c>
@@ -4264,7 +4397,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="230.4">
+    <row r="82" spans="1:7" ht="255">
       <c r="A82" t="s">
         <v>365</v>
       </c>
@@ -4304,7 +4437,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="24.6">
+    <row r="84" spans="1:7" ht="25.5">
       <c r="A84" s="16" t="s">
         <v>375</v>
       </c>
@@ -4855,7 +4988,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="273.60000000000002">
+    <row r="133" spans="1:7" ht="330">
       <c r="A133" t="s">
         <v>516</v>
       </c>
@@ -4888,7 +5021,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="28.8">
+    <row r="136" spans="1:7" ht="30">
       <c r="A136" s="3" t="s">
         <v>524</v>
       </c>
@@ -4931,7 +5064,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="172.8">
+    <row r="141" spans="1:7" ht="195">
       <c r="A141" t="s">
         <v>535</v>
       </c>
@@ -4951,7 +5084,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="86.4">
+    <row r="142" spans="1:7" ht="90">
       <c r="A142" s="21" t="s">
         <v>538</v>
       </c>
@@ -5128,15 +5261,141 @@
         <v>583</v>
       </c>
     </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>584</v>
+      </c>
+      <c r="B154" t="s">
+        <v>585</v>
+      </c>
+      <c r="E154" t="s">
+        <v>586</v>
+      </c>
+      <c r="G154" s="25" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="30">
+      <c r="A155" t="s">
+        <v>588</v>
+      </c>
+      <c r="B155" t="s">
+        <v>589</v>
+      </c>
+      <c r="C155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" t="s">
+        <v>590</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G155" s="26" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="30">
+      <c r="A156" t="s">
+        <v>593</v>
+      </c>
+      <c r="B156" t="s">
+        <v>594</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s">
+        <v>595</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="16.5">
+      <c r="A157" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" t="s">
+        <v>599</v>
+      </c>
+      <c r="G157" s="25" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="16.5">
+      <c r="A158" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" t="s">
+        <v>603</v>
+      </c>
+      <c r="G158" s="25" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="30">
+      <c r="A159" t="s">
+        <v>605</v>
+      </c>
+      <c r="B159" t="s">
+        <v>606</v>
+      </c>
+      <c r="C159" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" t="s">
+        <v>607</v>
+      </c>
+      <c r="E159" t="s">
+        <v>608</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75">
+      <c r="A160" t="s">
+        <v>610</v>
+      </c>
+      <c r="B160" t="s">
+        <v>611</v>
+      </c>
+      <c r="D160" t="s">
+        <v>34</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="F160" t="s">
+        <v>613</v>
+      </c>
+      <c r="G160" s="25" t="s">
+        <v>614</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D77" r:id="rId1" tooltip="meaning of splash out (something)" display="https://dictionary.cambridge.org/dictionary/english/splash-out" xr:uid="{9B2475DC-788B-4BD8-81E7-4EAD67015E7D}"/>
-    <hyperlink ref="E82" r:id="rId2" location="twist_topg_1" tooltip="twisted definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/twist_2 - twist_topg_1" xr:uid="{13B9D463-D5DC-45B7-8E1E-06B84EB951F4}"/>
-    <hyperlink ref="E83" r:id="rId3" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate" xr:uid="{215C5BBE-BB40-42C7-950E-59BB5AEA7AE1}"/>
-    <hyperlink ref="E84" r:id="rId4" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate" xr:uid="{37FEFB69-3ECE-432E-BD70-6DD80C5EFA7B}"/>
-    <hyperlink ref="E148" r:id="rId5" tooltip="complacency definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/complacency" xr:uid="{2BE70147-893A-43F9-8691-063C148C705E}"/>
+    <hyperlink ref="D77" r:id="rId1" tooltip="meaning of splash out (something)" display="https://dictionary.cambridge.org/dictionary/english/splash-out"/>
+    <hyperlink ref="E82" r:id="rId2" location="twist_topg_1" tooltip="twisted definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/twist_2 - twist_topg_1"/>
+    <hyperlink ref="E83" r:id="rId3" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate"/>
+    <hyperlink ref="E84" r:id="rId4" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate"/>
+    <hyperlink ref="E148" r:id="rId5" tooltip="complacency definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/complacency"/>
+    <hyperlink ref="E155" r:id="rId6" tooltip="disagreement definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/disagreement"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vi2.tran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678065B2-00DD-47C9-8618-B1A7FEC50FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="693">
   <si>
     <t>Word</t>
   </si>
@@ -2264,127 +2265,348 @@
     <t>Historians have concurred with each other in this view.</t>
   </si>
   <si>
-    <t>deteriorate</t>
-  </si>
-  <si>
-    <t>/dɪˈtɪəriəreɪt/</t>
-  </si>
-  <si>
-    <t>to become worse</t>
-  </si>
-  <si>
-    <t>Her health deteriorated rapidly, and she died shortly afterwards.</t>
-  </si>
-  <si>
-    <t>reconciliation</t>
-  </si>
-  <si>
-    <t>/ˌrekənsɪliˈeɪʃn/</t>
-  </si>
-  <si>
-    <t>an end to a disagreement or conflict with somebody and the start of a good relationship again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconciliation with somebody,    
-reconciliation between A and B </t>
-  </si>
-  <si>
-    <t>Their change of policy brought about a reconciliation with Britain.</t>
-  </si>
-  <si>
-    <t>discrepancy</t>
-  </si>
-  <si>
-    <t>/dɪˈskrepənsi/</t>
-  </si>
-  <si>
-    <t>a difference between two or more things that should be the same</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> discrepancy (in something) wide discrepancies in prices quoted for the work;   
- discrepancy between A and B What are the reasons for the discrepancy between girls' and boys' performance in school?</t>
-  </si>
-  <si>
-    <t>fatality</t>
-  </si>
-  <si>
-    <t>/fəˈtæləti/</t>
-  </si>
-  <si>
-    <t>a death that is caused in an accident or a war, or by violence or disease</t>
-  </si>
-  <si>
-    <t>a campaign to reduce the number of fatalities on the roads</t>
-  </si>
-  <si>
-    <t>fate</t>
-  </si>
-  <si>
-    <t>/feɪt/</t>
-  </si>
-  <si>
-    <t>the things, especially bad things, that will happen or have happened to somebody/something</t>
-  </si>
-  <si>
-    <r>
-      <t>Each of the managers </t>
+    <t>flake</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>flake off, peel off</t>
+  </si>
+  <si>
+    <t>digress</t>
+  </si>
+  <si>
+    <t>/daɪˈɡres/</t>
+  </si>
+  <si>
+    <r>
+      <t>​</t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FF333333"/>
         <rFont val="Inherit"/>
       </rPr>
-      <t>suffered the same fate</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>sufficient</t>
-  </si>
-  <si>
-    <t>/səˈfɪʃnt/</t>
-  </si>
-  <si>
-    <t>op: insufficient</t>
-  </si>
-  <si>
-    <t>enough for a particular purpose; as much as you need</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sufficient to do something These reasons are not sufficient to justify the ban./
-Our budget is hardly sufficient to pay people, let alone buy any new equipment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recreational </t>
-  </si>
-  <si>
-    <t>/ˌrekriˈeɪʃənl/</t>
-  </si>
-  <si>
-    <t>connected with activities that people do for pleasure when they are not working</t>
-  </si>
-  <si>
-    <t>recreational drug/ activity/facility</t>
-  </si>
-  <si>
-    <t>These areas are set aside for public recreational use.</t>
+      <t>to start to talk about something that is not connected with the main point of what you are saying</t>
+    </r>
+  </si>
+  <si>
+    <t>To digress for a moment, I would like to remind you that there will be no classes next week.</t>
+  </si>
+  <si>
+    <t>/ˈfrædʒaɪl/</t>
+  </si>
+  <si>
+    <t>fragile</t>
+  </si>
+  <si>
+    <t>easily broken or damaged; weak and uncertain; easy to destroy or harm</t>
+  </si>
+  <si>
+    <t>fragile china/glass/bones; a fragile alliance/ceasefire/relationship</t>
+  </si>
+  <si>
+    <t>The economy remains extremely fragile.</t>
+  </si>
+  <si>
+    <t>galore</t>
+  </si>
+  <si>
+    <t>/ɡəˈlɔː(r)/</t>
+  </si>
+  <si>
+    <t>in large quantities</t>
+  </si>
+  <si>
+    <t>There will be games and prizes galore.</t>
+  </si>
+  <si>
+    <t>Cuisine</t>
+  </si>
+  <si>
+    <t>/kwɪˈziːn/</t>
+  </si>
+  <si>
+    <t>A style of cooking, especially one characteristic of a particular country or region.</t>
+  </si>
+  <si>
+    <t>"I love Thai cuisine for its spicy flavors."</t>
+  </si>
+  <si>
+    <t>Savory</t>
+  </si>
+  <si>
+    <t>/ˈseɪ.vəri/</t>
+  </si>
+  <si>
+    <t>Having a salty or spicy flavor, not sweet.</t>
+  </si>
+  <si>
+    <t>"The chef prepared a savory dish of roasted chicken."</t>
+  </si>
+  <si>
+    <t>Appetizer</t>
+  </si>
+  <si>
+    <t>/ˈæpɪˌtaɪzər/</t>
+  </si>
+  <si>
+    <t>A small dish served before the main course to stimulate the appetite.</t>
+  </si>
+  <si>
+    <t>"We ordered a few appetizers to start our meal."</t>
+  </si>
+  <si>
+    <t>Garnish</t>
+  </si>
+  <si>
+    <t>/ˈɡɑːrnɪʃ/</t>
+  </si>
+  <si>
+    <t>A decoration or accompaniment to a dish to enhance its flavor or appearance.</t>
+  </si>
+  <si>
+    <t>"The salad was garnished with fresh herbs."</t>
+  </si>
+  <si>
+    <t>Ferment</t>
+  </si>
+  <si>
+    <t>/fərˈmɛnt/</t>
+  </si>
+  <si>
+    <t>The process of causing food or drink to break down into simpler substances by bacteria, yeast, or other microorganisms.</t>
+  </si>
+  <si>
+    <t>"Kimchi is a popular fermented Korean dish."</t>
+  </si>
+  <si>
+    <t>Umami</t>
+  </si>
+  <si>
+    <t>/uːˈmɑːmi/</t>
+  </si>
+  <si>
+    <t>A savory taste that is one of the five basic tastes, often found in foods like mushrooms, cheese, and meat.</t>
+  </si>
+  <si>
+    <t>"The miso soup has a strong umami flavor."</t>
+  </si>
+  <si>
+    <t>Stir-fry</t>
+  </si>
+  <si>
+    <t>/ˈstɜːrˌfraɪ/</t>
+  </si>
+  <si>
+    <t>To cook food quickly in a small amount of oil over high heat while stirring constantly.</t>
+  </si>
+  <si>
+    <t>"I made a vegetable stir-fry for dinner."</t>
+  </si>
+  <si>
+    <t>Aromatic</t>
+  </si>
+  <si>
+    <t>/ˌærəˈmætɪk/</t>
+  </si>
+  <si>
+    <t>Having a pleasant and distinctive smell, often used to describe spices and herbs.</t>
+  </si>
+  <si>
+    <t>"The kitchen was filled with the aromatic scent of cinnamon."</t>
+  </si>
+  <si>
+    <t>Zesty</t>
+  </si>
+  <si>
+    <t>/ˈzɛsti/</t>
+  </si>
+  <si>
+    <t>Having a strong, pleasant, and somewhat spicy flavor or quality.</t>
+  </si>
+  <si>
+    <t>"The lemon dressing gave the salad a zesty kick."</t>
+  </si>
+  <si>
+    <t>Delectable</t>
+  </si>
+  <si>
+    <t>/dɪˈlɛktəbəl/</t>
+  </si>
+  <si>
+    <t>Extremely delicious or appetizing.</t>
+  </si>
+  <si>
+    <t>"The chocolate cake was simply delectable."</t>
+  </si>
+  <si>
+    <t>Caramelize</t>
+  </si>
+  <si>
+    <t>/ˈkærəˌməlaɪz/</t>
+  </si>
+  <si>
+    <t>To cook sugar until it turns brown and develops a rich flavor.</t>
+  </si>
+  <si>
+    <t>"Caramelizing onions adds depth to the dish."</t>
+  </si>
+  <si>
+    <t>Marinate</t>
+  </si>
+  <si>
+    <t>/ˈmærɪˌneɪt/</t>
+  </si>
+  <si>
+    <t>To soak food, typically meat, in a flavored liquid before cooking.</t>
+  </si>
+  <si>
+    <t>"I marinated the chicken overnight for better flavor."</t>
+  </si>
+  <si>
+    <t>Simmer</t>
+  </si>
+  <si>
+    <t>/ˈsɪmər/</t>
+  </si>
+  <si>
+    <t>To cook food gently in a liquid at a low temperature.</t>
+  </si>
+  <si>
+    <t>"Let the soup simmer for 30 minutes."</t>
+  </si>
+  <si>
+    <t>Artisan</t>
+  </si>
+  <si>
+    <t>/ˈɑːrtɪzən/</t>
+  </si>
+  <si>
+    <t>A person skilled in a particular craft, often used to describe high-quality handmade foods.</t>
+  </si>
+  <si>
+    <t>"Artisan bread is made with natural ingredients."</t>
+  </si>
+  <si>
+    <t>Confectionery</t>
+  </si>
+  <si>
+    <t>/kənˈfɛkʃənəri/</t>
+  </si>
+  <si>
+    <t>Sweets, candies, and chocolates collectively.</t>
+  </si>
+  <si>
+    <t>"The confectionery shop was filled with colorful treats."</t>
+  </si>
+  <si>
+    <t>Broil</t>
+  </si>
+  <si>
+    <t>/brɔɪl/</t>
+  </si>
+  <si>
+    <t>To cook food directly under a heat source, such as a grill.</t>
+  </si>
+  <si>
+    <t>"I like to broil salmon for a crispy skin."</t>
+  </si>
+  <si>
+    <t>Al dente</t>
+  </si>
+  <si>
+    <t>/æl ˈdɛnteɪ/</t>
+  </si>
+  <si>
+    <t>(Italian) Cooked so that it is still firm when bitten, usually used for pasta.</t>
+  </si>
+  <si>
+    <t>"Cook the pasta al dente for the best texture."</t>
+  </si>
+  <si>
+    <t>Sauté</t>
+  </si>
+  <si>
+    <t>/sɔːˈteɪ/</t>
+  </si>
+  <si>
+    <t>To cook food quickly in a small amount of oil or butter over high heat.</t>
+  </si>
+  <si>
+    <t>"Sauté the mushrooms with garlic until golden brown."</t>
+  </si>
+  <si>
+    <t>A rich, savory taste found in foods like soy sauce and parmesan cheese.</t>
+  </si>
+  <si>
+    <t>"The dish has a deep umami flavor from the mushrooms."</t>
+  </si>
+  <si>
+    <t>Seasoning</t>
+  </si>
+  <si>
+    <t>Spices or herbs added to food to enhance its flavor.</t>
+  </si>
+  <si>
+    <t>"Add salt and pepper for seasoning to taste."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rote memorization </t>
+  </si>
+  <si>
+    <t>học thuộc lòng</t>
+  </si>
+  <si>
+    <t>Genuine</t>
+  </si>
+  <si>
+    <t>/ˈdʒenjuɪn/</t>
+  </si>
+  <si>
+    <t>authentic, true, real</t>
+  </si>
+  <si>
+    <t>real; exactly what it appears to be; not artificial</t>
+  </si>
+  <si>
+    <t>The document is not considered genuine.</t>
+  </si>
+  <si>
+    <t>/ˈhɒstaɪl/</t>
+  </si>
+  <si>
+    <t>hostile</t>
+  </si>
+  <si>
+    <t>aggressive or unfriendly and ready to argue or fight</t>
+  </si>
+  <si>
+    <t>hostile to/towards somebody/something</t>
+  </si>
+  <si>
+    <t>She was openly hostile towards her parents.</t>
+  </si>
+  <si>
+    <t>impatient</t>
+  </si>
+  <si>
+    <t>op: patient</t>
+  </si>
+  <si>
+    <t>annoyed by somebody/something, especially because you have to wait for a long time</t>
+  </si>
+  <si>
+    <t>I'd been waiting for twenty minutes and I was getting impatient.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2545,22 +2767,9 @@
       <name val="Inherit"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Lucida Sans Unicode"/>
+      <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2638,11 +2847,13 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2945,20 +3156,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="131.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="151.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="131.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="151.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3909,7 +4121,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="28.8">
       <c r="A52" t="s">
         <v>245</v>
       </c>
@@ -3992,7 +4204,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30">
+    <row r="56" spans="1:7" ht="28.8">
       <c r="A56" t="s">
         <v>261</v>
       </c>
@@ -4051,7 +4263,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="39">
+    <row r="60" spans="1:7" ht="40.200000000000003">
       <c r="A60" t="s">
         <v>278</v>
       </c>
@@ -4068,7 +4280,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="26.25">
+    <row r="61" spans="1:7" ht="27">
       <c r="A61" t="s">
         <v>282</v>
       </c>
@@ -4091,7 +4303,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="26.25">
+    <row r="62" spans="1:7" ht="27">
       <c r="A62" t="s">
         <v>289</v>
       </c>
@@ -4161,7 +4373,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75">
+    <row r="67" spans="1:7" ht="15.6">
       <c r="A67" s="9" t="s">
         <v>306</v>
       </c>
@@ -4254,7 +4466,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="60">
+    <row r="73" spans="1:7" ht="57.6">
       <c r="A73" t="s">
         <v>330</v>
       </c>
@@ -4274,7 +4486,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30">
+    <row r="74" spans="1:7" ht="28.8">
       <c r="A74" t="s">
         <v>335</v>
       </c>
@@ -4314,7 +4526,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="60">
+    <row r="76" spans="1:7" ht="57.6">
       <c r="A76" t="s">
         <v>345</v>
       </c>
@@ -4331,7 +4543,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="27">
+    <row r="77" spans="1:7" ht="27.6">
       <c r="A77" s="13" t="s">
         <v>349</v>
       </c>
@@ -4366,7 +4578,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30">
+    <row r="80" spans="1:7" ht="28.8">
       <c r="A80" t="s">
         <v>358</v>
       </c>
@@ -4397,7 +4609,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="255">
+    <row r="82" spans="1:7" ht="230.4">
       <c r="A82" t="s">
         <v>365</v>
       </c>
@@ -4437,7 +4649,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="25.5">
+    <row r="84" spans="1:7" ht="24.6">
       <c r="A84" s="16" t="s">
         <v>375</v>
       </c>
@@ -4988,7 +5200,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="330">
+    <row r="133" spans="1:7" ht="273.60000000000002">
       <c r="A133" t="s">
         <v>516</v>
       </c>
@@ -5021,7 +5233,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="30">
+    <row r="136" spans="1:7" ht="28.8">
       <c r="A136" s="3" t="s">
         <v>524</v>
       </c>
@@ -5064,7 +5276,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="195">
+    <row r="141" spans="1:7" ht="172.8">
       <c r="A141" t="s">
         <v>535</v>
       </c>
@@ -5084,7 +5296,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="90">
+    <row r="142" spans="1:7" ht="86.4">
       <c r="A142" s="21" t="s">
         <v>538</v>
       </c>
@@ -5265,137 +5477,481 @@
       <c r="A154" t="s">
         <v>584</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" t="s">
         <v>585</v>
       </c>
-      <c r="E154" t="s">
+      <c r="G154" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="G154" s="25" t="s">
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="30">
-      <c r="A155" t="s">
+      <c r="B155" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+      <c r="E155" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="C155" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="G155" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="F155" s="3" t="s">
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>592</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="G155" s="26" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="30">
-      <c r="A156" t="s">
+      <c r="C156" t="s">
+        <v>34</v>
+      </c>
+      <c r="E156" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B156" t="s">
+      <c r="F156" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="C156" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="G156" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="G156" s="3" t="s">
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="16.5">
-      <c r="A157" s="9" t="s">
+      <c r="B157" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B157" s="27" t="s">
+      <c r="E157" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="C157" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="G157" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="G157" s="25" t="s">
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="26" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="16.5">
-      <c r="A158" s="9" t="s">
+      <c r="B158" s="25" t="s">
         <v>601</v>
-      </c>
-      <c r="B158" s="27" t="s">
-        <v>602</v>
       </c>
       <c r="C158" t="s">
         <v>9</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="G158" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="G158" s="25" t="s">
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="26" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="30">
-      <c r="A159" t="s">
+      <c r="B159" s="25" t="s">
         <v>605</v>
-      </c>
-      <c r="B159" t="s">
-        <v>606</v>
       </c>
       <c r="C159" t="s">
         <v>34</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="G159" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="E159" t="s">
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="B160" s="25" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="15.75">
-      <c r="A160" t="s">
+      <c r="C160" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="B160" t="s">
+      <c r="G160" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="D160" t="s">
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="B161" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="C161" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="G161" s="25" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="G162" s="25" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="B163" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="G163" s="25" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="B164" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="E164" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="G164" s="25" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="B165" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="C165" t="s">
         <v>34</v>
       </c>
-      <c r="E160" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="F160" t="s">
-        <v>613</v>
-      </c>
-      <c r="G160" s="25" t="s">
-        <v>614</v>
+      <c r="E165" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="G165" s="25" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="B166" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="C166" t="s">
+        <v>34</v>
+      </c>
+      <c r="E166" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="G166" s="25" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="B167" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="C167" t="s">
+        <v>34</v>
+      </c>
+      <c r="E167" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="G167" s="25" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="B168" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="C168" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="G168" s="25" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="B169" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="C169" t="s">
+        <v>24</v>
+      </c>
+      <c r="E169" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="G169" s="25" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="B170" s="25" t="s">
+        <v>649</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="G170" s="25" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="B171" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="G171" s="25" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>657</v>
+      </c>
+      <c r="C172" t="s">
+        <v>34</v>
+      </c>
+      <c r="E172" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="G172" s="25" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="B173" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="C173" t="s">
+        <v>24</v>
+      </c>
+      <c r="E173" s="25" t="s">
+        <v>662</v>
+      </c>
+      <c r="G173" s="25" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>665</v>
+      </c>
+      <c r="C174" t="s">
+        <v>34</v>
+      </c>
+      <c r="E174" s="25" t="s">
+        <v>666</v>
+      </c>
+      <c r="G174" s="25" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="B175" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="C175" t="s">
+        <v>24</v>
+      </c>
+      <c r="E175" s="25" t="s">
+        <v>670</v>
+      </c>
+      <c r="G175" s="25" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="B176" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="C176" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="G176" s="25" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="B177" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C177" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="G177" s="25" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>677</v>
+      </c>
+      <c r="E178" s="25" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>679</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C179" t="s">
+        <v>34</v>
+      </c>
+      <c r="D179" t="s">
+        <v>681</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C180" t="s">
+        <v>34</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="F180" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="G180" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="C181" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" t="s">
+        <v>690</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>692</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D77" r:id="rId1" tooltip="meaning of splash out (something)" display="https://dictionary.cambridge.org/dictionary/english/splash-out"/>
-    <hyperlink ref="E82" r:id="rId2" location="twist_topg_1" tooltip="twisted definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/twist_2 - twist_topg_1"/>
-    <hyperlink ref="E83" r:id="rId3" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate"/>
-    <hyperlink ref="E84" r:id="rId4" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate"/>
-    <hyperlink ref="E148" r:id="rId5" tooltip="complacency definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/complacency"/>
-    <hyperlink ref="E155" r:id="rId6" tooltip="disagreement definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/disagreement"/>
+    <hyperlink ref="D77" r:id="rId1" tooltip="meaning of splash out (something)" display="https://dictionary.cambridge.org/dictionary/english/splash-out" xr:uid="{9B2475DC-788B-4BD8-81E7-4EAD67015E7D}"/>
+    <hyperlink ref="E82" r:id="rId2" location="twist_topg_1" tooltip="twisted definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/twist_2 - twist_topg_1" xr:uid="{13B9D463-D5DC-45B7-8E1E-06B84EB951F4}"/>
+    <hyperlink ref="E83" r:id="rId3" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate" xr:uid="{215C5BBE-BB40-42C7-950E-59BB5AEA7AE1}"/>
+    <hyperlink ref="E84" r:id="rId4" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate" xr:uid="{37FEFB69-3ECE-432E-BD70-6DD80C5EFA7B}"/>
+    <hyperlink ref="E148" r:id="rId5" tooltip="complacency definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/complacency" xr:uid="{2BE70147-893A-43F9-8691-063C148C705E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678065B2-00DD-47C9-8618-B1A7FEC50FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACDF31F-EB07-4D74-808C-9AFDA40FF584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="0" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="727">
   <si>
     <t>Word</t>
   </si>
@@ -2601,12 +2601,157 @@
   <si>
     <t>I'd been waiting for twenty minutes and I was getting impatient.</t>
   </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>mental pressure or worry felt by somebody because they have too much to do or manage; something that causes this pressure</t>
+  </si>
+  <si>
+    <t>/streɪn/</t>
+  </si>
+  <si>
+    <t>(under strain) Their marriage is under great strain at the moment.
+ (strain on something) These repayments are putting a strain on our finances.</t>
+  </si>
+  <si>
+    <t>The transport service cannot cope with the strain of so many additional passengers.</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>/ɔːlˈtɜːnətɪv/</t>
+  </si>
+  <si>
+    <t>a thing that you can choose to do or have out of two or more possibilities</t>
+  </si>
+  <si>
+    <r>
+      <t>to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>offer/provide an alternative</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(alternative for somebody)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> This treatment is the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>only alternative</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> for some patients.</t>
+    </r>
+  </si>
+  <si>
+    <t>substitude</t>
+  </si>
+  <si>
+    <t>/ˈsʌbstɪtjuːt/</t>
+  </si>
+  <si>
+    <t>a person or thing that you use or have instead of the one you normally use or have</t>
+  </si>
+  <si>
+    <t>substitute for somebody/something</t>
+  </si>
+  <si>
+    <t>levy a tax</t>
+  </si>
+  <si>
+    <t>đánh thuế</t>
+  </si>
+  <si>
+    <t>/ˈlevi/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">significant hurdle </t>
+  </si>
+  <si>
+    <t>a problem or difficulty that must be solved or dealt with before you can achieve something</t>
+  </si>
+  <si>
+    <t>obstacle</t>
+  </si>
+  <si>
+    <t>/ˈhɜːdl/</t>
+  </si>
+  <si>
+    <t>buzz about</t>
+  </si>
+  <si>
+    <t>xôn xao về</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the internet is buzzing about the tiny house of Elon Musk  </t>
+  </si>
+  <si>
+    <t>bedroom furnishings</t>
+  </si>
+  <si>
+    <t>the furniture, carpets, curtains, etc. in a room or house</t>
+  </si>
+  <si>
+    <t>/ˈfɜːrnɪʃɪŋz/</t>
+  </si>
+  <si>
+    <t>furnishings</t>
+  </si>
+  <si>
+    <t>collobrate</t>
+  </si>
+  <si>
+    <t>cooperate</t>
+  </si>
+  <si>
+    <t>expertise (n) &lt;&gt; expert (n/a)</t>
+  </si>
+  <si>
+    <t>có chuyên môn &lt;&gt; chuyên gia</t>
+  </si>
+  <si>
+    <t>expert opinion</t>
+  </si>
+  <si>
+    <t>he has expertise in artificial inteligent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2772,6 +2917,12 @@
       <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2809,7 +2960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2854,6 +3005,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3157,11 +3309,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5943,6 +6095,144 @@
         <v>692</v>
       </c>
     </row>
+    <row r="182" spans="1:7" ht="28.8">
+      <c r="A182" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C183" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="G183" s="28" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C184" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" t="s">
+        <v>698</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F184" s="28" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="26" t="s">
+        <v>707</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>710</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C186" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>712</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="G187" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>720</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C188" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F188" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="D189" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>723</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="F190" t="s">
+        <v>725</v>
+      </c>
+      <c r="G190" t="s">
+        <v>726</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D77" r:id="rId1" tooltip="meaning of splash out (something)" display="https://dictionary.cambridge.org/dictionary/english/splash-out" xr:uid="{9B2475DC-788B-4BD8-81E7-4EAD67015E7D}"/>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACDF31F-EB07-4D74-808C-9AFDA40FF584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D4F0B7-EECB-44F5-8F0A-DF8106862F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="0" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="743">
   <si>
     <t>Word</t>
   </si>
@@ -2268,9 +2268,6 @@
     <t>flake</t>
   </si>
   <si>
-    <t>peel</t>
-  </si>
-  <si>
     <t>flake off, peel off</t>
   </si>
   <si>
@@ -2745,6 +2742,57 @@
   </si>
   <si>
     <t>he has expertise in artificial inteligent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushing people on the cusp of poverty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">perpetuate </t>
+  </si>
+  <si>
+    <t>eligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demoralizing </t>
+  </si>
+  <si>
+    <t>initiative (n)</t>
+  </si>
+  <si>
+    <t>initiate</t>
+  </si>
+  <si>
+    <t>trò đùa</t>
+  </si>
+  <si>
+    <t>đẩy mọi người đến bờ vực nghèo đói</t>
+  </si>
+  <si>
+    <t>duy trì</t>
+  </si>
+  <si>
+    <t>đủ điều kiện</t>
+  </si>
+  <si>
+    <t>làm mất tinh thần</t>
+  </si>
+  <si>
+    <t>sáng kiến ​​(danh từ)</t>
+  </si>
+  <si>
+    <t>khởi xướng</t>
+  </si>
+  <si>
+    <t>/ɪˈnɪʃətɪv/</t>
+  </si>
+  <si>
+    <t>/ɪˈnɪʃieɪt/</t>
+  </si>
+  <si>
+    <t>peel off</t>
   </si>
 </sst>
 </file>
@@ -3309,11 +3357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G192" sqref="G192"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5633,389 +5681,389 @@
         <v>24</v>
       </c>
       <c r="D154" t="s">
+        <v>742</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
+        <v>586</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="C155" t="s">
         <v>24</v>
       </c>
       <c r="E155" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="G155" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C156" t="s">
         <v>34</v>
       </c>
       <c r="E156" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="F156" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="G156" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
+        <v>595</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="E157" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="G157" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="B158" s="25" t="s">
         <v>600</v>
-      </c>
-      <c r="B158" s="25" t="s">
-        <v>601</v>
       </c>
       <c r="C158" t="s">
         <v>9</v>
       </c>
       <c r="E158" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="G158" s="25" t="s">
         <v>602</v>
-      </c>
-      <c r="G158" s="25" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="B159" s="25" t="s">
         <v>604</v>
-      </c>
-      <c r="B159" s="25" t="s">
-        <v>605</v>
       </c>
       <c r="C159" t="s">
         <v>34</v>
       </c>
       <c r="E159" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="G159" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="G159" s="25" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="B160" s="25" t="s">
         <v>608</v>
-      </c>
-      <c r="B160" s="25" t="s">
-        <v>609</v>
       </c>
       <c r="C160" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="G160" s="25" t="s">
         <v>610</v>
-      </c>
-      <c r="G160" s="25" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="B161" s="25" t="s">
         <v>612</v>
-      </c>
-      <c r="B161" s="25" t="s">
-        <v>613</v>
       </c>
       <c r="C161" t="s">
         <v>9</v>
       </c>
       <c r="E161" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="G161" s="25" t="s">
         <v>614</v>
-      </c>
-      <c r="G161" s="25" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="B162" s="25" t="s">
         <v>616</v>
-      </c>
-      <c r="B162" s="25" t="s">
-        <v>617</v>
       </c>
       <c r="C162" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="G162" s="25" t="s">
         <v>618</v>
-      </c>
-      <c r="G162" s="25" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="B163" s="25" t="s">
         <v>620</v>
-      </c>
-      <c r="B163" s="25" t="s">
-        <v>621</v>
       </c>
       <c r="C163" t="s">
         <v>9</v>
       </c>
       <c r="E163" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="G163" s="25" t="s">
         <v>622</v>
-      </c>
-      <c r="G163" s="25" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="B164" s="25" t="s">
         <v>624</v>
-      </c>
-      <c r="B164" s="25" t="s">
-        <v>625</v>
       </c>
       <c r="C164" t="s">
         <v>24</v>
       </c>
       <c r="E164" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="G164" s="25" t="s">
         <v>626</v>
-      </c>
-      <c r="G164" s="25" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="B165" s="25" t="s">
         <v>628</v>
-      </c>
-      <c r="B165" s="25" t="s">
-        <v>629</v>
       </c>
       <c r="C165" t="s">
         <v>34</v>
       </c>
       <c r="E165" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="G165" s="25" t="s">
         <v>630</v>
-      </c>
-      <c r="G165" s="25" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="B166" s="25" t="s">
         <v>632</v>
-      </c>
-      <c r="B166" s="25" t="s">
-        <v>633</v>
       </c>
       <c r="C166" t="s">
         <v>34</v>
       </c>
       <c r="E166" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="G166" s="25" t="s">
         <v>634</v>
-      </c>
-      <c r="G166" s="25" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="B167" s="25" t="s">
         <v>636</v>
-      </c>
-      <c r="B167" s="25" t="s">
-        <v>637</v>
       </c>
       <c r="C167" t="s">
         <v>34</v>
       </c>
       <c r="E167" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="G167" s="25" t="s">
         <v>638</v>
-      </c>
-      <c r="G167" s="25" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="B168" s="25" t="s">
         <v>640</v>
-      </c>
-      <c r="B168" s="25" t="s">
-        <v>641</v>
       </c>
       <c r="C168" t="s">
         <v>24</v>
       </c>
       <c r="E168" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="G168" s="25" t="s">
         <v>642</v>
-      </c>
-      <c r="G168" s="25" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="B169" s="25" t="s">
         <v>644</v>
-      </c>
-      <c r="B169" s="25" t="s">
-        <v>645</v>
       </c>
       <c r="C169" t="s">
         <v>24</v>
       </c>
       <c r="E169" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="G169" s="25" t="s">
         <v>646</v>
-      </c>
-      <c r="G169" s="25" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="B170" s="25" t="s">
         <v>648</v>
-      </c>
-      <c r="B170" s="25" t="s">
-        <v>649</v>
       </c>
       <c r="C170" t="s">
         <v>24</v>
       </c>
       <c r="E170" s="25" t="s">
+        <v>649</v>
+      </c>
+      <c r="G170" s="25" t="s">
         <v>650</v>
-      </c>
-      <c r="G170" s="25" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="B171" s="25" t="s">
         <v>652</v>
-      </c>
-      <c r="B171" s="25" t="s">
-        <v>653</v>
       </c>
       <c r="C171" t="s">
         <v>9</v>
       </c>
       <c r="E171" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="G171" s="25" t="s">
         <v>654</v>
-      </c>
-      <c r="G171" s="25" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="B172" s="25" t="s">
         <v>656</v>
-      </c>
-      <c r="B172" s="25" t="s">
-        <v>657</v>
       </c>
       <c r="C172" t="s">
         <v>34</v>
       </c>
       <c r="E172" s="25" t="s">
+        <v>657</v>
+      </c>
+      <c r="G172" s="25" t="s">
         <v>658</v>
-      </c>
-      <c r="G172" s="25" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="B173" s="25" t="s">
         <v>660</v>
-      </c>
-      <c r="B173" s="25" t="s">
-        <v>661</v>
       </c>
       <c r="C173" t="s">
         <v>24</v>
       </c>
       <c r="E173" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="G173" s="25" t="s">
         <v>662</v>
-      </c>
-      <c r="G173" s="25" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="B174" s="25" t="s">
         <v>664</v>
-      </c>
-      <c r="B174" s="25" t="s">
-        <v>665</v>
       </c>
       <c r="C174" t="s">
         <v>34</v>
       </c>
       <c r="E174" s="25" t="s">
+        <v>665</v>
+      </c>
+      <c r="G174" s="25" t="s">
         <v>666</v>
-      </c>
-      <c r="G174" s="25" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="B175" s="25" t="s">
         <v>668</v>
-      </c>
-      <c r="B175" s="25" t="s">
-        <v>669</v>
       </c>
       <c r="C175" t="s">
         <v>24</v>
       </c>
       <c r="E175" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="G175" s="25" t="s">
         <v>670</v>
-      </c>
-      <c r="G175" s="25" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="B176" s="25" t="s">
         <v>620</v>
-      </c>
-      <c r="B176" s="25" t="s">
-        <v>621</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
       </c>
       <c r="E176" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="G176" s="25" t="s">
         <v>672</v>
-      </c>
-      <c r="G176" s="25" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B177" s="25" t="s">
         <v>439</v>
@@ -6024,213 +6072,275 @@
         <v>9</v>
       </c>
       <c r="E177" s="25" t="s">
+        <v>674</v>
+      </c>
+      <c r="G177" s="25" t="s">
         <v>675</v>
-      </c>
-      <c r="G177" s="25" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
+        <v>676</v>
+      </c>
+      <c r="E178" s="25" t="s">
         <v>677</v>
-      </c>
-      <c r="E178" s="25" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
+        <v>678</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="C179" t="s">
         <v>34</v>
       </c>
       <c r="D179" t="s">
+        <v>680</v>
+      </c>
+      <c r="E179" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="G179" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C180" t="s">
         <v>34</v>
       </c>
       <c r="E180" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="F180" s="27" t="s">
         <v>686</v>
       </c>
-      <c r="F180" s="27" t="s">
+      <c r="G180" s="10" t="s">
         <v>687</v>
-      </c>
-      <c r="G180" s="10" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C181" t="s">
         <v>34</v>
       </c>
       <c r="D181" t="s">
+        <v>689</v>
+      </c>
+      <c r="E181" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="G181" s="6" t="s">
         <v>691</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="28.8">
       <c r="A182" s="26" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F182" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="G182" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
       </c>
       <c r="E183" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="F183" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="G183" s="28" t="s">
         <v>701</v>
-      </c>
-      <c r="G183" s="28" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E184" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F184" s="28" t="s">
         <v>705</v>
-      </c>
-      <c r="F184" s="28" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E185" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="E187" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="G187" t="s">
         <v>715</v>
-      </c>
-      <c r="G187" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F188" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="D189" t="s">
         <v>721</v>
-      </c>
-      <c r="D189" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
+        <v>722</v>
+      </c>
+      <c r="E190" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="F190" t="s">
         <v>724</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>725</v>
       </c>
-      <c r="G190" t="s">
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
         <v>726</v>
+      </c>
+      <c r="E191" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>727</v>
+      </c>
+      <c r="E192" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>728</v>
+      </c>
+      <c r="E193" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>729</v>
+      </c>
+      <c r="E194" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>730</v>
+      </c>
+      <c r="E195" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>731</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E196" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>732</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E197" t="s">
+        <v>739</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D4F0B7-EECB-44F5-8F0A-DF8106862F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E6887-3084-4D89-BB4D-56B33B28B00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="0" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="785">
   <si>
     <t>Word</t>
   </si>
@@ -2794,12 +2794,161 @@
   <si>
     <t>peel off</t>
   </si>
+  <si>
+    <t>thrift: tính tiết kiệm; thrifty speding: chi tiêu tiết kiệm =  frugal spending</t>
+  </si>
+  <si>
+    <t>hoard</t>
+  </si>
+  <si>
+    <t>/hɔːd/</t>
+  </si>
+  <si>
+    <t>n,v</t>
+  </si>
+  <si>
+    <r>
+      <t>hoard (of something)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> a collection of money, food, valuable objects, etc., especially one that somebody keeps in a secret place so that other people will not find or steal it</t>
+    </r>
+  </si>
+  <si>
+    <t>They dug up a hoard of Roman coins.  
+The prisoners used to hoard scraps of food in secret places: các tù nhân thường tích trữ đồ ăn thừa ở những nơi bí mật</t>
+  </si>
+  <si>
+    <t>tidy up, clean up, organize</t>
+  </si>
+  <si>
+    <t>run errands</t>
+  </si>
+  <si>
+    <t>/ˈerənd/</t>
+  </si>
+  <si>
+    <t>a job that you do for somebody that involves going somewhere to take a message, to buy something, deliver goods, etc.</t>
+  </si>
+  <si>
+    <t>she runs errands for her boss.  
+Her boss sent her on an errand into town</t>
+  </si>
+  <si>
+    <t>to praise somebody or yourself for doing something well</t>
+  </si>
+  <si>
+    <t>pat on the back</t>
+  </si>
+  <si>
+    <t>praise</t>
+  </si>
+  <si>
+    <t>give someone/ yourself a pat on the back./ pat someone/yourself on the back</t>
+  </si>
+  <si>
+    <t>retrofit</t>
+  </si>
+  <si>
+    <t>/ˈretrəʊfɪt/</t>
+  </si>
+  <si>
+    <t>retrofit something to put a new piece of equipment into a machine that did not have it when it was built; to provide a machine with a new part, etc.</t>
+  </si>
+  <si>
+    <t>cải tạo</t>
+  </si>
+  <si>
+    <t>They retrofitted the plane with improved seating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can save you from getting drenched </t>
+  </si>
+  <si>
+    <t>go stale</t>
+  </si>
+  <si>
+    <t>when it matterd most</t>
+  </si>
+  <si>
+    <t>setting aside money</t>
+  </si>
+  <si>
+    <t>if you stash money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that might blow your mind </t>
+  </si>
+  <si>
+    <t>có thể cứu bạn khỏi bị ướt sũng</t>
+  </si>
+  <si>
+    <t>trở nên cũ kỹ</t>
+  </si>
+  <si>
+    <t>khi điều đó quan trọng nhất</t>
+  </si>
+  <si>
+    <t>để dành tiền</t>
+  </si>
+  <si>
+    <t>thực tế khắc nghiệt</t>
+  </si>
+  <si>
+    <t>nếu bạn cất tiền</t>
+  </si>
+  <si>
+    <t>điều đó có thể khiến bạn kinh ngạc</t>
+  </si>
+  <si>
+    <t>harsh reality</t>
+  </si>
+  <si>
+    <t>stoked</t>
+  </si>
+  <si>
+    <t>/stəʊkt/</t>
+  </si>
+  <si>
+    <r>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>excited and pleased about something</t>
+    </r>
+  </si>
+  <si>
+    <t>I'm really stoked that they chose me for the team.</t>
+  </si>
+  <si>
+    <t>stay grounded</t>
+  </si>
+  <si>
+    <t>keep a low profile</t>
+  </si>
+  <si>
+    <t>giữ bình tĩnh</t>
+  </si>
+  <si>
+    <t>giữ thái độ khiêm tốn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2971,6 +3120,11 @@
       <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3008,7 +3162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3054,6 +3208,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3357,11 +3512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4513,6 +4668,9 @@
       <c r="C62" t="s">
         <v>24</v>
       </c>
+      <c r="D62" t="s">
+        <v>749</v>
+      </c>
       <c r="E62" s="5" t="s">
         <v>290</v>
       </c>
@@ -5152,6 +5310,9 @@
       <c r="A112" t="s">
         <v>452</v>
       </c>
+      <c r="E112" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
@@ -6297,7 +6458,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>728</v>
       </c>
@@ -6305,7 +6466,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>729</v>
       </c>
@@ -6313,7 +6474,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>730</v>
       </c>
@@ -6321,7 +6482,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>731</v>
       </c>
@@ -6332,7 +6493,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>732</v>
       </c>
@@ -6341,6 +6502,166 @@
       </c>
       <c r="E197" t="s">
         <v>739</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="26.4">
+      <c r="A198" t="s">
+        <v>744</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C198" t="s">
+        <v>746</v>
+      </c>
+      <c r="E198" s="29" t="s">
+        <v>747</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="28.8">
+      <c r="A199" t="s">
+        <v>750</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>755</v>
+      </c>
+      <c r="C200" t="s">
+        <v>746</v>
+      </c>
+      <c r="D200" t="s">
+        <v>756</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="F200" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>758</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C201" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" t="s">
+        <v>761</v>
+      </c>
+      <c r="E201" t="s">
+        <v>760</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>763</v>
+      </c>
+      <c r="E202" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>764</v>
+      </c>
+      <c r="E203" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>765</v>
+      </c>
+      <c r="E204" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>766</v>
+      </c>
+      <c r="E205" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>776</v>
+      </c>
+      <c r="E206" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>767</v>
+      </c>
+      <c r="E207" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>768</v>
+      </c>
+      <c r="E208" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>777</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C209" t="s">
+        <v>34</v>
+      </c>
+      <c r="E209" s="24" t="s">
+        <v>779</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>781</v>
+      </c>
+      <c r="E210" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>782</v>
+      </c>
+      <c r="E211" t="s">
+        <v>784</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E6887-3084-4D89-BB4D-56B33B28B00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30CDFA4-1FC8-48BF-A36A-2B0E7ACA6165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="0" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="0" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="860">
   <si>
     <t>Word</t>
   </si>
@@ -1000,8 +1000,906 @@
     <t>The director saw this move as an attempt to undermine his authority.</t>
   </si>
   <si>
-    <r>
-      <t>vocational training center</t>
+    <t>barber</t>
+  </si>
+  <si>
+    <t>a person whose job is to cut men’s hair and sometimes to shave them</t>
+  </si>
+  <si>
+    <t>female hairdresser/ women's hair stylist</t>
+  </si>
+  <si>
+    <t>a person whose job is to cut women’s hair and sometimes to shave them</t>
+  </si>
+  <si>
+    <t>insanely</t>
+  </si>
+  <si>
+    <t>/ɪnˈseɪnli/</t>
+  </si>
+  <si>
+    <t>điên cuồng</t>
+  </si>
+  <si>
+    <t>to an unreasonable degree, in an crazy way</t>
+  </si>
+  <si>
+    <t>He is insanely jealous, she laughs insanely</t>
+  </si>
+  <si>
+    <t>whilst (especially British English, formal)</t>
+  </si>
+  <si>
+    <t>/waɪlst/</t>
+  </si>
+  <si>
+    <t>conjunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when, while </t>
+  </si>
+  <si>
+    <t>during the time that something is happening; at the same time as something else is happening</t>
+  </si>
+  <si>
+    <t>In the UK it is illegal to drive whilst holding a mobile phone.</t>
+  </si>
+  <si>
+    <t>snuggle</t>
+  </si>
+  <si>
+    <t>/ˈsnʌɡl/</t>
+  </si>
+  <si>
+    <t>hug</t>
+  </si>
+  <si>
+    <t>to get into, or to put somebody/something into, a warm comfortable position, especially close to somebody</t>
+  </si>
+  <si>
+    <r>
+      <t>The child </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>snuggled up to</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> her mother.</t>
+    </r>
+  </si>
+  <si>
+    <t>uptight</t>
+  </si>
+  <si>
+    <t>/ˌʌpˈtaɪt/</t>
+  </si>
+  <si>
+    <r>
+      <t>uptight (about something)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> anxious and/or angry about something</t>
+    </r>
+  </si>
+  <si>
+    <t>Relax! You're getting too uptight about it.</t>
+  </si>
+  <si>
+    <t>gnaw</t>
+  </si>
+  <si>
+    <t>/nɔː/</t>
+  </si>
+  <si>
+    <t>gặm nhấm</t>
+  </si>
+  <si>
+    <t>to keep biting something</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gnaw something The dog was gnawing a bone.
+ gnaw through something Rats had gnawed through the cable.
+ gnaw at/on something She gnawed at her fingernails.
+ gnaw away at/on something (figurative) Self-doubt began to gnaw away at her confidence.</t>
+  </si>
+  <si>
+    <t>overt</t>
+  </si>
+  <si>
+    <t>/əʊˈvɜːt/</t>
+  </si>
+  <si>
+    <t>open, op: covert</t>
+  </si>
+  <si>
+    <t>done or shown publicly or in an obvious way and not secret:</t>
+  </si>
+  <si>
+    <t>overt criticism
+overt racism</t>
+  </si>
+  <si>
+    <t>modestly</t>
+  </si>
+  <si>
+    <t>/ˈmɒd.ɪst.li/</t>
+  </si>
+  <si>
+    <t>khiêm tốn</t>
+  </si>
+  <si>
+    <t>in a way that is not very large in size, amount or degree, or not expensive:</t>
+  </si>
+  <si>
+    <t>He had a modestly successful career as an artist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">means </t>
+  </si>
+  <si>
+    <t>/miːnz/</t>
+  </si>
+  <si>
+    <r>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D2A57"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, for example from an income, that allows you to buy things:</t>
+    </r>
+  </si>
+  <si>
+    <t>live within your means: to spend less money than you receive as income - He promised that he wouldn't use his credit card too much - he wanted to live within his means.
+a man/woman of means: a rich man/woman - You can tell from the clothes she wears that she's a woman of means.</t>
+  </si>
+  <si>
+    <t>splurge</t>
+  </si>
+  <si>
+    <t>/splɜːdʒ/</t>
+  </si>
+  <si>
+    <t>n, v</t>
+  </si>
+  <si>
+    <t>splash out (something) </t>
+  </si>
+  <si>
+    <t>to spend a lot of money on buying goods, especially expensive goods:</t>
+  </si>
+  <si>
+    <r>
+      <t>I feel like splurging </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF1D2A57"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(out)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF1D2A57"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF1D2A57"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF1D2A57"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> a new dress. // Gen Z is  spluring on luxury goods to moothe their economic despair - Thế hệ Z đang vung tiền mua hàng xa xỉ để xoa dịu nỗi tuyệt vọng về kinh tế của họ</t>
+    </r>
+  </si>
+  <si>
+    <t>mindset of flugality rather than splurging luxury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lead us toward greater wealth or steer us away from it </t>
+  </si>
+  <si>
+    <t>dẫn chúng ta đến với sự giàu có hơn hoặc đưa chúng ta ra khỏi nó</t>
+  </si>
+  <si>
+    <t>steer</t>
+  </si>
+  <si>
+    <t>/stɪər/</t>
+  </si>
+  <si>
+    <t>to control the direction of a vehicle:</t>
+  </si>
+  <si>
+    <t>[ T ] It’s not easy to steer the car through these narrow streets.
+[ I ] fig. The speech steered clear of (= avoided) controversial issues.</t>
+  </si>
+  <si>
+    <t>cervix</t>
+  </si>
+  <si>
+    <t>/ˈsɜːvɪks/</t>
+  </si>
+  <si>
+    <t>tử cung</t>
+  </si>
+  <si>
+    <t>intertwine</t>
+  </si>
+  <si>
+    <t>/ˌɪntəˈtwaɪn/</t>
+  </si>
+  <si>
+    <t>Intertwine là xoắn hoặc quấn vào nhau, linh hoạt và mềm mại.
+Interlock là gắn chắc chắn vào nhau, cố định và cứng cáp hơn</t>
+  </si>
+  <si>
+    <t>if two or more things intertwine or are intertwined, they are twisted together so that they are very difficult to separate</t>
+  </si>
+  <si>
+    <t>(be) intertwined (with something)</t>
+  </si>
+  <si>
+    <t>a necklace of rubies intertwined with pearls</t>
+  </si>
+  <si>
+    <t>fatalistic</t>
+  </si>
+  <si>
+    <t>/ˌfeɪtəˈlɪstɪk/</t>
+  </si>
+  <si>
+    <t>showing a belief in fate and feeling that you cannot control events or stop them from happening</t>
+  </si>
+  <si>
+    <r>
+      <t>a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>fatalistic attitude/outlook</t>
+    </r>
+  </si>
+  <si>
+    <t>fatalism</t>
+  </si>
+  <si>
+    <t>/ˈfeɪtəlɪzəm/</t>
+  </si>
+  <si>
+    <t>the belief that events are decided by fate and that you cannot control them; the fact of accepting that you cannot prevent something from happening</t>
+  </si>
+  <si>
+    <t>There is a mood of profound fatalism amongst party members.</t>
+  </si>
+  <si>
+    <t>boulevard</t>
+  </si>
+  <si>
+    <t>đại lộ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherish </t>
+  </si>
+  <si>
+    <t>trân trọng, yêu thương</t>
+  </si>
+  <si>
+    <t>Children need to be cherished.</t>
+  </si>
+  <si>
+    <t>In 2014, he started working in an ice cream parlor</t>
+  </si>
+  <si>
+    <t>Năm 2014, anh bắt đầu làm việc trong một tiệm kem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parlor </t>
+  </si>
+  <si>
+    <t>tiệm kem</t>
+  </si>
+  <si>
+    <t>aesthetic style</t>
+  </si>
+  <si>
+    <t>phong cách thẩm mỹ</t>
+  </si>
+  <si>
+    <t>dissipate</t>
+  </si>
+  <si>
+    <t>tan biến, to gradually become or make something become weaker until it disappears</t>
+  </si>
+  <si>
+    <t>Eventually, his anger dissipated.</t>
+  </si>
+  <si>
+    <t>fluffy cotton candy</t>
+  </si>
+  <si>
+    <t>kẹo bông xốp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valve </t>
+  </si>
+  <si>
+    <t>/vælv/</t>
+  </si>
+  <si>
+    <t>van, a device for controlling the flow of a liquid or gas, letting it move in one direction only</t>
+  </si>
+  <si>
+    <t>You need special tools to open the valve</t>
+  </si>
+  <si>
+    <t>fragrance</t>
+  </si>
+  <si>
+    <t>/ˈfreɪɡrəns/</t>
+  </si>
+  <si>
+    <t>hương thơm, a pleasant smell</t>
+  </si>
+  <si>
+    <t>The bath oil comes in various fragrances.</t>
+  </si>
+  <si>
+    <t>rev up</t>
+  </si>
+  <si>
+    <t>tăng tốc</t>
+  </si>
+  <si>
+    <t>counteract stress</t>
+  </si>
+  <si>
+    <t>chống lại căng thẳng</t>
+  </si>
+  <si>
+    <t>free wellness services.</t>
+  </si>
+  <si>
+    <t>dịch vụ chăm sóc sức khỏe miễn phí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downshift </t>
+  </si>
+  <si>
+    <t>v, n</t>
+  </si>
+  <si>
+    <t>giảm tốc, to change to a lower gear in a vehicle;  to change to a job or style of life where you may earn less but which puts less pressure on you and involves less stress</t>
+  </si>
+  <si>
+    <t>lessen</t>
+  </si>
+  <si>
+    <t>/ˈlesn/</t>
+  </si>
+  <si>
+    <t>giảm bớt, to become or make something become smaller, weaker, less important, etc.</t>
+  </si>
+  <si>
+    <t>if you feel the emotional charge lessen.</t>
+  </si>
+  <si>
+    <t>nếu bạn cảm thấy điện tích cảm xúc giảm bớt.</t>
+  </si>
+  <si>
+    <t>diminish</t>
+  </si>
+  <si>
+    <t>The noise began to lessen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porn star </t>
+  </si>
+  <si>
+    <t>ngôi sao khiêu dâm</t>
+  </si>
+  <si>
+    <t>pacifier</t>
+  </si>
+  <si>
+    <t>/ˈpæsɪfaɪə(r)/</t>
+  </si>
+  <si>
+    <r>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>a rubber or plastic object with a special shape that a baby </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00860E"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>sucks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t> on with its lips and tongue</t>
+    </r>
+  </si>
+  <si>
+    <t>roulette</t>
+  </si>
+  <si>
+    <t>/ruːˈlet/</t>
+  </si>
+  <si>
+    <r>
+      <t>a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00860E"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>gambling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> game in which a ball is dropped onto a moving wheel that has holes with numbers on it. Players bet on which hole the ball will be in when the wheel stops.</t>
+    </r>
+  </si>
+  <si>
+    <t>roulette ball/table/wheel</t>
+  </si>
+  <si>
+    <t>wield</t>
+  </si>
+  <si>
+    <t>/wiːld/</t>
+  </si>
+  <si>
+    <r>
+      <t>wield something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> to have and use power, authority, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>She wields enormous power within the party.</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>/vəˈlɒsəti/</t>
+  </si>
+  <si>
+    <t>the speed of something in a particular direction</t>
+  </si>
+  <si>
+    <r>
+      <t>to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>gain/lose velocity</t>
+    </r>
+  </si>
+  <si>
+    <t>the velocity of light</t>
+  </si>
+  <si>
+    <t>seasoning</t>
+  </si>
+  <si>
+    <r>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>a substance used to add taste to food, especially salt and pepper</t>
+    </r>
+  </si>
+  <si>
+    <t>/ˈsiːzənɪŋ/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nagging work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a great day with a big grin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">porch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gullible public </t>
+  </si>
+  <si>
+    <t>substantial</t>
+  </si>
+  <si>
+    <t>công việc khó chịu</t>
+  </si>
+  <si>
+    <t>chúc một ngày tuyệt vời với nụ cười toe toét</t>
+  </si>
+  <si>
+    <t>hiên nhà</t>
+  </si>
+  <si>
+    <t>cau mày</t>
+  </si>
+  <si>
+    <t>công chúng cả tin</t>
+  </si>
+  <si>
+    <t>đáng kể</t>
+  </si>
+  <si>
+    <t>secondhand from thrift store</t>
+  </si>
+  <si>
+    <t>my go-to hacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weed out </t>
+  </si>
+  <si>
+    <t>fusion</t>
+  </si>
+  <si>
+    <t>mẹo của tôi</t>
+  </si>
+  <si>
+    <t>loại bỏ</t>
+  </si>
+  <si>
+    <t>ví</t>
+  </si>
+  <si>
+    <t>giải phóng</t>
+  </si>
+  <si>
+    <t>purse &lt;&gt; wallet</t>
+  </si>
+  <si>
+    <t>handbag</t>
+  </si>
+  <si>
+    <t>/ˈfjuːʒn/</t>
+  </si>
+  <si>
+    <t>hợp nhất, fusion (of A and B) the process or result of joining two or more things together to form one</t>
+  </si>
+  <si>
+    <t>the fusion of copper and zinc to produce brass</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>don’t mistake my kindness for weakness</t>
+  </si>
+  <si>
+    <t>/speə(r)/</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>that is not being used or is not needed at the present time</t>
+  </si>
+  <si>
+    <t>not used/ needed</t>
+  </si>
+  <si>
+    <t>spare their lives: tha mạng cho họ</t>
+  </si>
+  <si>
+    <t>we have a spare bedroom, if you'd like to stay</t>
+  </si>
+  <si>
+    <t>spice</t>
+  </si>
+  <si>
+    <t>sabotage</t>
+  </si>
+  <si>
+    <t>/ˈsæbətɑːʒ/</t>
+  </si>
+  <si>
+    <r>
+      <t>sabotage something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> to damage or destroy something deliberately to prevent an enemy from using it or to protest about something</t>
+    </r>
+  </si>
+  <si>
+    <t>The main electricity supply had been sabotaged by the rebels.</t>
+  </si>
+  <si>
+    <t>newly minted president-elect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crack the whip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">warrm and cordial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">engulf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambiguity </t>
+  </si>
+  <si>
+    <t>ambitious</t>
+  </si>
+  <si>
+    <t>ambivert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my own inclination </t>
+  </si>
+  <si>
+    <t>adversary and ally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carpricious </t>
+  </si>
+  <si>
+    <t>tổng thống mới đắc cử</t>
+  </si>
+  <si>
+    <t>bẻ roi</t>
+  </si>
+  <si>
+    <t>ấm áp và thân thiện</t>
+  </si>
+  <si>
+    <t>tham vọng</t>
+  </si>
+  <si>
+    <t>hướng nội</t>
+  </si>
+  <si>
+    <t>khuynh hướng riêng của tôi</t>
+  </si>
+  <si>
+    <t>kẻ thù và đồng minh</t>
+  </si>
+  <si>
+    <t>minted</t>
+  </si>
+  <si>
+    <t> recently produced, invented, etc.</t>
+  </si>
+  <si>
+    <t>freshly/newly minted</t>
+  </si>
+  <si>
+    <t>a roll of newly minted banknotes</t>
+  </si>
+  <si>
+    <t>/ˌæmbɪˈɡjuːəti/</t>
+  </si>
+  <si>
+    <t>mơ hồ, the state of having more than one possible meaning</t>
+  </si>
+  <si>
+    <t>Write clear definitions in order to avoid ambiguity.</t>
+  </si>
+  <si>
+    <t>/ˈkɔːdiəl/</t>
+  </si>
+  <si>
+    <r>
+      <t>a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>cordial atmosphere/meeting/relationship</t>
+    </r>
+  </si>
+  <si>
+    <t>Their government has maintained cordial relations with the UK.</t>
+  </si>
+  <si>
+    <t>unpredictable</t>
+  </si>
+  <si>
+    <t>cáu kỉnh, showing sudden changes in attitude or behaviour</t>
+  </si>
+  <si>
+    <t>a movie star who was capricious and difficult to please</t>
+  </si>
+  <si>
+    <t>/ɪnˈɡʌlf/</t>
+  </si>
+  <si>
+    <t>nuốt chửng, engulf somebody/something to surround or to cover somebody/something completely; to affect somebody/something very strongly</t>
+  </si>
+  <si>
+    <r>
+      <t>The vehicle was </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>engulfed in flames</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>./ Fear engulfed her.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">perish </t>
+  </si>
+  <si>
+    <t>/ˈperɪʃ/</t>
+  </si>
+  <si>
+    <t>to die, especially in a sudden violent way</t>
+  </si>
+  <si>
+    <t>Thousands perished at the hands of the invading forces.</t>
+  </si>
+  <si>
+    <t>grudge</t>
+  </si>
+  <si>
+    <t>1.to do or give something unwillingly' 2. grudge somebody something to think that somebody does not deserve to have</t>
+  </si>
+  <si>
+    <t>Begrudge, dislike, be annoyed by, resent; "You surely don’t resent her for her success?"
+"You surely don’t begrudge her her success?"</t>
+  </si>
+  <si>
+    <t>1a.  grudge doing something I grudge having to pay so much tax. 
+1b. grudge something He grudges the time he spends travelling to work. 
+2. You surely don't grudge her her success?</t>
+  </si>
+  <si>
+    <t>I have wanderlust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a big fan of travelling </t>
+  </si>
+  <si>
+    <t>to blow off steam</t>
+  </si>
+  <si>
+    <t>xả stress</t>
+  </si>
+  <si>
+    <t>Outdoors (av)
+Outdoor (a)</t>
+  </si>
+  <si>
+    <t>outdoor activities
+I like to go outdoors</t>
+  </si>
+  <si>
+    <t>at times</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <r>
+      <t>in my free time = in my leisure</t>
     </r>
     <r>
       <rPr>
@@ -1011,7 +1909,1264 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> hoặc </t>
+      <t xml:space="preserve"> = in my spare time</t>
+    </r>
+  </si>
+  <si>
+    <t>be eager to do sth</t>
+  </si>
+  <si>
+    <t>very enthusiastic, excited, or keen to do sth</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She’s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eager to learn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more about data analysis.</t>
+    </r>
+  </si>
+  <si>
+    <t>use or take full advantage of a situation, opportunity, or resource in the best possible way to achieve maximum benefit or value</t>
+  </si>
+  <si>
+    <t>make the most of sth</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you want to succeed in your new job, you should </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make the most of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the training and resources provided.</t>
+    </r>
+  </si>
+  <si>
+    <t>work solo</t>
+  </si>
+  <si>
+    <t>/ˈsəʊləʊ/</t>
+  </si>
+  <si>
+    <t>to work alone, without help or collaboration from others. It emphasizes doing a task independently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take something for granted </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I usually </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>work solo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when I need to focus on complex data analysis.</t>
+    </r>
+  </si>
+  <si>
+    <t>to assume that something will always be available or that it’s a given, without appreciating its value or realizing its importance. It can refer to things, people, or situations that are overlooked or not fully appreciated because they are taken as a certainty.</t>
+  </si>
+  <si>
+    <t>Overlook
+Underappreciate
+Fail to appreciate</t>
+  </si>
+  <si>
+    <t>Work alone
+Work independently
+Go solo (often used for creative or artistic endeavors)</t>
+  </si>
+  <si>
+    <t>to take years off someone</t>
+  </si>
+  <si>
+    <t>to make someone look or feel much younger, healthier, or more energetic. It often refers to the positive effects of something on a person's appearance or mood.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A new haircut can sometimes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>take years off you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, making you look much younger.</t>
+    </r>
+  </si>
+  <si>
+    <t>intrinsic and extrinsic</t>
+  </si>
+  <si>
+    <t>/ɪnˈtrɪnzɪk/   /eksˈtrɪnzɪk/</t>
+  </si>
+  <si>
+    <t>intrinsic/extrinsic motivation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Có nghĩa là sẵn sàng đầu tư thời gian và nỗ lực vào một việc gì đó </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trong thời gian dài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>in it for a long haul</t>
+  </si>
+  <si>
+    <t>Starting a business is challenging, but I'm in it for the long haul</t>
+  </si>
+  <si>
+    <t>Long-haul flight"</t>
+  </si>
+  <si>
+    <t>Chuyến bay đường dài (thường kéo dài hơn 6 tiếng)</t>
+  </si>
+  <si>
+    <t>booked a long-haul flight from New York to Tokyo</t>
+  </si>
+  <si>
+    <t>I am not a big beliver in saving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complacent </t>
+  </si>
+  <si>
+    <t>/kəmˈpleɪsnt/</t>
+  </si>
+  <si>
+    <t>too satisfied with yourself or with a situation, so that you do not feel that any change is necessary; showing or feeling complacency</t>
+  </si>
+  <si>
+    <r>
+      <t>complacent about somebody/something</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> We must not become complacent about progress.</t>
+    </r>
+  </si>
+  <si>
+    <t>procrastinate</t>
+  </si>
+  <si>
+    <t>/prəˈkræstɪneɪt/</t>
+  </si>
+  <si>
+    <t>to delay doing something that you should do, usually because you do not want to do it</t>
+  </si>
+  <si>
+    <t>People were dying of starvation while governments procrastinated.</t>
+  </si>
+  <si>
+    <t>lethargic</t>
+  </si>
+  <si>
+    <t>/ləˈθɑːdʒɪk/</t>
+  </si>
+  <si>
+    <r>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>without any energy or enthusiasm for doing things</t>
+    </r>
+  </si>
+  <si>
+    <t>listless</t>
+  </si>
+  <si>
+    <t>The weather made her lethargic.</t>
+  </si>
+  <si>
+    <t>civilian</t>
+  </si>
+  <si>
+    <t>səˈvɪliən/</t>
+  </si>
+  <si>
+    <t>a person who is not a member of the armed forces or the police</t>
+  </si>
+  <si>
+    <r>
+      <t>Hundreds of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>innocent civilians</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t> have died in the air strikes.</t>
+    </r>
+  </si>
+  <si>
+    <t>civilian life, civilian clothes, civilian job, protecting civilians</t>
+  </si>
+  <si>
+    <t>complicated</t>
+  </si>
+  <si>
+    <t>/ˈkɒmplɪkeɪtɪd/</t>
+  </si>
+  <si>
+    <t>ade of many different things or parts that are connected; difficult to understand</t>
+  </si>
+  <si>
+    <t>a complicated issue/process/system</t>
+  </si>
+  <si>
+    <t>The instructions look very complicated.</t>
+  </si>
+  <si>
+    <t>complex, intricate/ˈɪntrɪkət/, not simple or easy</t>
+  </si>
+  <si>
+    <t>concur</t>
+  </si>
+  <si>
+    <t>/kənˈkɜː(r)/</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Historians have concurred with each other in this view.</t>
+  </si>
+  <si>
+    <t>flake</t>
+  </si>
+  <si>
+    <t>flake off, peel off</t>
+  </si>
+  <si>
+    <t>digress</t>
+  </si>
+  <si>
+    <t>/daɪˈɡres/</t>
+  </si>
+  <si>
+    <r>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>to start to talk about something that is not connected with the main point of what you are saying</t>
+    </r>
+  </si>
+  <si>
+    <t>To digress for a moment, I would like to remind you that there will be no classes next week.</t>
+  </si>
+  <si>
+    <t>/ˈfrædʒaɪl/</t>
+  </si>
+  <si>
+    <t>fragile</t>
+  </si>
+  <si>
+    <t>easily broken or damaged; weak and uncertain; easy to destroy or harm</t>
+  </si>
+  <si>
+    <t>fragile china/glass/bones; a fragile alliance/ceasefire/relationship</t>
+  </si>
+  <si>
+    <t>The economy remains extremely fragile.</t>
+  </si>
+  <si>
+    <t>galore</t>
+  </si>
+  <si>
+    <t>/ɡəˈlɔː(r)/</t>
+  </si>
+  <si>
+    <t>in large quantities</t>
+  </si>
+  <si>
+    <t>There will be games and prizes galore.</t>
+  </si>
+  <si>
+    <t>Cuisine</t>
+  </si>
+  <si>
+    <t>/kwɪˈziːn/</t>
+  </si>
+  <si>
+    <t>A style of cooking, especially one characteristic of a particular country or region.</t>
+  </si>
+  <si>
+    <t>"I love Thai cuisine for its spicy flavors."</t>
+  </si>
+  <si>
+    <t>Savory</t>
+  </si>
+  <si>
+    <t>/ˈseɪ.vəri/</t>
+  </si>
+  <si>
+    <t>Having a salty or spicy flavor, not sweet.</t>
+  </si>
+  <si>
+    <t>"The chef prepared a savory dish of roasted chicken."</t>
+  </si>
+  <si>
+    <t>Appetizer</t>
+  </si>
+  <si>
+    <t>/ˈæpɪˌtaɪzər/</t>
+  </si>
+  <si>
+    <t>A small dish served before the main course to stimulate the appetite.</t>
+  </si>
+  <si>
+    <t>"We ordered a few appetizers to start our meal."</t>
+  </si>
+  <si>
+    <t>Garnish</t>
+  </si>
+  <si>
+    <t>/ˈɡɑːrnɪʃ/</t>
+  </si>
+  <si>
+    <t>A decoration or accompaniment to a dish to enhance its flavor or appearance.</t>
+  </si>
+  <si>
+    <t>"The salad was garnished with fresh herbs."</t>
+  </si>
+  <si>
+    <t>Ferment</t>
+  </si>
+  <si>
+    <t>/fərˈmɛnt/</t>
+  </si>
+  <si>
+    <t>The process of causing food or drink to break down into simpler substances by bacteria, yeast, or other microorganisms.</t>
+  </si>
+  <si>
+    <t>"Kimchi is a popular fermented Korean dish."</t>
+  </si>
+  <si>
+    <t>Umami</t>
+  </si>
+  <si>
+    <t>/uːˈmɑːmi/</t>
+  </si>
+  <si>
+    <t>A savory taste that is one of the five basic tastes, often found in foods like mushrooms, cheese, and meat.</t>
+  </si>
+  <si>
+    <t>"The miso soup has a strong umami flavor."</t>
+  </si>
+  <si>
+    <t>Stir-fry</t>
+  </si>
+  <si>
+    <t>/ˈstɜːrˌfraɪ/</t>
+  </si>
+  <si>
+    <t>To cook food quickly in a small amount of oil over high heat while stirring constantly.</t>
+  </si>
+  <si>
+    <t>"I made a vegetable stir-fry for dinner."</t>
+  </si>
+  <si>
+    <t>Aromatic</t>
+  </si>
+  <si>
+    <t>/ˌærəˈmætɪk/</t>
+  </si>
+  <si>
+    <t>Having a pleasant and distinctive smell, often used to describe spices and herbs.</t>
+  </si>
+  <si>
+    <t>"The kitchen was filled with the aromatic scent of cinnamon."</t>
+  </si>
+  <si>
+    <t>Zesty</t>
+  </si>
+  <si>
+    <t>/ˈzɛsti/</t>
+  </si>
+  <si>
+    <t>Having a strong, pleasant, and somewhat spicy flavor or quality.</t>
+  </si>
+  <si>
+    <t>"The lemon dressing gave the salad a zesty kick."</t>
+  </si>
+  <si>
+    <t>Delectable</t>
+  </si>
+  <si>
+    <t>/dɪˈlɛktəbəl/</t>
+  </si>
+  <si>
+    <t>Extremely delicious or appetizing.</t>
+  </si>
+  <si>
+    <t>"The chocolate cake was simply delectable."</t>
+  </si>
+  <si>
+    <t>Caramelize</t>
+  </si>
+  <si>
+    <t>/ˈkærəˌməlaɪz/</t>
+  </si>
+  <si>
+    <t>To cook sugar until it turns brown and develops a rich flavor.</t>
+  </si>
+  <si>
+    <t>"Caramelizing onions adds depth to the dish."</t>
+  </si>
+  <si>
+    <t>Marinate</t>
+  </si>
+  <si>
+    <t>/ˈmærɪˌneɪt/</t>
+  </si>
+  <si>
+    <t>To soak food, typically meat, in a flavored liquid before cooking.</t>
+  </si>
+  <si>
+    <t>"I marinated the chicken overnight for better flavor."</t>
+  </si>
+  <si>
+    <t>Simmer</t>
+  </si>
+  <si>
+    <t>/ˈsɪmər/</t>
+  </si>
+  <si>
+    <t>To cook food gently in a liquid at a low temperature.</t>
+  </si>
+  <si>
+    <t>"Let the soup simmer for 30 minutes."</t>
+  </si>
+  <si>
+    <t>Artisan</t>
+  </si>
+  <si>
+    <t>/ˈɑːrtɪzən/</t>
+  </si>
+  <si>
+    <t>A person skilled in a particular craft, often used to describe high-quality handmade foods.</t>
+  </si>
+  <si>
+    <t>"Artisan bread is made with natural ingredients."</t>
+  </si>
+  <si>
+    <t>Confectionery</t>
+  </si>
+  <si>
+    <t>/kənˈfɛkʃənəri/</t>
+  </si>
+  <si>
+    <t>Sweets, candies, and chocolates collectively.</t>
+  </si>
+  <si>
+    <t>"The confectionery shop was filled with colorful treats."</t>
+  </si>
+  <si>
+    <t>Broil</t>
+  </si>
+  <si>
+    <t>/brɔɪl/</t>
+  </si>
+  <si>
+    <t>To cook food directly under a heat source, such as a grill.</t>
+  </si>
+  <si>
+    <t>"I like to broil salmon for a crispy skin."</t>
+  </si>
+  <si>
+    <t>Al dente</t>
+  </si>
+  <si>
+    <t>/æl ˈdɛnteɪ/</t>
+  </si>
+  <si>
+    <t>(Italian) Cooked so that it is still firm when bitten, usually used for pasta.</t>
+  </si>
+  <si>
+    <t>"Cook the pasta al dente for the best texture."</t>
+  </si>
+  <si>
+    <t>Sauté</t>
+  </si>
+  <si>
+    <t>/sɔːˈteɪ/</t>
+  </si>
+  <si>
+    <t>To cook food quickly in a small amount of oil or butter over high heat.</t>
+  </si>
+  <si>
+    <t>"Sauté the mushrooms with garlic until golden brown."</t>
+  </si>
+  <si>
+    <t>A rich, savory taste found in foods like soy sauce and parmesan cheese.</t>
+  </si>
+  <si>
+    <t>"The dish has a deep umami flavor from the mushrooms."</t>
+  </si>
+  <si>
+    <t>Seasoning</t>
+  </si>
+  <si>
+    <t>Spices or herbs added to food to enhance its flavor.</t>
+  </si>
+  <si>
+    <t>"Add salt and pepper for seasoning to taste."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rote memorization </t>
+  </si>
+  <si>
+    <t>học thuộc lòng</t>
+  </si>
+  <si>
+    <t>Genuine</t>
+  </si>
+  <si>
+    <t>/ˈdʒenjuɪn/</t>
+  </si>
+  <si>
+    <t>authentic, true, real</t>
+  </si>
+  <si>
+    <t>real; exactly what it appears to be; not artificial</t>
+  </si>
+  <si>
+    <t>The document is not considered genuine.</t>
+  </si>
+  <si>
+    <t>/ˈhɒstaɪl/</t>
+  </si>
+  <si>
+    <t>hostile</t>
+  </si>
+  <si>
+    <t>aggressive or unfriendly and ready to argue or fight</t>
+  </si>
+  <si>
+    <t>hostile to/towards somebody/something</t>
+  </si>
+  <si>
+    <t>She was openly hostile towards her parents.</t>
+  </si>
+  <si>
+    <t>impatient</t>
+  </si>
+  <si>
+    <t>op: patient</t>
+  </si>
+  <si>
+    <t>annoyed by somebody/something, especially because you have to wait for a long time</t>
+  </si>
+  <si>
+    <t>I'd been waiting for twenty minutes and I was getting impatient.</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>mental pressure or worry felt by somebody because they have too much to do or manage; something that causes this pressure</t>
+  </si>
+  <si>
+    <t>/streɪn/</t>
+  </si>
+  <si>
+    <t>(under strain) Their marriage is under great strain at the moment.
+ (strain on something) These repayments are putting a strain on our finances.</t>
+  </si>
+  <si>
+    <t>The transport service cannot cope with the strain of so many additional passengers.</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>/ɔːlˈtɜːnətɪv/</t>
+  </si>
+  <si>
+    <t>a thing that you can choose to do or have out of two or more possibilities</t>
+  </si>
+  <si>
+    <r>
+      <t>to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>offer/provide an alternative</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(alternative for somebody)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> This treatment is the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>only alternative</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> for some patients.</t>
+    </r>
+  </si>
+  <si>
+    <t>substitude</t>
+  </si>
+  <si>
+    <t>/ˈsʌbstɪtjuːt/</t>
+  </si>
+  <si>
+    <t>a person or thing that you use or have instead of the one you normally use or have</t>
+  </si>
+  <si>
+    <t>substitute for somebody/something</t>
+  </si>
+  <si>
+    <t>levy a tax</t>
+  </si>
+  <si>
+    <t>đánh thuế</t>
+  </si>
+  <si>
+    <t>/ˈlevi/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">significant hurdle </t>
+  </si>
+  <si>
+    <t>a problem or difficulty that must be solved or dealt with before you can achieve something</t>
+  </si>
+  <si>
+    <t>obstacle</t>
+  </si>
+  <si>
+    <t>/ˈhɜːdl/</t>
+  </si>
+  <si>
+    <t>buzz about</t>
+  </si>
+  <si>
+    <t>xôn xao về</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the internet is buzzing about the tiny house of Elon Musk  </t>
+  </si>
+  <si>
+    <t>bedroom furnishings</t>
+  </si>
+  <si>
+    <t>the furniture, carpets, curtains, etc. in a room or house</t>
+  </si>
+  <si>
+    <t>/ˈfɜːrnɪʃɪŋz/</t>
+  </si>
+  <si>
+    <t>furnishings</t>
+  </si>
+  <si>
+    <t>collobrate</t>
+  </si>
+  <si>
+    <t>cooperate</t>
+  </si>
+  <si>
+    <t>expertise (n) &lt;&gt; expert (n/a)</t>
+  </si>
+  <si>
+    <t>có chuyên môn &lt;&gt; chuyên gia</t>
+  </si>
+  <si>
+    <t>expert opinion</t>
+  </si>
+  <si>
+    <t>he has expertise in artificial inteligent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushing people on the cusp of poverty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">perpetuate </t>
+  </si>
+  <si>
+    <t>eligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demoralizing </t>
+  </si>
+  <si>
+    <t>initiative (n)</t>
+  </si>
+  <si>
+    <t>initiate</t>
+  </si>
+  <si>
+    <t>trò đùa</t>
+  </si>
+  <si>
+    <t>đẩy mọi người đến bờ vực nghèo đói</t>
+  </si>
+  <si>
+    <t>duy trì</t>
+  </si>
+  <si>
+    <t>đủ điều kiện</t>
+  </si>
+  <si>
+    <t>làm mất tinh thần</t>
+  </si>
+  <si>
+    <t>sáng kiến ​​(danh từ)</t>
+  </si>
+  <si>
+    <t>khởi xướng</t>
+  </si>
+  <si>
+    <t>/ɪˈnɪʃətɪv/</t>
+  </si>
+  <si>
+    <t>/ɪˈnɪʃieɪt/</t>
+  </si>
+  <si>
+    <t>peel off</t>
+  </si>
+  <si>
+    <t>thrift: tính tiết kiệm; thrifty speding: chi tiêu tiết kiệm =  frugal spending</t>
+  </si>
+  <si>
+    <t>hoard</t>
+  </si>
+  <si>
+    <t>/hɔːd/</t>
+  </si>
+  <si>
+    <t>n,v</t>
+  </si>
+  <si>
+    <r>
+      <t>hoard (of something)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> a collection of money, food, valuable objects, etc., especially one that somebody keeps in a secret place so that other people will not find or steal it</t>
+    </r>
+  </si>
+  <si>
+    <t>They dug up a hoard of Roman coins.  
+The prisoners used to hoard scraps of food in secret places: các tù nhân thường tích trữ đồ ăn thừa ở những nơi bí mật</t>
+  </si>
+  <si>
+    <t>tidy up, clean up, organize</t>
+  </si>
+  <si>
+    <t>run errands</t>
+  </si>
+  <si>
+    <t>/ˈerənd/</t>
+  </si>
+  <si>
+    <t>a job that you do for somebody that involves going somewhere to take a message, to buy something, deliver goods, etc.</t>
+  </si>
+  <si>
+    <t>she runs errands for her boss.  
+Her boss sent her on an errand into town</t>
+  </si>
+  <si>
+    <t>to praise somebody or yourself for doing something well</t>
+  </si>
+  <si>
+    <t>pat on the back</t>
+  </si>
+  <si>
+    <t>praise</t>
+  </si>
+  <si>
+    <t>give someone/ yourself a pat on the back./ pat someone/yourself on the back</t>
+  </si>
+  <si>
+    <t>retrofit</t>
+  </si>
+  <si>
+    <t>/ˈretrəʊfɪt/</t>
+  </si>
+  <si>
+    <t>retrofit something to put a new piece of equipment into a machine that did not have it when it was built; to provide a machine with a new part, etc.</t>
+  </si>
+  <si>
+    <t>cải tạo</t>
+  </si>
+  <si>
+    <t>They retrofitted the plane with improved seating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can save you from getting drenched </t>
+  </si>
+  <si>
+    <t>go stale</t>
+  </si>
+  <si>
+    <t>when it matterd most</t>
+  </si>
+  <si>
+    <t>setting aside money</t>
+  </si>
+  <si>
+    <t>if you stash money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that might blow your mind </t>
+  </si>
+  <si>
+    <t>có thể cứu bạn khỏi bị ướt sũng</t>
+  </si>
+  <si>
+    <t>trở nên cũ kỹ</t>
+  </si>
+  <si>
+    <t>khi điều đó quan trọng nhất</t>
+  </si>
+  <si>
+    <t>để dành tiền</t>
+  </si>
+  <si>
+    <t>thực tế khắc nghiệt</t>
+  </si>
+  <si>
+    <t>nếu bạn cất tiền</t>
+  </si>
+  <si>
+    <t>điều đó có thể khiến bạn kinh ngạc</t>
+  </si>
+  <si>
+    <t>harsh reality</t>
+  </si>
+  <si>
+    <t>stoked</t>
+  </si>
+  <si>
+    <t>/stəʊkt/</t>
+  </si>
+  <si>
+    <r>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>excited and pleased about something</t>
+    </r>
+  </si>
+  <si>
+    <t>I'm really stoked that they chose me for the team.</t>
+  </si>
+  <si>
+    <t>stay grounded</t>
+  </si>
+  <si>
+    <t>keep a low profile</t>
+  </si>
+  <si>
+    <t>giữ bình tĩnh</t>
+  </si>
+  <si>
+    <t>giữ thái độ khiêm tốn</t>
+  </si>
+  <si>
+    <t>concquer</t>
+  </si>
+  <si>
+    <t>acquire /əˈkwaɪə(r)/</t>
+  </si>
+  <si>
+    <t>/ˈkɒŋkə(r)/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acquire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is more about peaceful attainment, while </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>conquer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is about overcoming resistance or obstacles.</t>
+    </r>
+  </si>
+  <si>
+    <t>an acquired taste
+​a thing that you do not like much at first but gradually learn to like
+Abstract art is an acquired taste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> unprecedented analytical power</t>
+  </si>
+  <si>
+    <t>you want to leverage the real power of DAX</t>
+  </si>
+  <si>
+    <t>To retrieve the category of a product, one must traverse a chain of two relationships</t>
+  </si>
+  <si>
+    <t>Important Caveats</t>
+  </si>
+  <si>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">food and shelter </t>
+  </si>
+  <si>
+    <t>use up existing skincare</t>
+  </si>
+  <si>
+    <t>i unearthed some products that i had no idea that i had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scraps of shampoo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">methodically use up everything </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blush </t>
+  </si>
+  <si>
+    <t>sức mạnh phân tích chưa từng có</t>
+  </si>
+  <si>
+    <t>bạn muốn tận dụng sức mạnh thực sự của DAX</t>
+  </si>
+  <si>
+    <t>Để lấy lại danh mục của một sản phẩm, người ta phải đi qua chuỗi hai mối quan hệ</t>
+  </si>
+  <si>
+    <t>Những lưu ý quan trọng</t>
+  </si>
+  <si>
+    <t>rõ ràng</t>
+  </si>
+  <si>
+    <t>gặt hái</t>
+  </si>
+  <si>
+    <t>thức ăn và nơi trú ẩn</t>
+  </si>
+  <si>
+    <t>sử dụng hết các sản phẩm chăm sóc da hiện có</t>
+  </si>
+  <si>
+    <t>tôi đã phát hiện ra một số sản phẩm mà tôi không biết là mình có</t>
+  </si>
+  <si>
+    <t>mẩu dầu gội đầu</t>
+  </si>
+  <si>
+    <t>sử dụng hết mọi thứ một cách có phương pháp</t>
+  </si>
+  <si>
+    <t>phấn má hồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stash away </t>
+  </si>
+  <si>
+    <t>different tune</t>
+  </si>
+  <si>
+    <t>step up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedaling down widing your hair </t>
+  </si>
+  <si>
+    <t>budgesting is not just about restraining yourself</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>mumble</t>
+  </si>
+  <si>
+    <t>cất đi</t>
+  </si>
+  <si>
+    <t>giai điệu khác</t>
+  </si>
+  <si>
+    <t>bước lên</t>
+  </si>
+  <si>
+    <t>đạp xuống làm tóc bạn xõa ra</t>
+  </si>
+  <si>
+    <t>lập ngân sách không chỉ là kiềm chế bản thân</t>
+  </si>
+  <si>
+    <t>nói dài dòng</t>
+  </si>
+  <si>
+    <t>lầm bầm</t>
+  </si>
+  <si>
+    <t>a lot of snark</t>
+  </si>
+  <si>
+    <t>talking ad nauseum about metaverse</t>
+  </si>
+  <si>
+    <t>headset</t>
+  </si>
+  <si>
+    <t>burgeoning (a) burgeon (v)</t>
+  </si>
+  <si>
+    <t>exubrance</t>
+  </si>
+  <si>
+    <t>hype cycle</t>
+  </si>
+  <si>
+    <t>microsoft threw its hat in the metaverse ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It is much more error-prone than theequivalent MDX code</t>
+  </si>
+  <si>
+    <t>and is not a reserved word (like Date or Sum)</t>
+  </si>
+  <si>
+    <t>The de facto standard</t>
+  </si>
+  <si>
+    <t>The earlier you start adopting this standard, the easier your life with DAX will be</t>
+  </si>
+  <si>
+    <t>People accustomed to working with Excel</t>
+  </si>
+  <si>
+    <t>nhiều lời chế giễu</t>
+  </si>
+  <si>
+    <t>nói đến phát ngán về metaverse</t>
+  </si>
+  <si>
+    <t>tai nghe</t>
+  </si>
+  <si>
+    <t>phát triển (a) phát triển (v)</t>
+  </si>
+  <si>
+    <t>sự phấn khích</t>
+  </si>
+  <si>
+    <t>chu kỳ cường điệu</t>
+  </si>
+  <si>
+    <t>microsoft đã tham gia vào vòng metaverse</t>
+  </si>
+  <si>
+    <t>Nó dễ bị lỗi hơn nhiều so với mã MDX tương đương</t>
+  </si>
+  <si>
+    <t>và không phải là một từ dành riêng (như Date hoặc Sum)</t>
+  </si>
+  <si>
+    <t>Tiêu chuẩn thực tế</t>
+  </si>
+  <si>
+    <t>Bạn bắt đầu áp dụng tiêu chuẩn này càng sớm thì cuộc sống của bạn với DAX sẽ càng dễ dàng</t>
+  </si>
+  <si>
+    <t>Những người quen làm việc với Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cause physical and mental well being </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vocational training center hoặc </t>
     </r>
     <r>
       <rPr>
@@ -1026,1922 +3181,25 @@
     </r>
   </si>
   <si>
-    <t>barber</t>
-  </si>
-  <si>
-    <t>a person whose job is to cut men’s hair and sometimes to shave them</t>
-  </si>
-  <si>
-    <t>female hairdresser/ women's hair stylist</t>
-  </si>
-  <si>
-    <t>a person whose job is to cut women’s hair and sometimes to shave them</t>
-  </si>
-  <si>
-    <t>insanely</t>
-  </si>
-  <si>
-    <t>/ɪnˈseɪnli/</t>
-  </si>
-  <si>
-    <t>điên cuồng</t>
-  </si>
-  <si>
-    <t>to an unreasonable degree, in an crazy way</t>
-  </si>
-  <si>
-    <t>He is insanely jealous, she laughs insanely</t>
-  </si>
-  <si>
-    <t>whilst (especially British English, formal)</t>
-  </si>
-  <si>
-    <t>/waɪlst/</t>
-  </si>
-  <si>
-    <t>conjunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when, while </t>
-  </si>
-  <si>
-    <t>during the time that something is happening; at the same time as something else is happening</t>
-  </si>
-  <si>
-    <t>In the UK it is illegal to drive whilst holding a mobile phone.</t>
-  </si>
-  <si>
-    <t>snuggle</t>
-  </si>
-  <si>
-    <t>/ˈsnʌɡl/</t>
-  </si>
-  <si>
-    <t>hug</t>
-  </si>
-  <si>
-    <t>to get into, or to put somebody/something into, a warm comfortable position, especially close to somebody</t>
-  </si>
-  <si>
-    <r>
-      <t>The child </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t>snuggled up to</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t> her mother.</t>
-    </r>
-  </si>
-  <si>
-    <t>uptight</t>
-  </si>
-  <si>
-    <t>/ˌʌpˈtaɪt/</t>
-  </si>
-  <si>
-    <r>
-      <t>uptight (about something)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t> anxious and/or angry about something</t>
-    </r>
-  </si>
-  <si>
-    <t>Relax! You're getting too uptight about it.</t>
-  </si>
-  <si>
-    <t>gnaw</t>
-  </si>
-  <si>
-    <t>/nɔː/</t>
-  </si>
-  <si>
-    <t>gặm nhấm</t>
-  </si>
-  <si>
-    <t>to keep biting something</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gnaw something The dog was gnawing a bone.
- gnaw through something Rats had gnawed through the cable.
- gnaw at/on something She gnawed at her fingernails.
- gnaw away at/on something (figurative) Self-doubt began to gnaw away at her confidence.</t>
-  </si>
-  <si>
-    <t>overt</t>
-  </si>
-  <si>
-    <t>/əʊˈvɜːt/</t>
-  </si>
-  <si>
-    <t>open, op: covert</t>
-  </si>
-  <si>
-    <t>done or shown publicly or in an obvious way and not secret:</t>
-  </si>
-  <si>
-    <t>overt criticism
-overt racism</t>
-  </si>
-  <si>
-    <t>modestly</t>
-  </si>
-  <si>
-    <t>/ˈmɒd.ɪst.li/</t>
-  </si>
-  <si>
-    <t>khiêm tốn</t>
-  </si>
-  <si>
-    <t>in a way that is not very large in size, amount or degree, or not expensive:</t>
-  </si>
-  <si>
-    <t>He had a modestly successful career as an artist.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">means </t>
-  </si>
-  <si>
-    <t>/miːnz/</t>
-  </si>
-  <si>
-    <r>
-      <t>money</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1D2A57"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, for example from an income, that allows you to buy things:</t>
-    </r>
-  </si>
-  <si>
-    <t>live within your means: to spend less money than you receive as income - He promised that he wouldn't use his credit card too much - he wanted to live within his means.
-a man/woman of means: a rich man/woman - You can tell from the clothes she wears that she's a woman of means.</t>
-  </si>
-  <si>
-    <t>splurge</t>
-  </si>
-  <si>
-    <t>/splɜːdʒ/</t>
-  </si>
-  <si>
-    <t>n, v</t>
-  </si>
-  <si>
-    <t>splash out (something) </t>
-  </si>
-  <si>
-    <t>to spend a lot of money on buying goods, especially expensive goods:</t>
-  </si>
-  <si>
-    <r>
-      <t>I feel like splurging </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF1D2A57"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(out)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF1D2A57"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF1D2A57"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>on</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF1D2A57"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> a new dress. // Gen Z is  spluring on luxury goods to moothe their economic despair - Thế hệ Z đang vung tiền mua hàng xa xỉ để xoa dịu nỗi tuyệt vọng về kinh tế của họ</t>
-    </r>
-  </si>
-  <si>
-    <t>mindset of flugality rather than splurging luxury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lead us toward greater wealth or steer us away from it </t>
-  </si>
-  <si>
-    <t>dẫn chúng ta đến với sự giàu có hơn hoặc đưa chúng ta ra khỏi nó</t>
-  </si>
-  <si>
-    <t>steer</t>
-  </si>
-  <si>
-    <t>/stɪər/</t>
-  </si>
-  <si>
-    <t>to control the direction of a vehicle:</t>
-  </si>
-  <si>
-    <t>[ T ] It’s not easy to steer the car through these narrow streets.
-[ I ] fig. The speech steered clear of (= avoided) controversial issues.</t>
-  </si>
-  <si>
-    <t>cervix</t>
-  </si>
-  <si>
-    <t>/ˈsɜːvɪks/</t>
-  </si>
-  <si>
-    <t>tử cung</t>
-  </si>
-  <si>
-    <t>intertwine</t>
-  </si>
-  <si>
-    <t>/ˌɪntəˈtwaɪn/</t>
-  </si>
-  <si>
-    <t>Intertwine là xoắn hoặc quấn vào nhau, linh hoạt và mềm mại.
-Interlock là gắn chắc chắn vào nhau, cố định và cứng cáp hơn</t>
-  </si>
-  <si>
-    <t>if two or more things intertwine or are intertwined, they are twisted together so that they are very difficult to separate</t>
-  </si>
-  <si>
-    <t>(be) intertwined (with something)</t>
-  </si>
-  <si>
-    <t>a necklace of rubies intertwined with pearls</t>
-  </si>
-  <si>
-    <t>fatalistic</t>
-  </si>
-  <si>
-    <t>/ˌfeɪtəˈlɪstɪk/</t>
-  </si>
-  <si>
-    <t>showing a belief in fate and feeling that you cannot control events or stop them from happening</t>
-  </si>
-  <si>
-    <r>
-      <t>a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>fatalistic attitude/outlook</t>
-    </r>
-  </si>
-  <si>
-    <t>fatalism</t>
-  </si>
-  <si>
-    <t>/ˈfeɪtəlɪzəm/</t>
-  </si>
-  <si>
-    <t>the belief that events are decided by fate and that you cannot control them; the fact of accepting that you cannot prevent something from happening</t>
-  </si>
-  <si>
-    <t>There is a mood of profound fatalism amongst party members.</t>
-  </si>
-  <si>
-    <t>boulevard</t>
-  </si>
-  <si>
-    <t>đại lộ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherish </t>
-  </si>
-  <si>
-    <t>trân trọng, yêu thương</t>
-  </si>
-  <si>
-    <t>Children need to be cherished.</t>
-  </si>
-  <si>
-    <t>In 2014, he started working in an ice cream parlor</t>
-  </si>
-  <si>
-    <t>Năm 2014, anh bắt đầu làm việc trong một tiệm kem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parlor </t>
-  </si>
-  <si>
-    <t>tiệm kem</t>
-  </si>
-  <si>
-    <t>aesthetic style</t>
-  </si>
-  <si>
-    <t>phong cách thẩm mỹ</t>
-  </si>
-  <si>
-    <t>dissipate</t>
-  </si>
-  <si>
-    <t>tan biến, to gradually become or make something become weaker until it disappears</t>
-  </si>
-  <si>
-    <t>Eventually, his anger dissipated.</t>
-  </si>
-  <si>
-    <t>fluffy cotton candy</t>
-  </si>
-  <si>
-    <t>kẹo bông xốp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valve </t>
-  </si>
-  <si>
-    <t>/vælv/</t>
-  </si>
-  <si>
-    <t>van, a device for controlling the flow of a liquid or gas, letting it move in one direction only</t>
-  </si>
-  <si>
-    <t>You need special tools to open the valve</t>
-  </si>
-  <si>
-    <t>fragrance</t>
-  </si>
-  <si>
-    <t>/ˈfreɪɡrəns/</t>
-  </si>
-  <si>
-    <t>hương thơm, a pleasant smell</t>
-  </si>
-  <si>
-    <t>The bath oil comes in various fragrances.</t>
-  </si>
-  <si>
-    <t>rev up</t>
-  </si>
-  <si>
-    <t>tăng tốc</t>
-  </si>
-  <si>
-    <t>counteract stress</t>
-  </si>
-  <si>
-    <t>chống lại căng thẳng</t>
-  </si>
-  <si>
-    <t>free wellness services.</t>
-  </si>
-  <si>
-    <t>dịch vụ chăm sóc sức khỏe miễn phí.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">downshift </t>
-  </si>
-  <si>
-    <t>v, n</t>
-  </si>
-  <si>
-    <t>giảm tốc, to change to a lower gear in a vehicle;  to change to a job or style of life where you may earn less but which puts less pressure on you and involves less stress</t>
-  </si>
-  <si>
-    <t>lessen</t>
-  </si>
-  <si>
-    <t>/ˈlesn/</t>
-  </si>
-  <si>
-    <t>giảm bớt, to become or make something become smaller, weaker, less important, etc.</t>
-  </si>
-  <si>
-    <t>if you feel the emotional charge lessen.</t>
-  </si>
-  <si>
-    <t>nếu bạn cảm thấy điện tích cảm xúc giảm bớt.</t>
-  </si>
-  <si>
-    <t>diminish</t>
-  </si>
-  <si>
-    <t>The noise began to lessen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porn star </t>
-  </si>
-  <si>
-    <t>ngôi sao khiêu dâm</t>
-  </si>
-  <si>
-    <t>pacifier</t>
-  </si>
-  <si>
-    <t>/ˈpæsɪfaɪə(r)/</t>
-  </si>
-  <si>
-    <r>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>a rubber or plastic object with a special shape that a baby </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00860E"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>sucks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t> on with its lips and tongue</t>
-    </r>
-  </si>
-  <si>
-    <t>roulette</t>
-  </si>
-  <si>
-    <t>/ruːˈlet/</t>
-  </si>
-  <si>
-    <r>
-      <t>a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00860E"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t>gambling</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t> game in which a ball is dropped onto a moving wheel that has holes with numbers on it. Players bet on which hole the ball will be in when the wheel stops.</t>
-    </r>
-  </si>
-  <si>
-    <t>roulette ball/table/wheel</t>
-  </si>
-  <si>
-    <t>wield</t>
-  </si>
-  <si>
-    <t>/wiːld/</t>
-  </si>
-  <si>
-    <r>
-      <t>wield something</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t> to have and use power, authority, etc.</t>
-    </r>
-  </si>
-  <si>
-    <t>She wields enormous power within the party.</t>
-  </si>
-  <si>
-    <t>velocity</t>
-  </si>
-  <si>
-    <t>/vəˈlɒsəti/</t>
-  </si>
-  <si>
-    <t>the speed of something in a particular direction</t>
-  </si>
-  <si>
-    <r>
-      <t>to </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>gain/lose velocity</t>
-    </r>
-  </si>
-  <si>
-    <t>the velocity of light</t>
-  </si>
-  <si>
-    <t>seasoning</t>
-  </si>
-  <si>
-    <r>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>a substance used to add taste to food, especially salt and pepper</t>
-    </r>
-  </si>
-  <si>
-    <t>/ˈsiːzənɪŋ/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nagging work </t>
-  </si>
-  <si>
-    <t xml:space="preserve">have a great day with a big grin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">porch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">frown </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gullible public </t>
-  </si>
-  <si>
-    <t>substantial</t>
-  </si>
-  <si>
-    <t>công việc khó chịu</t>
-  </si>
-  <si>
-    <t>chúc một ngày tuyệt vời với nụ cười toe toét</t>
-  </si>
-  <si>
-    <t>hiên nhà</t>
-  </si>
-  <si>
-    <t>cau mày</t>
-  </si>
-  <si>
-    <t>công chúng cả tin</t>
-  </si>
-  <si>
-    <t>đáng kể</t>
-  </si>
-  <si>
-    <t>secondhand from thrift store</t>
-  </si>
-  <si>
-    <t>my go-to hacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weed out </t>
-  </si>
-  <si>
-    <t>fusion</t>
-  </si>
-  <si>
-    <t>mẹo của tôi</t>
-  </si>
-  <si>
-    <t>loại bỏ</t>
-  </si>
-  <si>
-    <t>ví</t>
-  </si>
-  <si>
-    <t>giải phóng</t>
-  </si>
-  <si>
-    <t>purse &lt;&gt; wallet</t>
-  </si>
-  <si>
-    <t>handbag</t>
-  </si>
-  <si>
-    <t>/ˈfjuːʒn/</t>
-  </si>
-  <si>
-    <t>hợp nhất, fusion (of A and B) the process or result of joining two or more things together to form one</t>
-  </si>
-  <si>
-    <t>the fusion of copper and zinc to produce brass</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>release</t>
-  </si>
-  <si>
-    <t>don’t mistake my kindness for weakness</t>
-  </si>
-  <si>
-    <t>/speə(r)/</t>
-  </si>
-  <si>
-    <t>spare</t>
-  </si>
-  <si>
-    <t>that is not being used or is not needed at the present time</t>
-  </si>
-  <si>
-    <t>not used/ needed</t>
-  </si>
-  <si>
-    <t>spare their lives: tha mạng cho họ</t>
-  </si>
-  <si>
-    <t>we have a spare bedroom, if you'd like to stay</t>
-  </si>
-  <si>
-    <t>spice</t>
-  </si>
-  <si>
-    <t>sabotage</t>
-  </si>
-  <si>
-    <t>/ˈsæbətɑːʒ/</t>
-  </si>
-  <si>
-    <r>
-      <t>sabotage something</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t> to damage or destroy something deliberately to prevent an enemy from using it or to protest about something</t>
-    </r>
-  </si>
-  <si>
-    <t>The main electricity supply had been sabotaged by the rebels.</t>
-  </si>
-  <si>
-    <t>newly minted president-elect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crack the whip </t>
-  </si>
-  <si>
-    <t xml:space="preserve">warrm and cordial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">engulf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambiguity </t>
-  </si>
-  <si>
-    <t>ambitious</t>
-  </si>
-  <si>
-    <t>ambivert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">my own inclination </t>
-  </si>
-  <si>
-    <t>adversary and ally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carpricious </t>
-  </si>
-  <si>
-    <t>tổng thống mới đắc cử</t>
-  </si>
-  <si>
-    <t>bẻ roi</t>
-  </si>
-  <si>
-    <t>ấm áp và thân thiện</t>
-  </si>
-  <si>
-    <t>tham vọng</t>
-  </si>
-  <si>
-    <t>hướng nội</t>
-  </si>
-  <si>
-    <t>khuynh hướng riêng của tôi</t>
-  </si>
-  <si>
-    <t>kẻ thù và đồng minh</t>
-  </si>
-  <si>
-    <t>minted</t>
-  </si>
-  <si>
-    <t> recently produced, invented, etc.</t>
-  </si>
-  <si>
-    <t>freshly/newly minted</t>
-  </si>
-  <si>
-    <t>a roll of newly minted banknotes</t>
-  </si>
-  <si>
-    <t>/ˌæmbɪˈɡjuːəti/</t>
-  </si>
-  <si>
-    <t>mơ hồ, the state of having more than one possible meaning</t>
-  </si>
-  <si>
-    <t>Write clear definitions in order to avoid ambiguity.</t>
-  </si>
-  <si>
-    <t>/ˈkɔːdiəl/</t>
-  </si>
-  <si>
-    <r>
-      <t>a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>cordial atmosphere/meeting/relationship</t>
-    </r>
-  </si>
-  <si>
-    <t>Their government has maintained cordial relations with the UK.</t>
-  </si>
-  <si>
-    <t>unpredictable</t>
-  </si>
-  <si>
-    <t>cáu kỉnh, showing sudden changes in attitude or behaviour</t>
-  </si>
-  <si>
-    <t>a movie star who was capricious and difficult to please</t>
-  </si>
-  <si>
-    <t>/ɪnˈɡʌlf/</t>
-  </si>
-  <si>
-    <t>nuốt chửng, engulf somebody/something to surround or to cover somebody/something completely; to affect somebody/something very strongly</t>
-  </si>
-  <si>
-    <r>
-      <t>The vehicle was </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>engulfed in flames</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>./ Fear engulfed her.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">perish </t>
-  </si>
-  <si>
-    <t>/ˈperɪʃ/</t>
-  </si>
-  <si>
-    <t>to die, especially in a sudden violent way</t>
-  </si>
-  <si>
-    <t>Thousands perished at the hands of the invading forces.</t>
-  </si>
-  <si>
-    <t>grudge</t>
-  </si>
-  <si>
-    <t>1.to do or give something unwillingly' 2. grudge somebody something to think that somebody does not deserve to have</t>
-  </si>
-  <si>
-    <t>Begrudge, dislike, be annoyed by, resent; "You surely don’t resent her for her success?"
-"You surely don’t begrudge her her success?"</t>
-  </si>
-  <si>
-    <t>1a.  grudge doing something I grudge having to pay so much tax. 
-1b. grudge something He grudges the time he spends travelling to work. 
-2. You surely don't grudge her her success?</t>
-  </si>
-  <si>
-    <t>I have wanderlust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am a big fan of travelling </t>
-  </si>
-  <si>
-    <t>to blow off steam</t>
-  </si>
-  <si>
-    <t>xả stress</t>
-  </si>
-  <si>
-    <t>Outdoors (av)
-Outdoor (a)</t>
-  </si>
-  <si>
-    <t>outdoor activities
-I like to go outdoors</t>
-  </si>
-  <si>
-    <t>at times</t>
-  </si>
-  <si>
-    <t>sometimes</t>
-  </si>
-  <si>
-    <r>
-      <t>in my free time = in my leisure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = in my spare time</t>
-    </r>
-  </si>
-  <si>
-    <t>be eager to do sth</t>
-  </si>
-  <si>
-    <t>very enthusiastic, excited, or keen to do sth</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">She’s </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eager to learn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> more about data analysis.</t>
-    </r>
-  </si>
-  <si>
-    <t>use or take full advantage of a situation, opportunity, or resource in the best possible way to achieve maximum benefit or value</t>
-  </si>
-  <si>
-    <t>make the most of sth</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If you want to succeed in your new job, you should </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>make the most of</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the training and resources provided.</t>
-    </r>
-  </si>
-  <si>
-    <t>work solo</t>
-  </si>
-  <si>
-    <t>/ˈsəʊləʊ/</t>
-  </si>
-  <si>
-    <t>to work alone, without help or collaboration from others. It emphasizes doing a task independently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">take something for granted </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I usually </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>work solo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when I need to focus on complex data analysis.</t>
-    </r>
-  </si>
-  <si>
-    <t>to assume that something will always be available or that it’s a given, without appreciating its value or realizing its importance. It can refer to things, people, or situations that are overlooked or not fully appreciated because they are taken as a certainty.</t>
-  </si>
-  <si>
-    <t>Overlook
-Underappreciate
-Fail to appreciate</t>
-  </si>
-  <si>
-    <t>Work alone
-Work independently
-Go solo (often used for creative or artistic endeavors)</t>
-  </si>
-  <si>
-    <t>to take years off someone</t>
-  </si>
-  <si>
-    <t>to make someone look or feel much younger, healthier, or more energetic. It often refers to the positive effects of something on a person's appearance or mood.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A new haircut can sometimes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>take years off you</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, making you look much younger.</t>
-    </r>
-  </si>
-  <si>
-    <t>intrinsic and extrinsic</t>
-  </si>
-  <si>
-    <t>/ɪnˈtrɪnzɪk/   /eksˈtrɪnzɪk/</t>
-  </si>
-  <si>
-    <t>intrinsic/extrinsic motivation</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Có nghĩa là sẵn sàng đầu tư thời gian và nỗ lực vào một việc gì đó </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>trong thời gian dài</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>in it for a long haul</t>
-  </si>
-  <si>
-    <t>Starting a business is challenging, but I'm in it for the long haul</t>
-  </si>
-  <si>
-    <t>Long-haul flight"</t>
-  </si>
-  <si>
-    <t>Chuyến bay đường dài (thường kéo dài hơn 6 tiếng)</t>
-  </si>
-  <si>
-    <t>booked a long-haul flight from New York to Tokyo</t>
-  </si>
-  <si>
-    <t>I am not a big beliver in saving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complacent </t>
-  </si>
-  <si>
-    <t>/kəmˈpleɪsnt/</t>
-  </si>
-  <si>
-    <t>too satisfied with yourself or with a situation, so that you do not feel that any change is necessary; showing or feeling complacency</t>
-  </si>
-  <si>
-    <r>
-      <t>complacent about somebody/something</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t> We must not become complacent about progress.</t>
-    </r>
-  </si>
-  <si>
-    <t>procrastinate</t>
-  </si>
-  <si>
-    <t>/prəˈkræstɪneɪt/</t>
-  </si>
-  <si>
-    <t>to delay doing something that you should do, usually because you do not want to do it</t>
-  </si>
-  <si>
-    <t>People were dying of starvation while governments procrastinated.</t>
-  </si>
-  <si>
-    <t>lethargic</t>
-  </si>
-  <si>
-    <t>/ləˈθɑːdʒɪk/</t>
-  </si>
-  <si>
-    <r>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>without any energy or enthusiasm for doing things</t>
-    </r>
-  </si>
-  <si>
-    <t>listless</t>
-  </si>
-  <si>
-    <t>The weather made her lethargic.</t>
-  </si>
-  <si>
-    <t>civilian</t>
-  </si>
-  <si>
-    <t>səˈvɪliən/</t>
-  </si>
-  <si>
-    <t>a person who is not a member of the armed forces or the police</t>
-  </si>
-  <si>
-    <r>
-      <t>Hundreds of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>innocent civilians</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t> have died in the air strikes.</t>
-    </r>
-  </si>
-  <si>
-    <t>civilian life, civilian clothes, civilian job, protecting civilians</t>
-  </si>
-  <si>
-    <t>complicated</t>
-  </si>
-  <si>
-    <t>/ˈkɒmplɪkeɪtɪd/</t>
-  </si>
-  <si>
-    <t>ade of many different things or parts that are connected; difficult to understand</t>
-  </si>
-  <si>
-    <t>a complicated issue/process/system</t>
-  </si>
-  <si>
-    <t>The instructions look very complicated.</t>
-  </si>
-  <si>
-    <t>complex, intricate/ˈɪntrɪkət/, not simple or easy</t>
-  </si>
-  <si>
-    <t>concur</t>
-  </si>
-  <si>
-    <t>/kənˈkɜː(r)/</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>Historians have concurred with each other in this view.</t>
-  </si>
-  <si>
-    <t>flake</t>
-  </si>
-  <si>
-    <t>flake off, peel off</t>
-  </si>
-  <si>
-    <t>digress</t>
-  </si>
-  <si>
-    <t>/daɪˈɡres/</t>
-  </si>
-  <si>
-    <r>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>to start to talk about something that is not connected with the main point of what you are saying</t>
-    </r>
-  </si>
-  <si>
-    <t>To digress for a moment, I would like to remind you that there will be no classes next week.</t>
-  </si>
-  <si>
-    <t>/ˈfrædʒaɪl/</t>
-  </si>
-  <si>
-    <t>fragile</t>
-  </si>
-  <si>
-    <t>easily broken or damaged; weak and uncertain; easy to destroy or harm</t>
-  </si>
-  <si>
-    <t>fragile china/glass/bones; a fragile alliance/ceasefire/relationship</t>
-  </si>
-  <si>
-    <t>The economy remains extremely fragile.</t>
-  </si>
-  <si>
-    <t>galore</t>
-  </si>
-  <si>
-    <t>/ɡəˈlɔː(r)/</t>
-  </si>
-  <si>
-    <t>in large quantities</t>
-  </si>
-  <si>
-    <t>There will be games and prizes galore.</t>
-  </si>
-  <si>
-    <t>Cuisine</t>
-  </si>
-  <si>
-    <t>/kwɪˈziːn/</t>
-  </si>
-  <si>
-    <t>A style of cooking, especially one characteristic of a particular country or region.</t>
-  </si>
-  <si>
-    <t>"I love Thai cuisine for its spicy flavors."</t>
-  </si>
-  <si>
-    <t>Savory</t>
-  </si>
-  <si>
-    <t>/ˈseɪ.vəri/</t>
-  </si>
-  <si>
-    <t>Having a salty or spicy flavor, not sweet.</t>
-  </si>
-  <si>
-    <t>"The chef prepared a savory dish of roasted chicken."</t>
-  </si>
-  <si>
-    <t>Appetizer</t>
-  </si>
-  <si>
-    <t>/ˈæpɪˌtaɪzər/</t>
-  </si>
-  <si>
-    <t>A small dish served before the main course to stimulate the appetite.</t>
-  </si>
-  <si>
-    <t>"We ordered a few appetizers to start our meal."</t>
-  </si>
-  <si>
-    <t>Garnish</t>
-  </si>
-  <si>
-    <t>/ˈɡɑːrnɪʃ/</t>
-  </si>
-  <si>
-    <t>A decoration or accompaniment to a dish to enhance its flavor or appearance.</t>
-  </si>
-  <si>
-    <t>"The salad was garnished with fresh herbs."</t>
-  </si>
-  <si>
-    <t>Ferment</t>
-  </si>
-  <si>
-    <t>/fərˈmɛnt/</t>
-  </si>
-  <si>
-    <t>The process of causing food or drink to break down into simpler substances by bacteria, yeast, or other microorganisms.</t>
-  </si>
-  <si>
-    <t>"Kimchi is a popular fermented Korean dish."</t>
-  </si>
-  <si>
-    <t>Umami</t>
-  </si>
-  <si>
-    <t>/uːˈmɑːmi/</t>
-  </si>
-  <si>
-    <t>A savory taste that is one of the five basic tastes, often found in foods like mushrooms, cheese, and meat.</t>
-  </si>
-  <si>
-    <t>"The miso soup has a strong umami flavor."</t>
-  </si>
-  <si>
-    <t>Stir-fry</t>
-  </si>
-  <si>
-    <t>/ˈstɜːrˌfraɪ/</t>
-  </si>
-  <si>
-    <t>To cook food quickly in a small amount of oil over high heat while stirring constantly.</t>
-  </si>
-  <si>
-    <t>"I made a vegetable stir-fry for dinner."</t>
-  </si>
-  <si>
-    <t>Aromatic</t>
-  </si>
-  <si>
-    <t>/ˌærəˈmætɪk/</t>
-  </si>
-  <si>
-    <t>Having a pleasant and distinctive smell, often used to describe spices and herbs.</t>
-  </si>
-  <si>
-    <t>"The kitchen was filled with the aromatic scent of cinnamon."</t>
-  </si>
-  <si>
-    <t>Zesty</t>
-  </si>
-  <si>
-    <t>/ˈzɛsti/</t>
-  </si>
-  <si>
-    <t>Having a strong, pleasant, and somewhat spicy flavor or quality.</t>
-  </si>
-  <si>
-    <t>"The lemon dressing gave the salad a zesty kick."</t>
-  </si>
-  <si>
-    <t>Delectable</t>
-  </si>
-  <si>
-    <t>/dɪˈlɛktəbəl/</t>
-  </si>
-  <si>
-    <t>Extremely delicious or appetizing.</t>
-  </si>
-  <si>
-    <t>"The chocolate cake was simply delectable."</t>
-  </si>
-  <si>
-    <t>Caramelize</t>
-  </si>
-  <si>
-    <t>/ˈkærəˌməlaɪz/</t>
-  </si>
-  <si>
-    <t>To cook sugar until it turns brown and develops a rich flavor.</t>
-  </si>
-  <si>
-    <t>"Caramelizing onions adds depth to the dish."</t>
-  </si>
-  <si>
-    <t>Marinate</t>
-  </si>
-  <si>
-    <t>/ˈmærɪˌneɪt/</t>
-  </si>
-  <si>
-    <t>To soak food, typically meat, in a flavored liquid before cooking.</t>
-  </si>
-  <si>
-    <t>"I marinated the chicken overnight for better flavor."</t>
-  </si>
-  <si>
-    <t>Simmer</t>
-  </si>
-  <si>
-    <t>/ˈsɪmər/</t>
-  </si>
-  <si>
-    <t>To cook food gently in a liquid at a low temperature.</t>
-  </si>
-  <si>
-    <t>"Let the soup simmer for 30 minutes."</t>
-  </si>
-  <si>
-    <t>Artisan</t>
-  </si>
-  <si>
-    <t>/ˈɑːrtɪzən/</t>
-  </si>
-  <si>
-    <t>A person skilled in a particular craft, often used to describe high-quality handmade foods.</t>
-  </si>
-  <si>
-    <t>"Artisan bread is made with natural ingredients."</t>
-  </si>
-  <si>
-    <t>Confectionery</t>
-  </si>
-  <si>
-    <t>/kənˈfɛkʃənəri/</t>
-  </si>
-  <si>
-    <t>Sweets, candies, and chocolates collectively.</t>
-  </si>
-  <si>
-    <t>"The confectionery shop was filled with colorful treats."</t>
-  </si>
-  <si>
-    <t>Broil</t>
-  </si>
-  <si>
-    <t>/brɔɪl/</t>
-  </si>
-  <si>
-    <t>To cook food directly under a heat source, such as a grill.</t>
-  </si>
-  <si>
-    <t>"I like to broil salmon for a crispy skin."</t>
-  </si>
-  <si>
-    <t>Al dente</t>
-  </si>
-  <si>
-    <t>/æl ˈdɛnteɪ/</t>
-  </si>
-  <si>
-    <t>(Italian) Cooked so that it is still firm when bitten, usually used for pasta.</t>
-  </si>
-  <si>
-    <t>"Cook the pasta al dente for the best texture."</t>
-  </si>
-  <si>
-    <t>Sauté</t>
-  </si>
-  <si>
-    <t>/sɔːˈteɪ/</t>
-  </si>
-  <si>
-    <t>To cook food quickly in a small amount of oil or butter over high heat.</t>
-  </si>
-  <si>
-    <t>"Sauté the mushrooms with garlic until golden brown."</t>
-  </si>
-  <si>
-    <t>A rich, savory taste found in foods like soy sauce and parmesan cheese.</t>
-  </si>
-  <si>
-    <t>"The dish has a deep umami flavor from the mushrooms."</t>
-  </si>
-  <si>
-    <t>Seasoning</t>
-  </si>
-  <si>
-    <t>Spices or herbs added to food to enhance its flavor.</t>
-  </si>
-  <si>
-    <t>"Add salt and pepper for seasoning to taste."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rote memorization </t>
-  </si>
-  <si>
-    <t>học thuộc lòng</t>
-  </si>
-  <si>
-    <t>Genuine</t>
-  </si>
-  <si>
-    <t>/ˈdʒenjuɪn/</t>
-  </si>
-  <si>
-    <t>authentic, true, real</t>
-  </si>
-  <si>
-    <t>real; exactly what it appears to be; not artificial</t>
-  </si>
-  <si>
-    <t>The document is not considered genuine.</t>
-  </si>
-  <si>
-    <t>/ˈhɒstaɪl/</t>
-  </si>
-  <si>
-    <t>hostile</t>
-  </si>
-  <si>
-    <t>aggressive or unfriendly and ready to argue or fight</t>
-  </si>
-  <si>
-    <t>hostile to/towards somebody/something</t>
-  </si>
-  <si>
-    <t>She was openly hostile towards her parents.</t>
-  </si>
-  <si>
-    <t>impatient</t>
-  </si>
-  <si>
-    <t>op: patient</t>
-  </si>
-  <si>
-    <t>annoyed by somebody/something, especially because you have to wait for a long time</t>
-  </si>
-  <si>
-    <t>I'd been waiting for twenty minutes and I was getting impatient.</t>
-  </si>
-  <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>mental pressure or worry felt by somebody because they have too much to do or manage; something that causes this pressure</t>
-  </si>
-  <si>
-    <t>/streɪn/</t>
-  </si>
-  <si>
-    <t>(under strain) Their marriage is under great strain at the moment.
- (strain on something) These repayments are putting a strain on our finances.</t>
-  </si>
-  <si>
-    <t>The transport service cannot cope with the strain of so many additional passengers.</t>
-  </si>
-  <si>
-    <t>alternative</t>
-  </si>
-  <si>
-    <t>/ɔːlˈtɜːnətɪv/</t>
-  </si>
-  <si>
-    <t>a thing that you can choose to do or have out of two or more possibilities</t>
-  </si>
-  <si>
-    <r>
-      <t>to </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>offer/provide an alternative</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(alternative for somebody)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t> This treatment is the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>only alternative</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t> for some patients.</t>
-    </r>
-  </si>
-  <si>
-    <t>substitude</t>
-  </si>
-  <si>
-    <t>/ˈsʌbstɪtjuːt/</t>
-  </si>
-  <si>
-    <t>a person or thing that you use or have instead of the one you normally use or have</t>
-  </si>
-  <si>
-    <t>substitute for somebody/something</t>
-  </si>
-  <si>
-    <t>levy a tax</t>
-  </si>
-  <si>
-    <t>đánh thuế</t>
-  </si>
-  <si>
-    <t>/ˈlevi/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">significant hurdle </t>
-  </si>
-  <si>
-    <t>a problem or difficulty that must be solved or dealt with before you can achieve something</t>
-  </si>
-  <si>
-    <t>obstacle</t>
-  </si>
-  <si>
-    <t>/ˈhɜːdl/</t>
-  </si>
-  <si>
-    <t>buzz about</t>
-  </si>
-  <si>
-    <t>xôn xao về</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the internet is buzzing about the tiny house of Elon Musk  </t>
-  </si>
-  <si>
-    <t>bedroom furnishings</t>
-  </si>
-  <si>
-    <t>the furniture, carpets, curtains, etc. in a room or house</t>
-  </si>
-  <si>
-    <t>/ˈfɜːrnɪʃɪŋz/</t>
-  </si>
-  <si>
-    <t>furnishings</t>
-  </si>
-  <si>
-    <t>collobrate</t>
-  </si>
-  <si>
-    <t>cooperate</t>
-  </si>
-  <si>
-    <t>expertise (n) &lt;&gt; expert (n/a)</t>
-  </si>
-  <si>
-    <t>có chuyên môn &lt;&gt; chuyên gia</t>
-  </si>
-  <si>
-    <t>expert opinion</t>
-  </si>
-  <si>
-    <t>he has expertise in artificial inteligent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prank </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pushing people on the cusp of poverty </t>
-  </si>
-  <si>
-    <t xml:space="preserve">perpetuate </t>
-  </si>
-  <si>
-    <t>eligible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demoralizing </t>
-  </si>
-  <si>
-    <t>initiative (n)</t>
-  </si>
-  <si>
-    <t>initiate</t>
-  </si>
-  <si>
-    <t>trò đùa</t>
-  </si>
-  <si>
-    <t>đẩy mọi người đến bờ vực nghèo đói</t>
-  </si>
-  <si>
-    <t>duy trì</t>
-  </si>
-  <si>
-    <t>đủ điều kiện</t>
-  </si>
-  <si>
-    <t>làm mất tinh thần</t>
-  </si>
-  <si>
-    <t>sáng kiến ​​(danh từ)</t>
-  </si>
-  <si>
-    <t>khởi xướng</t>
-  </si>
-  <si>
-    <t>/ɪˈnɪʃətɪv/</t>
-  </si>
-  <si>
-    <t>/ɪˈnɪʃieɪt/</t>
-  </si>
-  <si>
-    <t>peel off</t>
-  </si>
-  <si>
-    <t>thrift: tính tiết kiệm; thrifty speding: chi tiêu tiết kiệm =  frugal spending</t>
-  </si>
-  <si>
-    <t>hoard</t>
-  </si>
-  <si>
-    <t>/hɔːd/</t>
-  </si>
-  <si>
-    <t>n,v</t>
-  </si>
-  <si>
-    <r>
-      <t>hoard (of something)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Source Sans Pro"/>
-        <family val="2"/>
-      </rPr>
-      <t> a collection of money, food, valuable objects, etc., especially one that somebody keeps in a secret place so that other people will not find or steal it</t>
-    </r>
-  </si>
-  <si>
-    <t>They dug up a hoard of Roman coins.  
-The prisoners used to hoard scraps of food in secret places: các tù nhân thường tích trữ đồ ăn thừa ở những nơi bí mật</t>
-  </si>
-  <si>
-    <t>tidy up, clean up, organize</t>
-  </si>
-  <si>
-    <t>run errands</t>
-  </si>
-  <si>
-    <t>/ˈerənd/</t>
-  </si>
-  <si>
-    <t>a job that you do for somebody that involves going somewhere to take a message, to buy something, deliver goods, etc.</t>
-  </si>
-  <si>
-    <t>she runs errands for her boss.  
-Her boss sent her on an errand into town</t>
-  </si>
-  <si>
-    <t>to praise somebody or yourself for doing something well</t>
-  </si>
-  <si>
-    <t>pat on the back</t>
-  </si>
-  <si>
-    <t>praise</t>
-  </si>
-  <si>
-    <t>give someone/ yourself a pat on the back./ pat someone/yourself on the back</t>
-  </si>
-  <si>
-    <t>retrofit</t>
-  </si>
-  <si>
-    <t>/ˈretrəʊfɪt/</t>
-  </si>
-  <si>
-    <t>retrofit something to put a new piece of equipment into a machine that did not have it when it was built; to provide a machine with a new part, etc.</t>
-  </si>
-  <si>
-    <t>cải tạo</t>
-  </si>
-  <si>
-    <t>They retrofitted the plane with improved seating.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can save you from getting drenched </t>
-  </si>
-  <si>
-    <t>go stale</t>
-  </si>
-  <si>
-    <t>when it matterd most</t>
-  </si>
-  <si>
-    <t>setting aside money</t>
-  </si>
-  <si>
-    <t>if you stash money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">that might blow your mind </t>
-  </si>
-  <si>
-    <t>có thể cứu bạn khỏi bị ướt sũng</t>
-  </si>
-  <si>
-    <t>trở nên cũ kỹ</t>
-  </si>
-  <si>
-    <t>khi điều đó quan trọng nhất</t>
-  </si>
-  <si>
-    <t>để dành tiền</t>
-  </si>
-  <si>
-    <t>thực tế khắc nghiệt</t>
-  </si>
-  <si>
-    <t>nếu bạn cất tiền</t>
-  </si>
-  <si>
-    <t>điều đó có thể khiến bạn kinh ngạc</t>
-  </si>
-  <si>
-    <t>harsh reality</t>
-  </si>
-  <si>
-    <t>stoked</t>
-  </si>
-  <si>
-    <t>/stəʊkt/</t>
-  </si>
-  <si>
-    <r>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>excited and pleased about something</t>
-    </r>
-  </si>
-  <si>
-    <t>I'm really stoked that they chose me for the team.</t>
-  </si>
-  <si>
-    <t>stay grounded</t>
-  </si>
-  <si>
-    <t>keep a low profile</t>
-  </si>
-  <si>
-    <t>giữ bình tĩnh</t>
-  </si>
-  <si>
-    <t>giữ thái độ khiêm tốn</t>
+    <t>Cardiovascular system</t>
+  </si>
+  <si>
+    <t>hệ thống tim mạch</t>
+  </si>
+  <si>
+    <t>Children can eat anything except for rice.</t>
+  </si>
+  <si>
+    <t>start that side hustle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what you look like if you went all in </t>
+  </si>
+  <si>
+    <t>bắt đầu công việc phụ đó</t>
+  </si>
+  <si>
+    <t>bạn trông như thế nào nếu bạn dốc toàn lực</t>
   </si>
 </sst>
 </file>
@@ -3126,12 +3384,18 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3162,7 +3426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3209,6 +3473,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3512,11 +3777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E215" sqref="E215"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4669,7 +4934,7 @@
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>290</v>
@@ -4728,1940 +4993,2242 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>305</v>
+        <v>852</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.6">
       <c r="A67" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E67" t="s">
         <v>306</v>
-      </c>
-      <c r="E67" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" t="s">
         <v>308</v>
-      </c>
-      <c r="E68" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
+        <v>309</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="C69" t="s">
         <v>183</v>
       </c>
       <c r="D69" t="s">
+        <v>311</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="G69" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" t="s">
         <v>316</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>317</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="G70" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
+        <v>320</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="C71" t="s">
         <v>24</v>
       </c>
       <c r="D71" t="s">
+        <v>322</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="G71" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="C72" t="s">
         <v>34</v>
       </c>
       <c r="E72" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="57.6">
       <c r="A73" t="s">
+        <v>329</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="C73" t="s">
         <v>24</v>
       </c>
       <c r="D73" t="s">
+        <v>331</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="G73" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="28.8">
       <c r="A74" t="s">
+        <v>334</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="C74" t="s">
         <v>34</v>
       </c>
       <c r="D74" t="s">
+        <v>336</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="F74" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
+        <v>339</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="C75" t="s">
         <v>183</v>
       </c>
       <c r="D75" t="s">
+        <v>341</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="G75" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="57.6">
       <c r="A76" t="s">
+        <v>344</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="27.6">
       <c r="A77" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" t="s">
         <v>350</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="E77" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="G77" s="12" t="s">
         <v>353</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B79" s="2"/>
       <c r="E79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="28.8">
       <c r="A80" t="s">
+        <v>357</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="C80" t="s">
         <v>24</v>
       </c>
       <c r="E80" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
+        <v>361</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="230.4">
       <c r="A82" t="s">
+        <v>364</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="C82" t="s">
         <v>24</v>
       </c>
       <c r="D82" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E82" t="s">
         <v>367</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="G82" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
+        <v>370</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="C83" t="s">
         <v>34</v>
       </c>
       <c r="E83" t="s">
+        <v>372</v>
+      </c>
+      <c r="F83" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="24.6">
       <c r="A84" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
       <c r="E84" t="s">
+        <v>376</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
+        <v>378</v>
+      </c>
+      <c r="E85" t="s">
         <v>379</v>
-      </c>
-      <c r="E85" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
+        <v>380</v>
+      </c>
+      <c r="E86" t="s">
         <v>381</v>
       </c>
-      <c r="E86" t="s">
+      <c r="G86" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
+        <v>383</v>
+      </c>
+      <c r="E87" t="s">
         <v>384</v>
-      </c>
-      <c r="E87" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
+        <v>385</v>
+      </c>
+      <c r="E88" t="s">
         <v>386</v>
-      </c>
-      <c r="E88" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
+        <v>387</v>
+      </c>
+      <c r="E89" t="s">
         <v>388</v>
-      </c>
-      <c r="E89" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
+        <v>389</v>
+      </c>
+      <c r="E90" t="s">
         <v>390</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
+        <v>392</v>
+      </c>
+      <c r="E91" t="s">
         <v>393</v>
-      </c>
-      <c r="E91" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
+        <v>394</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="E92" t="s">
         <v>396</v>
       </c>
-      <c r="E92" t="s">
+      <c r="G92" s="10" t="s">
         <v>397</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
+        <v>398</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="E93" t="s">
         <v>400</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
+        <v>402</v>
+      </c>
+      <c r="E94" t="s">
         <v>403</v>
-      </c>
-      <c r="E94" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
+        <v>404</v>
+      </c>
+      <c r="E95" t="s">
         <v>405</v>
-      </c>
-      <c r="E95" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
+        <v>406</v>
+      </c>
+      <c r="E96" t="s">
         <v>407</v>
-      </c>
-      <c r="E96" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
+        <v>408</v>
+      </c>
+      <c r="C97" t="s">
         <v>409</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>410</v>
-      </c>
-      <c r="E97" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
+        <v>411</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="C98" t="s">
         <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
+        <v>414</v>
+      </c>
+      <c r="E99" t="s">
         <v>415</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>416</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
+        <v>418</v>
+      </c>
+      <c r="E100" t="s">
         <v>419</v>
-      </c>
-      <c r="E100" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
+        <v>420</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="E101" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
+        <v>423</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="E102" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="F102" t="s">
         <v>426</v>
-      </c>
-      <c r="F102" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
+        <v>427</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="E103" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="G103" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
+        <v>431</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="E104" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="F104" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="G104" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E106" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E107" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E108" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E109" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E110" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E111" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E112" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E113" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E114" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
+        <v>459</v>
+      </c>
+      <c r="D115" t="s">
         <v>460</v>
       </c>
-      <c r="D115" t="s">
-        <v>461</v>
-      </c>
       <c r="E115" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E116" t="s">
         <v>462</v>
       </c>
-      <c r="E116" t="s">
+      <c r="G116" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C117" t="s">
         <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E117" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
+        <v>468</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D119" t="s">
+        <v>470</v>
+      </c>
+      <c r="E119" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
         <v>471</v>
       </c>
-      <c r="E119" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>472</v>
-      </c>
-      <c r="G119" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
+        <v>474</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" t="s">
+        <v>409</v>
+      </c>
+      <c r="E120" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="C120" t="s">
-        <v>410</v>
-      </c>
-      <c r="E120" s="19" t="s">
+      <c r="G120" t="s">
         <v>477</v>
-      </c>
-      <c r="G120" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E121" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E122" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B123" t="s">
+        <v>502</v>
+      </c>
+      <c r="E123" t="s">
+        <v>490</v>
+      </c>
+      <c r="F123" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="E123" t="s">
-        <v>491</v>
-      </c>
-      <c r="F123" s="6" t="s">
+      <c r="G123" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C124" t="s">
         <v>24</v>
       </c>
       <c r="E124" t="s">
+        <v>509</v>
+      </c>
+      <c r="G124" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
       <c r="E125" t="s">
+        <v>500</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E126" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E127" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E128" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E129" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C130" t="s">
         <v>34</v>
       </c>
       <c r="D130" t="s">
+        <v>505</v>
+      </c>
+      <c r="E130" t="s">
         <v>506</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C131" t="s">
         <v>34</v>
       </c>
       <c r="E131" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F131" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="F131" s="20" t="s">
+      <c r="G131" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
+        <v>511</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="C132" t="s">
         <v>24</v>
       </c>
       <c r="E132" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="273.60000000000002">
       <c r="A133" t="s">
+        <v>515</v>
+      </c>
+      <c r="C133" t="s">
+        <v>409</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E133" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C133" t="s">
-        <v>410</v>
-      </c>
-      <c r="D133" s="3" t="s">
+      <c r="G133" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
+        <v>519</v>
+      </c>
+      <c r="D134" t="s">
         <v>520</v>
-      </c>
-      <c r="D134" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="E135" t="s">
         <v>522</v>
-      </c>
-      <c r="E135" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="28.8">
       <c r="A136" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="G136" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
+        <v>525</v>
+      </c>
+      <c r="D137" t="s">
         <v>526</v>
-      </c>
-      <c r="D137" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
+        <v>528</v>
+      </c>
+      <c r="E139" t="s">
         <v>529</v>
       </c>
-      <c r="E139" t="s">
+      <c r="G139" t="s">
         <v>530</v>
-      </c>
-      <c r="G139" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
+        <v>532</v>
+      </c>
+      <c r="E140" t="s">
+        <v>531</v>
+      </c>
+      <c r="G140" t="s">
         <v>533</v>
-      </c>
-      <c r="E140" t="s">
-        <v>532</v>
-      </c>
-      <c r="G140" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="172.8">
       <c r="A141" t="s">
+        <v>534</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="C141" t="s">
         <v>183</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E141" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G141" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="86.4">
       <c r="A142" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E142" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="E143" t="s">
         <v>543</v>
       </c>
-      <c r="E143" t="s">
+      <c r="G143" t="s">
         <v>544</v>
-      </c>
-      <c r="G143" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
+        <v>545</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="C144" t="s">
         <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
+        <v>549</v>
+      </c>
+      <c r="E145" t="s">
+        <v>548</v>
+      </c>
+      <c r="G145" t="s">
         <v>550</v>
-      </c>
-      <c r="E145" t="s">
-        <v>549</v>
-      </c>
-      <c r="G145" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
+        <v>551</v>
+      </c>
+      <c r="E146" t="s">
         <v>552</v>
       </c>
-      <c r="E146" t="s">
+      <c r="G146" t="s">
         <v>553</v>
-      </c>
-      <c r="G146" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
+        <v>555</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="C148" t="s">
         <v>34</v>
       </c>
       <c r="E148" t="s">
+        <v>557</v>
+      </c>
+      <c r="G148" s="23" t="s">
         <v>558</v>
-      </c>
-      <c r="G148" s="23" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
+        <v>559</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="C149" t="s">
         <v>24</v>
       </c>
       <c r="E149" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
+        <v>563</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="C150" t="s">
         <v>34</v>
       </c>
       <c r="D150" t="s">
+        <v>566</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="E150" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
+        <v>568</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
       </c>
       <c r="E151" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F151" t="s">
+        <v>572</v>
+      </c>
+      <c r="G151" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="F151" t="s">
-        <v>573</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
+        <v>573</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="C152" t="s">
         <v>34</v>
       </c>
       <c r="D152" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E152" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F152" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="G152" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
+        <v>579</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="C153" t="s">
         <v>24</v>
       </c>
       <c r="D153" t="s">
+        <v>581</v>
+      </c>
+      <c r="G153" s="10" t="s">
         <v>582</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C154" t="s">
         <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
+        <v>585</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="C155" t="s">
         <v>24</v>
       </c>
       <c r="E155" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="G155" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C156" t="s">
         <v>34</v>
       </c>
       <c r="E156" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F156" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="G156" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
+        <v>594</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="E157" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="G157" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="B158" s="25" t="s">
         <v>599</v>
-      </c>
-      <c r="B158" s="25" t="s">
-        <v>600</v>
       </c>
       <c r="C158" t="s">
         <v>9</v>
       </c>
       <c r="E158" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="G158" s="25" t="s">
         <v>601</v>
-      </c>
-      <c r="G158" s="25" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="B159" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="B159" s="25" t="s">
-        <v>604</v>
       </c>
       <c r="C159" t="s">
         <v>34</v>
       </c>
       <c r="E159" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="G159" s="25" t="s">
         <v>605</v>
-      </c>
-      <c r="G159" s="25" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="B160" s="25" t="s">
         <v>607</v>
-      </c>
-      <c r="B160" s="25" t="s">
-        <v>608</v>
       </c>
       <c r="C160" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="G160" s="25" t="s">
         <v>609</v>
-      </c>
-      <c r="G160" s="25" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="B161" s="25" t="s">
         <v>611</v>
-      </c>
-      <c r="B161" s="25" t="s">
-        <v>612</v>
       </c>
       <c r="C161" t="s">
         <v>9</v>
       </c>
       <c r="E161" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="G161" s="25" t="s">
         <v>613</v>
-      </c>
-      <c r="G161" s="25" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="B162" s="25" t="s">
         <v>615</v>
-      </c>
-      <c r="B162" s="25" t="s">
-        <v>616</v>
       </c>
       <c r="C162" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="G162" s="25" t="s">
         <v>617</v>
-      </c>
-      <c r="G162" s="25" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="B163" s="25" t="s">
         <v>619</v>
-      </c>
-      <c r="B163" s="25" t="s">
-        <v>620</v>
       </c>
       <c r="C163" t="s">
         <v>9</v>
       </c>
       <c r="E163" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="G163" s="25" t="s">
         <v>621</v>
-      </c>
-      <c r="G163" s="25" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="B164" s="25" t="s">
         <v>623</v>
-      </c>
-      <c r="B164" s="25" t="s">
-        <v>624</v>
       </c>
       <c r="C164" t="s">
         <v>24</v>
       </c>
       <c r="E164" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="G164" s="25" t="s">
         <v>625</v>
-      </c>
-      <c r="G164" s="25" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="B165" s="25" t="s">
         <v>627</v>
-      </c>
-      <c r="B165" s="25" t="s">
-        <v>628</v>
       </c>
       <c r="C165" t="s">
         <v>34</v>
       </c>
       <c r="E165" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="G165" s="25" t="s">
         <v>629</v>
-      </c>
-      <c r="G165" s="25" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="B166" s="25" t="s">
         <v>631</v>
-      </c>
-      <c r="B166" s="25" t="s">
-        <v>632</v>
       </c>
       <c r="C166" t="s">
         <v>34</v>
       </c>
       <c r="E166" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="G166" s="25" t="s">
         <v>633</v>
-      </c>
-      <c r="G166" s="25" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="B167" s="25" t="s">
         <v>635</v>
-      </c>
-      <c r="B167" s="25" t="s">
-        <v>636</v>
       </c>
       <c r="C167" t="s">
         <v>34</v>
       </c>
       <c r="E167" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="G167" s="25" t="s">
         <v>637</v>
-      </c>
-      <c r="G167" s="25" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="B168" s="25" t="s">
         <v>639</v>
-      </c>
-      <c r="B168" s="25" t="s">
-        <v>640</v>
       </c>
       <c r="C168" t="s">
         <v>24</v>
       </c>
       <c r="E168" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="G168" s="25" t="s">
         <v>641</v>
-      </c>
-      <c r="G168" s="25" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="B169" s="25" t="s">
         <v>643</v>
-      </c>
-      <c r="B169" s="25" t="s">
-        <v>644</v>
       </c>
       <c r="C169" t="s">
         <v>24</v>
       </c>
       <c r="E169" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="G169" s="25" t="s">
         <v>645</v>
-      </c>
-      <c r="G169" s="25" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="B170" s="25" t="s">
         <v>647</v>
-      </c>
-      <c r="B170" s="25" t="s">
-        <v>648</v>
       </c>
       <c r="C170" t="s">
         <v>24</v>
       </c>
       <c r="E170" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="G170" s="25" t="s">
         <v>649</v>
-      </c>
-      <c r="G170" s="25" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="B171" s="25" t="s">
         <v>651</v>
-      </c>
-      <c r="B171" s="25" t="s">
-        <v>652</v>
       </c>
       <c r="C171" t="s">
         <v>9</v>
       </c>
       <c r="E171" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="G171" s="25" t="s">
         <v>653</v>
-      </c>
-      <c r="G171" s="25" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="B172" s="25" t="s">
         <v>655</v>
-      </c>
-      <c r="B172" s="25" t="s">
-        <v>656</v>
       </c>
       <c r="C172" t="s">
         <v>34</v>
       </c>
       <c r="E172" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="G172" s="25" t="s">
         <v>657</v>
-      </c>
-      <c r="G172" s="25" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="B173" s="25" t="s">
         <v>659</v>
-      </c>
-      <c r="B173" s="25" t="s">
-        <v>660</v>
       </c>
       <c r="C173" t="s">
         <v>24</v>
       </c>
       <c r="E173" s="25" t="s">
+        <v>660</v>
+      </c>
+      <c r="G173" s="25" t="s">
         <v>661</v>
-      </c>
-      <c r="G173" s="25" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="B174" s="25" t="s">
         <v>663</v>
-      </c>
-      <c r="B174" s="25" t="s">
-        <v>664</v>
       </c>
       <c r="C174" t="s">
         <v>34</v>
       </c>
       <c r="E174" s="25" t="s">
+        <v>664</v>
+      </c>
+      <c r="G174" s="25" t="s">
         <v>665</v>
-      </c>
-      <c r="G174" s="25" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="B175" s="25" t="s">
         <v>667</v>
-      </c>
-      <c r="B175" s="25" t="s">
-        <v>668</v>
       </c>
       <c r="C175" t="s">
         <v>24</v>
       </c>
       <c r="E175" s="25" t="s">
+        <v>668</v>
+      </c>
+      <c r="G175" s="25" t="s">
         <v>669</v>
-      </c>
-      <c r="G175" s="25" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="B176" s="25" t="s">
         <v>619</v>
-      </c>
-      <c r="B176" s="25" t="s">
-        <v>620</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
       </c>
       <c r="E176" s="25" t="s">
+        <v>670</v>
+      </c>
+      <c r="G176" s="25" t="s">
         <v>671</v>
-      </c>
-      <c r="G176" s="25" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C177" t="s">
         <v>9</v>
       </c>
       <c r="E177" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="G177" s="25" t="s">
         <v>674</v>
-      </c>
-      <c r="G177" s="25" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
+        <v>675</v>
+      </c>
+      <c r="E178" s="25" t="s">
         <v>676</v>
-      </c>
-      <c r="E178" s="25" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
+        <v>677</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="C179" t="s">
         <v>34</v>
       </c>
       <c r="D179" t="s">
+        <v>679</v>
+      </c>
+      <c r="E179" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="G179" s="6" t="s">
         <v>681</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C180" t="s">
         <v>34</v>
       </c>
       <c r="E180" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="F180" s="27" t="s">
         <v>685</v>
       </c>
-      <c r="F180" s="27" t="s">
+      <c r="G180" s="10" t="s">
         <v>686</v>
-      </c>
-      <c r="G180" s="10" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C181" t="s">
         <v>34</v>
       </c>
       <c r="D181" t="s">
+        <v>688</v>
+      </c>
+      <c r="E181" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="G181" s="6" t="s">
         <v>690</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="28.8">
       <c r="A182" s="26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F182" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="G182" s="6" t="s">
         <v>695</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
       </c>
       <c r="E183" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="F183" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="G183" s="28" t="s">
         <v>700</v>
-      </c>
-      <c r="G183" s="28" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E184" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="F184" s="28" t="s">
         <v>704</v>
-      </c>
-      <c r="F184" s="28" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E185" s="5" t="s">
         <v>706</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="E187" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="G187" t="s">
         <v>714</v>
-      </c>
-      <c r="G187" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F188" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="D189" t="s">
         <v>720</v>
-      </c>
-      <c r="D189" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
+        <v>721</v>
+      </c>
+      <c r="E190" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="F190" t="s">
         <v>723</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>724</v>
-      </c>
-      <c r="G190" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E191" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E192" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E193" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E194" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E195" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E196" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E197" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="26.4">
       <c r="A198" t="s">
+        <v>743</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="C198" t="s">
         <v>745</v>
       </c>
-      <c r="C198" t="s">
+      <c r="E198" s="29" t="s">
         <v>746</v>
       </c>
-      <c r="E198" s="29" t="s">
+      <c r="G198" s="6" t="s">
         <v>747</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="28.8">
       <c r="A199" t="s">
+        <v>749</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>751</v>
       </c>
       <c r="C199" t="s">
         <v>24</v>
       </c>
       <c r="E199" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="G199" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
+        <v>754</v>
+      </c>
+      <c r="C200" t="s">
+        <v>745</v>
+      </c>
+      <c r="D200" t="s">
         <v>755</v>
       </c>
-      <c r="C200" t="s">
-        <v>746</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="E200" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="F200" t="s">
         <v>756</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="F200" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
+        <v>757</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="C201" t="s">
         <v>24</v>
       </c>
       <c r="D201" t="s">
+        <v>760</v>
+      </c>
+      <c r="E201" t="s">
+        <v>759</v>
+      </c>
+      <c r="G201" s="6" t="s">
         <v>761</v>
-      </c>
-      <c r="E201" t="s">
-        <v>760</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E202" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E203" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
+        <v>764</v>
+      </c>
+      <c r="E204" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="30" t="s">
         <v>765</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E205" t="s">
         <v>771</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" t="s">
-        <v>766</v>
-      </c>
-      <c r="E205" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E206" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E207" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E208" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
+        <v>776</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="C209" t="s">
         <v>34</v>
       </c>
       <c r="E209" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="G209" s="6" t="s">
         <v>779</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E210" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E211" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="43.2">
+      <c r="A212" t="s">
         <v>784</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C212" t="s">
+        <v>24</v>
+      </c>
+      <c r="D212" t="s">
+        <v>785</v>
+      </c>
+      <c r="E212" t="s">
+        <v>787</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>789</v>
+      </c>
+      <c r="E213" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>790</v>
+      </c>
+      <c r="E214" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>791</v>
+      </c>
+      <c r="E215" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>792</v>
+      </c>
+      <c r="E216" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>793</v>
+      </c>
+      <c r="E217" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>794</v>
+      </c>
+      <c r="E218" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>795</v>
+      </c>
+      <c r="E219" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>796</v>
+      </c>
+      <c r="E220" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>797</v>
+      </c>
+      <c r="E221" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>798</v>
+      </c>
+      <c r="E222" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>799</v>
+      </c>
+      <c r="E223" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>800</v>
+      </c>
+      <c r="E224" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>813</v>
+      </c>
+      <c r="E225" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>814</v>
+      </c>
+      <c r="E226" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>815</v>
+      </c>
+      <c r="E227" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>816</v>
+      </c>
+      <c r="E228" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>817</v>
+      </c>
+      <c r="E229" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>818</v>
+      </c>
+      <c r="E230" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>819</v>
+      </c>
+      <c r="E231" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>827</v>
+      </c>
+      <c r="E232" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>828</v>
+      </c>
+      <c r="E233" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>829</v>
+      </c>
+      <c r="E234" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>830</v>
+      </c>
+      <c r="E235" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>831</v>
+      </c>
+      <c r="E236" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>832</v>
+      </c>
+      <c r="E237" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>833</v>
+      </c>
+      <c r="E238" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>834</v>
+      </c>
+      <c r="E239" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>835</v>
+      </c>
+      <c r="E240" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>836</v>
+      </c>
+      <c r="E241" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>837</v>
+      </c>
+      <c r="E242" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>838</v>
+      </c>
+      <c r="E243" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>853</v>
+      </c>
+      <c r="E245" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>856</v>
+      </c>
+      <c r="E247" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>857</v>
+      </c>
+      <c r="E248" t="s">
+        <v>859</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30CDFA4-1FC8-48BF-A36A-2B0E7ACA6165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58765D4-6ABB-43C4-9609-3B83CA9838D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="956">
   <si>
     <t>Word</t>
   </si>
@@ -3200,6 +3200,329 @@
   </si>
   <si>
     <t>bạn trông như thế nào nếu bạn dốc toàn lực</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delineate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill acquisition </t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>move a giant boulder</t>
+  </si>
+  <si>
+    <t>paranoid</t>
+  </si>
+  <si>
+    <t>I am not taking it is going to happen easily for granted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crippling fear </t>
+  </si>
+  <si>
+    <t>multif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">underate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">feel futile </t>
+  </si>
+  <si>
+    <t>intricate line</t>
+  </si>
+  <si>
+    <t>shatter into pieces</t>
+  </si>
+  <si>
+    <t>be mindful that</t>
+  </si>
+  <si>
+    <t>outermost function</t>
+  </si>
+  <si>
+    <t>so you will become acquainted with it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indent </t>
+  </si>
+  <si>
+    <t>thu thập kỹ năng</t>
+  </si>
+  <si>
+    <t>hấp dẫn</t>
+  </si>
+  <si>
+    <t>di chuyển một tảng đá khổng lồ</t>
+  </si>
+  <si>
+    <t>hoang tưởng</t>
+  </si>
+  <si>
+    <t>tôi không cho rằng điều đó sẽ dễ dàng xảy ra</t>
+  </si>
+  <si>
+    <t>sợ hãi tê liệt</t>
+  </si>
+  <si>
+    <t>nhiều</t>
+  </si>
+  <si>
+    <t>thiếu sót</t>
+  </si>
+  <si>
+    <t>cảm thấy vô ích</t>
+  </si>
+  <si>
+    <t>đường phức tạp</t>
+  </si>
+  <si>
+    <t>tan thành từng mảnh</t>
+  </si>
+  <si>
+    <t>hãy lưu ý rằng</t>
+  </si>
+  <si>
+    <t>chức năng ngoài cùng</t>
+  </si>
+  <si>
+    <t>để bạn sẽ làm quen với nó</t>
+  </si>
+  <si>
+    <t>thụt lề</t>
+  </si>
+  <si>
+    <t>/dɪˈlɪnieɪt/</t>
+  </si>
+  <si>
+    <t>vạch ra, delineate something to describe, draw or explain something in detail</t>
+  </si>
+  <si>
+    <t>Our objectives need to be precisely delineated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cultivate the motivation </t>
+  </si>
+  <si>
+    <t>transition (v, n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expenditure </t>
+  </si>
+  <si>
+    <t>takeout 3 times</t>
+  </si>
+  <si>
+    <t>prudent</t>
+  </si>
+  <si>
+    <t>crush a no buy year</t>
+  </si>
+  <si>
+    <t>nuôi dưỡng động lực</t>
+  </si>
+  <si>
+    <t>chuyển tiếp (v, n)</t>
+  </si>
+  <si>
+    <t>chi tiêu</t>
+  </si>
+  <si>
+    <t>mua sắm 3 lần</t>
+  </si>
+  <si>
+    <t>thận trọng</t>
+  </si>
+  <si>
+    <t>phá tan một năm không mua sắm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crop up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">debunk myth </t>
+  </si>
+  <si>
+    <t>reach out</t>
+  </si>
+  <si>
+    <t>crutch</t>
+  </si>
+  <si>
+    <t>the primary goal of a measure is to produce results that are rendered in a report</t>
+  </si>
+  <si>
+    <t>nảy sinh</t>
+  </si>
+  <si>
+    <t>phá vỡ huyền thoại</t>
+  </si>
+  <si>
+    <t>vươn ra</t>
+  </si>
+  <si>
+    <t>cái nạng</t>
+  </si>
+  <si>
+    <t>mục tiêu chính của một biện pháp là tạo ra kết quả được thể hiện trong báo cáo</t>
+  </si>
+  <si>
+    <t>renter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">demon </t>
+  </si>
+  <si>
+    <t>lurk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shapeshifter </t>
+  </si>
+  <si>
+    <t>hinder</t>
+  </si>
+  <si>
+    <t>hindrance</t>
+  </si>
+  <si>
+    <t>fortnight</t>
+  </si>
+  <si>
+    <t>foreshadow</t>
+  </si>
+  <si>
+    <t>người thuê nhà</t>
+  </si>
+  <si>
+    <t>mất điện</t>
+  </si>
+  <si>
+    <t>ác quỷ</t>
+  </si>
+  <si>
+    <t>ẩn núp</t>
+  </si>
+  <si>
+    <t>kẻ biến hình</t>
+  </si>
+  <si>
+    <t>cản trở</t>
+  </si>
+  <si>
+    <t>hai tuần</t>
+  </si>
+  <si>
+    <t>báo trước</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicken tender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i am kind of torn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for consumers, it also come down to price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coleslaw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sucess in longevity hinge on taste </t>
+  </si>
+  <si>
+    <t>thịt gà mềm</t>
+  </si>
+  <si>
+    <t>tôi hơi phân vân</t>
+  </si>
+  <si>
+    <t>đối với người tiêu dùng, nó cũng phụ thuộc vào giá cả</t>
+  </si>
+  <si>
+    <t>salad bắp cải</t>
+  </si>
+  <si>
+    <t>thành công về lâu về dài phụ thuộc vào hương vị</t>
+  </si>
+  <si>
+    <t>1. I am kind of torn between staying at my current job and accepting a new offer.
+2. I am kind of torn about what to eat for dinner—pizza or sushi.</t>
+  </si>
+  <si>
+    <t>tôi đã rất xấu hổ, bối rối hoặc nhục nhã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was mortified </t>
+  </si>
+  <si>
+    <t>I was mortified when I realized I had sent the email to the wrong person</t>
+  </si>
+  <si>
+    <t>Embarrassed: Cảm giác xấu hổ nhẹ, không quá nghiêm trọng.
+Mortified: Xấu hổ đến mức tột độ, có thể khiến bạn muốn "chui xuống đất" vì ngượng.</t>
+  </si>
+  <si>
+    <t>leap your brain</t>
+  </si>
+  <si>
+    <t>This exercise will leap your brain into new dimensions of thinking."
+(Bài tập này sẽ khiến não bộ bạn nhảy vọt sang một cách tư duy hoàn toàn mới.)
+"To solve this problem, you'll need to leap your brain and think outside the box."
+(Để giải quyết vấn đề này, bạn cần kích hoạt bộ não và suy nghĩ đột phá.)</t>
+  </si>
+  <si>
+    <t>find a win</t>
+  </si>
+  <si>
+    <t>tìm ra một giải pháp tích cực hoặc đạt được một kết quả tốt</t>
+  </si>
+  <si>
+    <t>"Let's find a win in this situation."</t>
+  </si>
+  <si>
+    <t>stew over</t>
+  </si>
+  <si>
+    <t>ruminate over, obsess over, dwell on, brood</t>
+  </si>
+  <si>
+    <t>1. "Ruminate"
+Nghĩa: Suy nghĩ đi suy nghĩ lại, lặp đi lặp lại về một vấn đề, thường là theo cách tiêu cực hoặc không thể buông bỏ.
+Ví dụ:
+"She tends to ruminate over past mistakes."
+(Cô ấy thường suy nghĩ mãi về những sai lầm trong quá khứ.)
+"Ruminating won't change what happened."
+(Việc nghĩ ngợi mãi sẽ không thay đổi được điều đã xảy ra.)
+2. "Dwell on"
+Nghĩa: Tập trung quá nhiều vào một vấn đề, đặc biệt là những điều tiêu cực hoặc khó chịu.
+Ví dụ:
+"He dwells on every little criticism he receives."
+(Anh ấy cứ mãi bận tâm về từng lời chỉ trích nhỏ mà mình nhận được.)
+"Try not to dwell on the past too much."
+(Đừng mãi suy nghĩ về quá khứ quá nhiều.)
+3. "Brood"
+Nghĩa: Suy nghĩ u sầu hoặc trầm ngâm, đặc biệt khi bạn đang buồn phiền hoặc tức giận về điều gì đó.
+Ví dụ:
+"He spent the whole evening brooding over their argument."
+(Anh ấy dành cả buổi tối suy nghĩ u sầu về cuộc cãi vã của họ.)
+"Stop brooding and do something about it!"
+(Đừng cứ buồn bã suy nghĩ mãi, hãy làm gì đó đi!)
+4. "Stew over"
+Nghĩa: Suy nghĩ và cảm thấy khó chịu hoặc giận dữ về một vấn đề nào đó.
+Ví dụ:
+"She stewed over his rude comment for hours."
+(Cô ấy bực bội suy nghĩ mãi về lời nhận xét thô lỗ của anh ta.)
+5. "Obsess over"
+Nghĩa: Ám ảnh về một điều gì đó, không thể ngừng suy nghĩ về nó.
+Ví dụ:
+"He’s been obsessing over that mistake for days."
+(Anh ấy đã ám ảnh về lỗi lầm đó suốt mấy ngày liền.)</t>
   </si>
 </sst>
 </file>
@@ -3777,17 +4100,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:G293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E251" sqref="E251"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G291" sqref="G291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="51.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74" customWidth="1"/>
     <col min="5" max="5" width="131.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="87.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="151.6640625" bestFit="1" customWidth="1"/>
@@ -7173,7 +7497,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>836</v>
       </c>
@@ -7181,7 +7505,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>837</v>
       </c>
@@ -7189,7 +7513,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>838</v>
       </c>
@@ -7197,12 +7521,12 @@
         <v>850</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>853</v>
       </c>
@@ -7210,12 +7534,12 @@
         <v>854</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>856</v>
       </c>
@@ -7223,12 +7547,393 @@
         <v>858</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>857</v>
       </c>
       <c r="E248" t="s">
         <v>859</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>860</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="E249" t="s">
+        <v>892</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>861</v>
+      </c>
+      <c r="E250" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>862</v>
+      </c>
+      <c r="E251" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>863</v>
+      </c>
+      <c r="E252" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>864</v>
+      </c>
+      <c r="E253" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>865</v>
+      </c>
+      <c r="E254" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>866</v>
+      </c>
+      <c r="E255" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>867</v>
+      </c>
+      <c r="E256" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>868</v>
+      </c>
+      <c r="E257" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>869</v>
+      </c>
+      <c r="E258" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>870</v>
+      </c>
+      <c r="E259" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>871</v>
+      </c>
+      <c r="E260" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>872</v>
+      </c>
+      <c r="E261" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>873</v>
+      </c>
+      <c r="E262" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>874</v>
+      </c>
+      <c r="E263" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>875</v>
+      </c>
+      <c r="E264" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>894</v>
+      </c>
+      <c r="E265" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>895</v>
+      </c>
+      <c r="E266" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>896</v>
+      </c>
+      <c r="E267" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>897</v>
+      </c>
+      <c r="E268" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>898</v>
+      </c>
+      <c r="E269" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>899</v>
+      </c>
+      <c r="E270" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>906</v>
+      </c>
+      <c r="E271" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>907</v>
+      </c>
+      <c r="E272" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>908</v>
+      </c>
+      <c r="E273" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>909</v>
+      </c>
+      <c r="E274" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>910</v>
+      </c>
+      <c r="E275" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>916</v>
+      </c>
+      <c r="E276" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>917</v>
+      </c>
+      <c r="E277" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>918</v>
+      </c>
+      <c r="E278" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>919</v>
+      </c>
+      <c r="E279" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>920</v>
+      </c>
+      <c r="E280" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>921</v>
+      </c>
+      <c r="E281" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>922</v>
+      </c>
+      <c r="E282" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>923</v>
+      </c>
+      <c r="E283" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>924</v>
+      </c>
+      <c r="E284" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>933</v>
+      </c>
+      <c r="E285" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="28.8">
+      <c r="A286" t="s">
+        <v>934</v>
+      </c>
+      <c r="E286" t="s">
+        <v>939</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>935</v>
+      </c>
+      <c r="E287" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>936</v>
+      </c>
+      <c r="E288" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>937</v>
+      </c>
+      <c r="E289" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="28.8">
+      <c r="A290" t="s">
+        <v>945</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="E290" t="s">
+        <v>944</v>
+      </c>
+      <c r="G290" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="57.6">
+      <c r="A291" t="s">
+        <v>948</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>950</v>
+      </c>
+      <c r="E292" t="s">
+        <v>951</v>
+      </c>
+      <c r="G292" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="409.6">
+      <c r="A293" t="s">
+        <v>953</v>
+      </c>
+      <c r="D293" t="s">
+        <v>954</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>955</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58765D4-6ABB-43C4-9609-3B83CA9838D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B840DC3-418B-4F8E-80B5-E8612E254AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1010">
   <si>
     <t>Word</t>
   </si>
@@ -3523,6 +3523,206 @@
 Ví dụ:
 "He’s been obsessing over that mistake for days."
 (Anh ấy đã ám ảnh về lỗi lầm đó suốt mấy ngày liền.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quintessential </t>
+  </si>
+  <si>
+    <t xml:space="preserve">intergenerational </t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitable </t>
+  </si>
+  <si>
+    <t>make their action to reflect their words</t>
+  </si>
+  <si>
+    <t>warrior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huge colossal existential challenge </t>
+  </si>
+  <si>
+    <t>we have to harness that attitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">injustice </t>
+  </si>
+  <si>
+    <t>tinh túy</t>
+  </si>
+  <si>
+    <t>liên thế hệ</t>
+  </si>
+  <si>
+    <t>có thể ở được</t>
+  </si>
+  <si>
+    <t>làm cho hành động của họ phản ánh lời nói của họ</t>
+  </si>
+  <si>
+    <t>chiến binh</t>
+  </si>
+  <si>
+    <t>thách thức hiện sinh to lớn</t>
+  </si>
+  <si>
+    <t>chúng ta phải khai thác thái độ đó</t>
+  </si>
+  <si>
+    <t>bất công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sedentary lifestyle </t>
+  </si>
+  <si>
+    <t>lối sống ít vận động</t>
+  </si>
+  <si>
+    <t>a little bit out of whack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roughly in line with 10 years </t>
+  </si>
+  <si>
+    <t>to account for a risk of taking on the investment</t>
+  </si>
+  <si>
+    <t>pope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hold up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambush </t>
+  </si>
+  <si>
+    <t>hơi lệch một chút</t>
+  </si>
+  <si>
+    <t>gần đúng với 10 năm</t>
+  </si>
+  <si>
+    <t>để tính đến rủi ro khi đầu tư</t>
+  </si>
+  <si>
+    <t>giáo hoàng</t>
+  </si>
+  <si>
+    <t>giữ lại</t>
+  </si>
+  <si>
+    <t>phục kích</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conceptualize </t>
+  </si>
+  <si>
+    <t>hung up on trying something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pretty rubbish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">start dabbling with photography </t>
+  </si>
+  <si>
+    <t xml:space="preserve">your day job and your side hustle </t>
+  </si>
+  <si>
+    <t>mentally draining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weekly check-ins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stay grounded </t>
+  </si>
+  <si>
+    <t>hop on the mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">under a year's time </t>
+  </si>
+  <si>
+    <t>khái niệm hóa</t>
+  </si>
+  <si>
+    <t>khá là rác rưởi</t>
+  </si>
+  <si>
+    <t>công việc hàng ngày và công việc phụ của bạn</t>
+  </si>
+  <si>
+    <t>làm kiệt quệ tinh thần</t>
+  </si>
+  <si>
+    <t>kiểm tra hàng tuần</t>
+  </si>
+  <si>
+    <t>nhảy lên thảm</t>
+  </si>
+  <si>
+    <t>thời gian dưới một năm</t>
+  </si>
+  <si>
+    <t>có nghĩa là bạn đang quá tập trung, bị ám ảnh, hoặc bị mắc kẹt trong việc cố gắng làm một điều gì đó. Thường thì nó mang ý nghĩa tiêu cực hoặc chỉ ra rằng bạn đang dành quá nhiều sự chú ý cho một việc, có thể đến mức ảnh hưởng đến những khía cạnh khác trong cuộc sống.</t>
+  </si>
+  <si>
+    <t>"She is hung up on trying to make everyone like her."
+(Cô ấy quá tập trung vào việc khiến mọi người thích mình.)
+"He’s so hung up on trying to solve this problem that he hasn’t slept in days."
+(Anh ấy bị ám ảnh bởi việc giải quyết vấn đề này đến mức không ngủ nhiều ngày.)</t>
+  </si>
+  <si>
+    <t>bắt đầu thử hoặc tìm hiểu nhiếp ảnh một cách không chuyên sâu, mang tính khám phá và thử nghiệm.</t>
+  </si>
+  <si>
+    <r>
+      <t>A whole new ball game"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"a different ball game"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một thành ngữ dùng để chỉ một tình huống hoặc điều gì đó hoàn toàn mới mẻ, khác biệt so với trước đây.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">a different ball game </t>
+  </si>
+  <si>
+    <t>"Working from home is a whole new ball game compared to working in the office."
+(Làm việc tại nhà là một trải nghiệm hoàn toàn khác so với làm việc ở văn phòng.)</t>
+  </si>
+  <si>
+    <t>"Okay everyone, hop on the mat, and let’s start with some stretches."
+(Mọi người, hãy lên thảm và bắt đầu với vài động tác kéo giãn.)</t>
   </si>
 </sst>
 </file>
@@ -3749,7 +3949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3797,6 +3997,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4100,18 +4301,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G293"/>
+  <dimension ref="A1:G319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G291" sqref="G291"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C320" sqref="C320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="51.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="131.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="87.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="151.6640625" bestFit="1" customWidth="1"/>
@@ -5556,7 +5757,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="230.4">
+    <row r="82" spans="1:7" ht="28.8">
       <c r="A82" t="s">
         <v>364</v>
       </c>
@@ -6150,7 +6351,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="273.60000000000002">
+    <row r="133" spans="1:7" ht="39.6">
       <c r="A133" t="s">
         <v>515</v>
       </c>
@@ -6226,7 +6427,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="172.8">
+    <row r="141" spans="1:7" ht="43.2">
       <c r="A141" t="s">
         <v>534</v>
       </c>
@@ -6246,7 +6447,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="86.4">
+    <row r="142" spans="1:7" ht="43.2">
       <c r="A142" s="21" t="s">
         <v>537</v>
       </c>
@@ -7934,6 +8135,223 @@
       </c>
       <c r="G293" s="3" t="s">
         <v>955</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>956</v>
+      </c>
+      <c r="E294" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>957</v>
+      </c>
+      <c r="E295" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>958</v>
+      </c>
+      <c r="E296" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>959</v>
+      </c>
+      <c r="E297" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>960</v>
+      </c>
+      <c r="E298" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>961</v>
+      </c>
+      <c r="E299" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>962</v>
+      </c>
+      <c r="E300" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>963</v>
+      </c>
+      <c r="E301" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>972</v>
+      </c>
+      <c r="E302" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>974</v>
+      </c>
+      <c r="E303" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>975</v>
+      </c>
+      <c r="E304" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>976</v>
+      </c>
+      <c r="E305" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>977</v>
+      </c>
+      <c r="E306" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>978</v>
+      </c>
+      <c r="E307" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>979</v>
+      </c>
+      <c r="E308" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>986</v>
+      </c>
+      <c r="E309" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="57.6">
+      <c r="A310" t="s">
+        <v>987</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>988</v>
+      </c>
+      <c r="E311" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>989</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>990</v>
+      </c>
+      <c r="E313" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>991</v>
+      </c>
+      <c r="E314" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>992</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>993</v>
+      </c>
+      <c r="E316" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="28.8">
+      <c r="A317" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E317" s="31" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="28.8">
+      <c r="A318" t="s">
+        <v>994</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>995</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B840DC3-418B-4F8E-80B5-E8612E254AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98D0C6F-A06C-4457-A4F2-1E509D7EF1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="0" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="1044">
   <si>
     <t>Word</t>
   </si>
@@ -1742,9 +1742,6 @@
     <t>adversary and ally</t>
   </si>
   <si>
-    <t xml:space="preserve">carpricious </t>
-  </si>
-  <si>
     <t>tổng thống mới đắc cử</t>
   </si>
   <si>
@@ -2916,9 +2913,6 @@
   </si>
   <si>
     <t>giữ thái độ khiêm tốn</t>
-  </si>
-  <si>
-    <t>concquer</t>
   </si>
   <si>
     <t>acquire /əˈkwaɪə(r)/</t>
@@ -3627,9 +3621,6 @@
     <t xml:space="preserve">start dabbling with photography </t>
   </si>
   <si>
-    <t xml:space="preserve">your day job and your side hustle </t>
-  </si>
-  <si>
     <t>mentally draining</t>
   </si>
   <si>
@@ -3724,12 +3715,237 @@
     <t>"Okay everyone, hop on the mat, and let’s start with some stretches."
 (Mọi người, hãy lên thảm và bắt đầu với vài động tác kéo giãn.)</t>
   </si>
+  <si>
+    <t xml:space="preserve">cop-out answer </t>
+  </si>
+  <si>
+    <t>là một cụm từ không chính thức trong tiếng Anh, dùng để chỉ một câu trả lời né tránh, không dứt khoát hoặc không thực sự giải quyết vấn đề. Nó thường mang ý nghĩa tiêu cực, ngụ ý rằng người trả lời đang tránh trách nhiệm hoặc không muốn đối mặt với một câu hỏi khó.</t>
+  </si>
+  <si>
+    <t>"Saying 'it is what it is' feels like a cop-out answer to a serious issue."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blob out </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cụm từ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"blob out"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một thành ngữ không chính thức trong tiếng Anh, mang nghĩa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thư giãn, lười biếng, hoặc không làm gì cả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, thường là ở trạng thái thả lỏng hoàn toàn, như ngồi trước TV hoặc nằm dài trên ghế mà không có mục đích cụ thể.</t>
+    </r>
+  </si>
+  <si>
+    <t>"After a long week at work, I just want to blob out on the couch and watch Netflix."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carefree time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot take </t>
+  </si>
+  <si>
+    <t>platonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jucy stuff </t>
+  </si>
+  <si>
+    <t>realm</t>
+  </si>
+  <si>
+    <t>"Carefree time" là khoảng thời gian mà bạn cảm thấy thoải mái, không bị áp lực, lo âu hay phải lo nghĩ về công việc hoặc trách nhiệm. Đó thường là lúc bạn có thể tận hưởng những khoảnh khắc hiện tại, làm những gì mình yêu thích, hoặc đơn giản là thư giãn mà không cần bận tâm đến bất cứ điều gì khác.</t>
+  </si>
+  <si>
+    <t>"Hot take" là một thuật ngữ tiếng Anh thường dùng để chỉ một ý kiến, quan điểm, hoặc nhận xét được đưa ra nhanh chóng, thường gây tranh cãi hoặc trái ngược với quan điểm phổ biến. Những "hot take" thường không dựa trên phân tích sâu sắc mà mang tính cá nhân hoặc nhằm gây chú ý.</t>
+  </si>
+  <si>
+    <t>"Platonic" refers to a type of relationship or love that is non-romantic and non-sexual. It is typically used to describe a deep and meaningful bond between people that is based on mutual respect, affection, and connection, but without romantic or physical attraction.</t>
+  </si>
+  <si>
+    <t>"Juicy stuff" là một cách nói không chính thức trong tiếng Anh, dùng để chỉ thông tin hấp dẫn, thú vị, hoặc đôi khi là những chuyện bí mật, nhạy cảm mà mọi người thường tò mò muốn biết.</t>
+  </si>
+  <si>
+    <t>"Tell me all the juicy stuff about the party last night!"</t>
+  </si>
+  <si>
+    <r>
+      <t>"Realm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> có thể dịch là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"vương quốc," "lĩnh vực," "thế giới,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"phạm vi"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tùy ngữ cảnh.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ví dụ: "The king ruled over a vast realm."
+(Nhà vua cai trị một vương quốc rộng lớn.)
+Ví dụ: "This problem lies within the realm of science."
+(Vấn đề này nằm trong phạm vi khoa học.)
+Ví dụ: "The magical realm was hidden from the human world."
+(Vương quốc phép thuật được ẩn giấu khỏi thế giới loài người.)</t>
+  </si>
+  <si>
+    <t>/ˈkɔːnəstəʊn/</t>
+  </si>
+  <si>
+    <t>/ɡrʌdʒ/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capricious </t>
+  </si>
+  <si>
+    <t>/kəˈprɪʃəs/</t>
+  </si>
+  <si>
+    <t>/ˈmɔːtɪfaɪ/</t>
+  </si>
+  <si>
+    <t>/ˈbəʊldə(r)/</t>
+  </si>
+  <si>
+    <t>conquer</t>
+  </si>
+  <si>
+    <t>/hɪndʒ/</t>
+  </si>
+  <si>
+    <t>depend on</t>
+  </si>
+  <si>
+    <t>your day job and your side hustle(s)</t>
+  </si>
+  <si>
+    <t>recur</t>
+  </si>
+  <si>
+    <t>/rɪˈkɜː(r)/</t>
+  </si>
+  <si>
+    <t>​to happen again or a number of times</t>
+  </si>
+  <si>
+    <r>
+      <t>a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>recurring illness/problem/nightmare, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>This theme recurs several times throughout the book.</t>
+  </si>
+  <si>
+    <t>try out</t>
+  </si>
+  <si>
+    <t>try somebody/something  out (on somebody)</t>
+  </si>
+  <si>
+    <t>to test or use somebody/something in order to see how good or effective they are</t>
+  </si>
+  <si>
+    <t>They're trying out a new presenter for the show.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3906,6 +4122,18 @@
       <color rgb="FF333333"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3949,7 +4177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3998,6 +4226,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4301,11 +4530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G319"/>
+  <dimension ref="A1:G328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C320" sqref="C320"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G333" sqref="G333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5370,8 +5599,8 @@
       <c r="A57" t="s">
         <v>268</v>
       </c>
-      <c r="B57" t="s">
-        <v>268</v>
+      <c r="B57" s="2" t="s">
+        <v>1025</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -5459,7 +5688,7 @@
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>290</v>
@@ -5518,7 +5747,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.6">
@@ -5757,7 +5986,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="28.8">
+    <row r="82" spans="1:7" ht="115.2">
       <c r="A82" t="s">
         <v>364</v>
       </c>
@@ -6101,7 +6330,7 @@
         <v>451</v>
       </c>
       <c r="E112" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -6206,7 +6435,7 @@
         <v>478</v>
       </c>
       <c r="E121" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -6214,7 +6443,7 @@
         <v>479</v>
       </c>
       <c r="E122" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -6222,16 +6451,16 @@
         <v>480</v>
       </c>
       <c r="B123" t="s">
+        <v>501</v>
+      </c>
+      <c r="E123" t="s">
+        <v>489</v>
+      </c>
+      <c r="F123" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="E123" t="s">
-        <v>490</v>
-      </c>
-      <c r="F123" s="6" t="s">
+      <c r="G123" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -6239,16 +6468,16 @@
         <v>481</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C124" t="s">
         <v>24</v>
       </c>
       <c r="E124" t="s">
+        <v>508</v>
+      </c>
+      <c r="G124" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -6256,16 +6485,16 @@
         <v>482</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
       <c r="E125" t="s">
+        <v>499</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -6273,7 +6502,7 @@
         <v>483</v>
       </c>
       <c r="E126" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -6281,7 +6510,7 @@
         <v>484</v>
       </c>
       <c r="E127" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -6289,7 +6518,7 @@
         <v>485</v>
       </c>
       <c r="E128" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -6297,724 +6526,730 @@
         <v>486</v>
       </c>
       <c r="E129" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>487</v>
+        <v>1027</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1028</v>
       </c>
       <c r="C130" t="s">
         <v>34</v>
       </c>
       <c r="D130" t="s">
+        <v>504</v>
+      </c>
+      <c r="E130" t="s">
         <v>505</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" s="6" t="s">
         <v>506</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C131" t="s">
         <v>34</v>
       </c>
       <c r="E131" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F131" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="F131" s="20" t="s">
+      <c r="G131" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
+        <v>510</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="C132" t="s">
         <v>24</v>
       </c>
       <c r="E132" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="G132" s="6" t="s">
+    </row>
+    <row r="133" spans="1:7" ht="115.2">
+      <c r="A133" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="39.6">
-      <c r="A133" t="s">
-        <v>515</v>
+      <c r="B133" s="2" t="s">
+        <v>1026</v>
       </c>
       <c r="C133" t="s">
         <v>409</v>
       </c>
       <c r="D133" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
+        <v>518</v>
+      </c>
+      <c r="D134" t="s">
         <v>519</v>
-      </c>
-      <c r="D134" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="E135" t="s">
         <v>521</v>
-      </c>
-      <c r="E135" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="28.8">
       <c r="A136" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G136" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
+        <v>524</v>
+      </c>
+      <c r="D137" t="s">
         <v>525</v>
-      </c>
-      <c r="D137" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
+        <v>527</v>
+      </c>
+      <c r="E139" t="s">
         <v>528</v>
       </c>
-      <c r="E139" t="s">
+      <c r="G139" t="s">
         <v>529</v>
-      </c>
-      <c r="G139" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
+        <v>531</v>
+      </c>
+      <c r="E140" t="s">
+        <v>530</v>
+      </c>
+      <c r="G140" t="s">
         <v>532</v>
       </c>
-      <c r="E140" t="s">
-        <v>531</v>
-      </c>
-      <c r="G140" t="s">
+    </row>
+    <row r="141" spans="1:7" ht="72">
+      <c r="A141" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="43.2">
-      <c r="A141" t="s">
+      <c r="B141" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="C141" t="s">
         <v>183</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E141" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G141" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="43.2">
       <c r="A142" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E142" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="E143" t="s">
         <v>542</v>
       </c>
-      <c r="E143" t="s">
+      <c r="G143" t="s">
         <v>543</v>
-      </c>
-      <c r="G143" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
+        <v>544</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="C144" t="s">
         <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
+        <v>548</v>
+      </c>
+      <c r="E145" t="s">
+        <v>547</v>
+      </c>
+      <c r="G145" t="s">
         <v>549</v>
-      </c>
-      <c r="E145" t="s">
-        <v>548</v>
-      </c>
-      <c r="G145" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
+        <v>550</v>
+      </c>
+      <c r="E146" t="s">
         <v>551</v>
       </c>
-      <c r="E146" t="s">
+      <c r="G146" t="s">
         <v>552</v>
-      </c>
-      <c r="G146" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
+        <v>554</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="C148" t="s">
         <v>34</v>
       </c>
       <c r="E148" t="s">
+        <v>556</v>
+      </c>
+      <c r="G148" s="23" t="s">
         <v>557</v>
-      </c>
-      <c r="G148" s="23" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
+        <v>558</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="C149" t="s">
         <v>24</v>
       </c>
       <c r="E149" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
+        <v>562</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="C150" t="s">
         <v>34</v>
       </c>
       <c r="D150" t="s">
+        <v>565</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="E150" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
+        <v>567</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
       </c>
       <c r="E151" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F151" t="s">
+        <v>571</v>
+      </c>
+      <c r="G151" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="F151" t="s">
-        <v>572</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
+        <v>572</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="C152" t="s">
         <v>34</v>
       </c>
       <c r="D152" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E152" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F152" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="G152" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
+        <v>578</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="C153" t="s">
         <v>24</v>
       </c>
       <c r="D153" t="s">
+        <v>580</v>
+      </c>
+      <c r="G153" s="10" t="s">
         <v>581</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C154" t="s">
         <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
+        <v>584</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="C155" t="s">
         <v>24</v>
       </c>
       <c r="E155" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="G155" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C156" t="s">
         <v>34</v>
       </c>
       <c r="E156" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F156" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="G156" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
+        <v>593</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="E157" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="G157" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="B158" s="25" t="s">
         <v>598</v>
-      </c>
-      <c r="B158" s="25" t="s">
-        <v>599</v>
       </c>
       <c r="C158" t="s">
         <v>9</v>
       </c>
       <c r="E158" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="G158" s="25" t="s">
         <v>600</v>
-      </c>
-      <c r="G158" s="25" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="B159" s="25" t="s">
         <v>602</v>
-      </c>
-      <c r="B159" s="25" t="s">
-        <v>603</v>
       </c>
       <c r="C159" t="s">
         <v>34</v>
       </c>
       <c r="E159" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="G159" s="25" t="s">
         <v>604</v>
-      </c>
-      <c r="G159" s="25" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="B160" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="B160" s="25" t="s">
-        <v>607</v>
       </c>
       <c r="C160" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="G160" s="25" t="s">
         <v>608</v>
-      </c>
-      <c r="G160" s="25" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="B161" s="25" t="s">
         <v>610</v>
-      </c>
-      <c r="B161" s="25" t="s">
-        <v>611</v>
       </c>
       <c r="C161" t="s">
         <v>9</v>
       </c>
       <c r="E161" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="G161" s="25" t="s">
         <v>612</v>
-      </c>
-      <c r="G161" s="25" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="B162" s="25" t="s">
         <v>614</v>
-      </c>
-      <c r="B162" s="25" t="s">
-        <v>615</v>
       </c>
       <c r="C162" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="G162" s="25" t="s">
         <v>616</v>
-      </c>
-      <c r="G162" s="25" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="B163" s="25" t="s">
         <v>618</v>
-      </c>
-      <c r="B163" s="25" t="s">
-        <v>619</v>
       </c>
       <c r="C163" t="s">
         <v>9</v>
       </c>
       <c r="E163" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="G163" s="25" t="s">
         <v>620</v>
-      </c>
-      <c r="G163" s="25" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="B164" s="25" t="s">
         <v>622</v>
-      </c>
-      <c r="B164" s="25" t="s">
-        <v>623</v>
       </c>
       <c r="C164" t="s">
         <v>24</v>
       </c>
       <c r="E164" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="G164" s="25" t="s">
         <v>624</v>
-      </c>
-      <c r="G164" s="25" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="B165" s="25" t="s">
         <v>626</v>
-      </c>
-      <c r="B165" s="25" t="s">
-        <v>627</v>
       </c>
       <c r="C165" t="s">
         <v>34</v>
       </c>
       <c r="E165" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="G165" s="25" t="s">
         <v>628</v>
-      </c>
-      <c r="G165" s="25" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="B166" s="25" t="s">
         <v>630</v>
-      </c>
-      <c r="B166" s="25" t="s">
-        <v>631</v>
       </c>
       <c r="C166" t="s">
         <v>34</v>
       </c>
       <c r="E166" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="G166" s="25" t="s">
         <v>632</v>
-      </c>
-      <c r="G166" s="25" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="B167" s="25" t="s">
         <v>634</v>
-      </c>
-      <c r="B167" s="25" t="s">
-        <v>635</v>
       </c>
       <c r="C167" t="s">
         <v>34</v>
       </c>
       <c r="E167" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="G167" s="25" t="s">
         <v>636</v>
-      </c>
-      <c r="G167" s="25" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="B168" s="25" t="s">
         <v>638</v>
-      </c>
-      <c r="B168" s="25" t="s">
-        <v>639</v>
       </c>
       <c r="C168" t="s">
         <v>24</v>
       </c>
       <c r="E168" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="G168" s="25" t="s">
         <v>640</v>
-      </c>
-      <c r="G168" s="25" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="B169" s="25" t="s">
         <v>642</v>
-      </c>
-      <c r="B169" s="25" t="s">
-        <v>643</v>
       </c>
       <c r="C169" t="s">
         <v>24</v>
       </c>
       <c r="E169" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="G169" s="25" t="s">
         <v>644</v>
-      </c>
-      <c r="G169" s="25" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="B170" s="25" t="s">
         <v>646</v>
-      </c>
-      <c r="B170" s="25" t="s">
-        <v>647</v>
       </c>
       <c r="C170" t="s">
         <v>24</v>
       </c>
       <c r="E170" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="G170" s="25" t="s">
         <v>648</v>
-      </c>
-      <c r="G170" s="25" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="B171" s="25" t="s">
         <v>650</v>
-      </c>
-      <c r="B171" s="25" t="s">
-        <v>651</v>
       </c>
       <c r="C171" t="s">
         <v>9</v>
       </c>
       <c r="E171" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="G171" s="25" t="s">
         <v>652</v>
-      </c>
-      <c r="G171" s="25" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="B172" s="25" t="s">
         <v>654</v>
-      </c>
-      <c r="B172" s="25" t="s">
-        <v>655</v>
       </c>
       <c r="C172" t="s">
         <v>34</v>
       </c>
       <c r="E172" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="G172" s="25" t="s">
         <v>656</v>
-      </c>
-      <c r="G172" s="25" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="B173" s="25" t="s">
         <v>658</v>
-      </c>
-      <c r="B173" s="25" t="s">
-        <v>659</v>
       </c>
       <c r="C173" t="s">
         <v>24</v>
       </c>
       <c r="E173" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="G173" s="25" t="s">
         <v>660</v>
-      </c>
-      <c r="G173" s="25" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="B174" s="25" t="s">
         <v>662</v>
-      </c>
-      <c r="B174" s="25" t="s">
-        <v>663</v>
       </c>
       <c r="C174" t="s">
         <v>34</v>
       </c>
       <c r="E174" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="G174" s="25" t="s">
         <v>664</v>
-      </c>
-      <c r="G174" s="25" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="B175" s="25" t="s">
         <v>666</v>
-      </c>
-      <c r="B175" s="25" t="s">
-        <v>667</v>
       </c>
       <c r="C175" t="s">
         <v>24</v>
       </c>
       <c r="E175" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="G175" s="25" t="s">
         <v>668</v>
-      </c>
-      <c r="G175" s="25" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="B176" s="25" t="s">
         <v>618</v>
-      </c>
-      <c r="B176" s="25" t="s">
-        <v>619</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
       </c>
       <c r="E176" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="G176" s="25" t="s">
         <v>670</v>
-      </c>
-      <c r="G176" s="25" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B177" s="25" t="s">
         <v>438</v>
@@ -7023,1335 +7258,1446 @@
         <v>9</v>
       </c>
       <c r="E177" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="G177" s="25" t="s">
         <v>673</v>
-      </c>
-      <c r="G177" s="25" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
+        <v>674</v>
+      </c>
+      <c r="E178" s="25" t="s">
         <v>675</v>
-      </c>
-      <c r="E178" s="25" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
+        <v>676</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="C179" t="s">
         <v>34</v>
       </c>
       <c r="D179" t="s">
+        <v>678</v>
+      </c>
+      <c r="E179" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="G179" s="6" t="s">
         <v>680</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C180" t="s">
         <v>34</v>
       </c>
       <c r="E180" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="F180" s="27" t="s">
         <v>684</v>
       </c>
-      <c r="F180" s="27" t="s">
+      <c r="G180" s="10" t="s">
         <v>685</v>
-      </c>
-      <c r="G180" s="10" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="26" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C181" t="s">
         <v>34</v>
       </c>
       <c r="D181" t="s">
+        <v>687</v>
+      </c>
+      <c r="E181" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="G181" s="6" t="s">
         <v>689</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="28.8">
       <c r="A182" s="26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F182" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="G182" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
       </c>
       <c r="E183" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="F183" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="G183" s="28" t="s">
         <v>699</v>
-      </c>
-      <c r="G183" s="28" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E184" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="F184" s="28" t="s">
         <v>703</v>
-      </c>
-      <c r="F184" s="28" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E185" s="5" t="s">
         <v>705</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="E187" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="G187" t="s">
         <v>713</v>
-      </c>
-      <c r="G187" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F188" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="D189" t="s">
         <v>719</v>
-      </c>
-      <c r="D189" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
+        <v>720</v>
+      </c>
+      <c r="E190" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="F190" t="s">
         <v>722</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>723</v>
-      </c>
-      <c r="G190" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E191" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E192" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E193" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E194" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E195" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E196" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E197" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="26.4">
       <c r="A198" t="s">
+        <v>742</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="C198" t="s">
         <v>744</v>
       </c>
-      <c r="C198" t="s">
+      <c r="E198" s="29" t="s">
         <v>745</v>
       </c>
-      <c r="E198" s="29" t="s">
+      <c r="G198" s="6" t="s">
         <v>746</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="28.8">
       <c r="A199" t="s">
+        <v>748</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="C199" t="s">
         <v>24</v>
       </c>
       <c r="E199" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G199" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
+        <v>753</v>
+      </c>
+      <c r="C200" t="s">
+        <v>744</v>
+      </c>
+      <c r="D200" t="s">
         <v>754</v>
       </c>
-      <c r="C200" t="s">
-        <v>745</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="E200" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F200" t="s">
         <v>755</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="F200" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
+        <v>756</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="C201" t="s">
         <v>24</v>
       </c>
       <c r="D201" t="s">
+        <v>759</v>
+      </c>
+      <c r="E201" t="s">
+        <v>758</v>
+      </c>
+      <c r="G201" s="6" t="s">
         <v>760</v>
-      </c>
-      <c r="E201" t="s">
-        <v>759</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E202" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E203" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E204" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="30" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E205" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E206" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E207" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E208" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
+        <v>775</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="C209" t="s">
         <v>34</v>
       </c>
       <c r="E209" s="24" t="s">
+        <v>777</v>
+      </c>
+      <c r="G209" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E210" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E211" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="43.2">
       <c r="A212" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="C212" t="s">
         <v>24</v>
       </c>
       <c r="D212" t="s">
+        <v>783</v>
+      </c>
+      <c r="E212" t="s">
         <v>785</v>
       </c>
-      <c r="E212" t="s">
-        <v>787</v>
-      </c>
       <c r="F212" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E213" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E214" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E215" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E216" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E217" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E218" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E219" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E220" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E221" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E222" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E223" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E224" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E225" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E226" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E227" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E228" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E229" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E230" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E231" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E232" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E233" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E234" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E235" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E236" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E237" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E238" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E239" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E240" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E241" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E242" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E243" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E245" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
+        <v>854</v>
+      </c>
+      <c r="E247" t="s">
         <v>856</v>
-      </c>
-      <c r="E247" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
+        <v>855</v>
+      </c>
+      <c r="E248" t="s">
         <v>857</v>
-      </c>
-      <c r="E248" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="E249" t="s">
+        <v>890</v>
+      </c>
+      <c r="G249" s="6" t="s">
         <v>891</v>
-      </c>
-      <c r="E249" t="s">
-        <v>892</v>
-      </c>
-      <c r="G249" s="6" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E250" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E251" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>863</v>
+        <v>861</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>1030</v>
       </c>
       <c r="E252" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E253" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E254" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E255" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E256" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E257" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E258" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E259" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E260" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E261" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E262" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E263" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E264" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E265" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E266" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E267" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E268" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E269" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E270" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E271" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E272" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E273" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E274" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E275" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E276" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E277" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E278" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E279" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E280" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E281" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E282" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E283" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E284" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E285" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="28.8">
       <c r="A286" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E286" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E287" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E288" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>937</v>
+        <v>935</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1033</v>
       </c>
       <c r="E289" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="129.6">
+      <c r="A290" t="s">
+        <v>943</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="E290" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" ht="28.8">
-      <c r="A290" t="s">
-        <v>945</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="E290" t="s">
+      <c r="G290" t="s">
         <v>944</v>
-      </c>
-      <c r="G290" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="57.6">
       <c r="A291" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
+        <v>948</v>
+      </c>
+      <c r="E292" t="s">
+        <v>949</v>
+      </c>
+      <c r="G292" t="s">
         <v>950</v>
-      </c>
-      <c r="E292" t="s">
-        <v>951</v>
-      </c>
-      <c r="G292" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="409.6">
       <c r="A293" t="s">
+        <v>951</v>
+      </c>
+      <c r="D293" t="s">
+        <v>952</v>
+      </c>
+      <c r="G293" s="3" t="s">
         <v>953</v>
-      </c>
-      <c r="D293" t="s">
-        <v>954</v>
-      </c>
-      <c r="G293" s="3" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E294" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E295" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E296" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E297" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E298" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E299" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E300" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E301" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E302" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E303" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E304" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E305" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E306" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E307" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E308" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E309" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="57.6">
       <c r="A310" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E310" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E311" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E312" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>990</v>
+        <v>1034</v>
       </c>
       <c r="E313" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E314" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E315" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E316" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="28.8">
       <c r="A317" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E317" s="31" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="28.8">
       <c r="A318" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E318" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E319" t="s">
-        <v>1002</v>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G325" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="86.4">
+      <c r="A326" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E326" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="39.6">
+      <c r="A327" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G327" s="6" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D328" s="32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G328" s="6" t="s">
+        <v>1043</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98D0C6F-A06C-4457-A4F2-1E509D7EF1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED14381-A4FD-4786-B67A-37A8618E3DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1086">
   <si>
     <t>Word</t>
   </si>
@@ -1721,9 +1721,6 @@
     <t xml:space="preserve">crack the whip </t>
   </si>
   <si>
-    <t xml:space="preserve">warrm and cordial </t>
-  </si>
-  <si>
     <t xml:space="preserve">engulf </t>
   </si>
   <si>
@@ -2748,9 +2745,6 @@
     <t>đủ điều kiện</t>
   </si>
   <si>
-    <t>làm mất tinh thần</t>
-  </si>
-  <si>
     <t>sáng kiến ​​(danh từ)</t>
   </si>
   <si>
@@ -3084,9 +3078,6 @@
     <t>lầm bầm</t>
   </si>
   <si>
-    <t>a lot of snark</t>
-  </si>
-  <si>
     <t>talking ad nauseum about metaverse</t>
   </si>
   <si>
@@ -3096,9 +3087,6 @@
     <t>burgeoning (a) burgeon (v)</t>
   </si>
   <si>
-    <t>exubrance</t>
-  </si>
-  <si>
     <t>hype cycle</t>
   </si>
   <si>
@@ -3130,9 +3118,6 @@
   </si>
   <si>
     <t>phát triển (a) phát triển (v)</t>
-  </si>
-  <si>
-    <t>sự phấn khích</t>
   </si>
   <si>
     <t>chu kỳ cường điệu</t>
@@ -3398,9 +3383,6 @@
   </si>
   <si>
     <t>ác quỷ</t>
-  </si>
-  <si>
-    <t>ẩn núp</t>
   </si>
   <si>
     <t>kẻ biến hình</t>
@@ -3606,9 +3588,6 @@
     <t>giữ lại</t>
   </si>
   <si>
-    <t>phục kích</t>
-  </si>
-  <si>
     <t xml:space="preserve">conceptualize </t>
   </si>
   <si>
@@ -3940,12 +3919,190 @@
   <si>
     <t>They're trying out a new presenter for the show.</t>
   </si>
+  <si>
+    <t xml:space="preserve">warm and cordial </t>
+  </si>
+  <si>
+    <t>/ˈdæbl/</t>
+  </si>
+  <si>
+    <t>dabble (in/with something)</t>
+  </si>
+  <si>
+    <t>/ɪnˈdʒʌstɪs/</t>
+  </si>
+  <si>
+    <t>do yourself/somebody an injustice</t>
+  </si>
+  <si>
+    <t>to judge yourself/somebody unfairly</t>
+  </si>
+  <si>
+    <t>Perhaps I'm doing you an injustice.</t>
+  </si>
+  <si>
+    <r>
+      <t>disheartening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1D2129"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF1D2129"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/dɪs'hɑ:tnɪŋ/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1D2129"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>làm mất tinh thần, making somebody lose confidence or hope</t>
+  </si>
+  <si>
+    <t>the demoralizing effects of unemployment</t>
+  </si>
+  <si>
+    <t>/ɪɡˈzjuːbərəns/</t>
+  </si>
+  <si>
+    <t>sự phấn khích, the quality of being full of energy, excitement and happiness</t>
+  </si>
+  <si>
+    <t>exuberance (n); exuberant (a)</t>
+  </si>
+  <si>
+    <t>He was exuberant as a child.</t>
+  </si>
+  <si>
+    <t>Enthusiastic (a)</t>
+  </si>
+  <si>
+    <t>/snɑːk/</t>
+  </si>
+  <si>
+    <t>n/v</t>
+  </si>
+  <si>
+    <t>snark (at/about/on somebody/something)</t>
+  </si>
+  <si>
+    <t>There’s plenty to snark about in the article.</t>
+  </si>
+  <si>
+    <t>a lot of snark; snarky (a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remorse </t>
+  </si>
+  <si>
+    <t>atone</t>
+  </si>
+  <si>
+    <t>sự hối hận</t>
+  </si>
+  <si>
+    <t>sự hòa giải</t>
+  </si>
+  <si>
+    <t>/rɪˈmɔːs/</t>
+  </si>
+  <si>
+    <t>reconciliation/reconcile (v)</t>
+  </si>
+  <si>
+    <t>/ˌrekənsɪliˈeɪʃn/   ; /ˈrekənsaɪl/</t>
+  </si>
+  <si>
+    <t>econcile something (with something)</t>
+  </si>
+  <si>
+    <t>/əˈtəʊn/</t>
+  </si>
+  <si>
+    <t>atone (for something)</t>
+  </si>
+  <si>
+    <t>make amends</t>
+  </si>
+  <si>
+    <t>chuộc tội, to act in a way that shows you are sorry for doing something wrong in the past</t>
+  </si>
+  <si>
+    <t>monogamous relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyamorous relationship </t>
+  </si>
+  <si>
+    <t>mối quan hệ một vợ một chồng</t>
+  </si>
+  <si>
+    <t>mối quan hệ đa thê</t>
+  </si>
+  <si>
+    <t>/ˈhɪndə(r)/</t>
+  </si>
+  <si>
+    <t>hamper</t>
+  </si>
+  <si>
+    <t>hinder somebody/something (from something/from doing something)</t>
+  </si>
+  <si>
+    <t>Some teachers felt hindered by a lack of resources.</t>
+  </si>
+  <si>
+    <t>to make it difficult for somebody to do something or for something to happen, cản trở</t>
+  </si>
+  <si>
+    <t>/lɜːk/</t>
+  </si>
+  <si>
+    <t>skulk</t>
+  </si>
+  <si>
+    <t>(+ adv./prep.) to wait somewhere secretly, especially because you are going to do something bad or illegal, ẩn núp</t>
+  </si>
+  <si>
+    <t>Why are you lurking around outside my house?
+A crocodile was lurking just below the surface.</t>
+  </si>
+  <si>
+    <t>/ˈmɪntɪd/</t>
+  </si>
+  <si>
+    <t>/ˈæmbʊʃ/</t>
+  </si>
+  <si>
+    <t>​the act of hiding and waiting for somebody and then making a surprise attack on them, phục kích</t>
+  </si>
+  <si>
+    <t>Two soldiers were killed in a terrorist ambush.
+They were lying in ambush, waiting for the aid convoy.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4123,13 +4280,44 @@
       <name val="Inherit"/>
     </font>
     <font>
-      <i/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Inherit"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.2"/>
+      <color rgb="FF1D2129"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1D2129"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF1D2129"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
@@ -4177,7 +4365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4226,7 +4414,11 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4530,11 +4722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G328"/>
+  <dimension ref="A1:G334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G333" sqref="G333"/>
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G301" sqref="G301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5600,7 +5792,7 @@
         <v>268</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -5688,7 +5880,7 @@
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>290</v>
@@ -5747,7 +5939,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.6">
@@ -6330,7 +6522,7 @@
         <v>451</v>
       </c>
       <c r="E112" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -6435,7 +6627,7 @@
         <v>478</v>
       </c>
       <c r="E121" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -6443,813 +6635,816 @@
         <v>479</v>
       </c>
       <c r="E122" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>480</v>
+        <v>1037</v>
       </c>
       <c r="B123" t="s">
+        <v>500</v>
+      </c>
+      <c r="E123" t="s">
+        <v>488</v>
+      </c>
+      <c r="F123" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="E123" t="s">
-        <v>489</v>
-      </c>
-      <c r="F123" s="6" t="s">
+      <c r="G123" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C124" t="s">
         <v>24</v>
       </c>
       <c r="E124" t="s">
+        <v>507</v>
+      </c>
+      <c r="G124" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
       <c r="E125" t="s">
+        <v>498</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E126" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E127" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E128" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E129" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="B130" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="C130" t="s">
         <v>34</v>
       </c>
       <c r="D130" t="s">
+        <v>503</v>
+      </c>
+      <c r="E130" t="s">
         <v>504</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>494</v>
+        <v>493</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1082</v>
       </c>
       <c r="C131" t="s">
         <v>34</v>
       </c>
       <c r="E131" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F131" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="F131" s="20" t="s">
+      <c r="G131" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
+        <v>509</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="C132" t="s">
         <v>24</v>
       </c>
       <c r="E132" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="115.2">
       <c r="A133" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="C133" t="s">
         <v>409</v>
       </c>
       <c r="D133" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
+        <v>517</v>
+      </c>
+      <c r="D134" t="s">
         <v>518</v>
-      </c>
-      <c r="D134" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="E135" t="s">
         <v>520</v>
-      </c>
-      <c r="E135" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="28.8">
       <c r="A136" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G136" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
+        <v>523</v>
+      </c>
+      <c r="D137" t="s">
         <v>524</v>
-      </c>
-      <c r="D137" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
+        <v>526</v>
+      </c>
+      <c r="E139" t="s">
         <v>527</v>
       </c>
-      <c r="E139" t="s">
+      <c r="G139" t="s">
         <v>528</v>
-      </c>
-      <c r="G139" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
+        <v>530</v>
+      </c>
+      <c r="E140" t="s">
+        <v>529</v>
+      </c>
+      <c r="G140" t="s">
         <v>531</v>
-      </c>
-      <c r="E140" t="s">
-        <v>530</v>
-      </c>
-      <c r="G140" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="72">
       <c r="A141" t="s">
+        <v>532</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="C141" t="s">
         <v>183</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E141" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G141" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="43.2">
       <c r="A142" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E142" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="E143" t="s">
         <v>541</v>
       </c>
-      <c r="E143" t="s">
+      <c r="G143" t="s">
         <v>542</v>
-      </c>
-      <c r="G143" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
+        <v>543</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="C144" t="s">
         <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
+        <v>547</v>
+      </c>
+      <c r="E145" t="s">
+        <v>546</v>
+      </c>
+      <c r="G145" t="s">
         <v>548</v>
-      </c>
-      <c r="E145" t="s">
-        <v>547</v>
-      </c>
-      <c r="G145" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
+        <v>549</v>
+      </c>
+      <c r="E146" t="s">
         <v>550</v>
       </c>
-      <c r="E146" t="s">
+      <c r="G146" t="s">
         <v>551</v>
-      </c>
-      <c r="G146" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
+        <v>553</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="C148" t="s">
         <v>34</v>
       </c>
       <c r="E148" t="s">
+        <v>555</v>
+      </c>
+      <c r="G148" s="23" t="s">
         <v>556</v>
-      </c>
-      <c r="G148" s="23" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
+        <v>557</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="C149" t="s">
         <v>24</v>
       </c>
       <c r="E149" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>560</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
+        <v>561</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="C150" t="s">
         <v>34</v>
       </c>
       <c r="D150" t="s">
+        <v>564</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="E150" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
+        <v>566</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
       </c>
       <c r="E151" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F151" t="s">
+        <v>570</v>
+      </c>
+      <c r="G151" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="F151" t="s">
-        <v>571</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
+        <v>571</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="C152" t="s">
         <v>34</v>
       </c>
       <c r="D152" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E152" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F152" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="G152" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
+        <v>577</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="C153" t="s">
         <v>24</v>
       </c>
       <c r="D153" t="s">
+        <v>579</v>
+      </c>
+      <c r="G153" s="10" t="s">
         <v>580</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C154" t="s">
         <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
+        <v>583</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="C155" t="s">
         <v>24</v>
       </c>
       <c r="E155" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="G155" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C156" t="s">
         <v>34</v>
       </c>
       <c r="E156" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="F156" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="G156" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
+        <v>592</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="E157" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="G157" s="6" t="s">
         <v>595</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B158" s="25" t="s">
         <v>597</v>
-      </c>
-      <c r="B158" s="25" t="s">
-        <v>598</v>
       </c>
       <c r="C158" t="s">
         <v>9</v>
       </c>
       <c r="E158" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="G158" s="25" t="s">
         <v>599</v>
-      </c>
-      <c r="G158" s="25" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="B159" s="25" t="s">
         <v>601</v>
-      </c>
-      <c r="B159" s="25" t="s">
-        <v>602</v>
       </c>
       <c r="C159" t="s">
         <v>34</v>
       </c>
       <c r="E159" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="G159" s="25" t="s">
         <v>603</v>
-      </c>
-      <c r="G159" s="25" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="B160" s="25" t="s">
         <v>605</v>
-      </c>
-      <c r="B160" s="25" t="s">
-        <v>606</v>
       </c>
       <c r="C160" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="G160" s="25" t="s">
         <v>607</v>
-      </c>
-      <c r="G160" s="25" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="B161" s="25" t="s">
         <v>609</v>
-      </c>
-      <c r="B161" s="25" t="s">
-        <v>610</v>
       </c>
       <c r="C161" t="s">
         <v>9</v>
       </c>
       <c r="E161" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="G161" s="25" t="s">
         <v>611</v>
-      </c>
-      <c r="G161" s="25" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="B162" s="25" t="s">
         <v>613</v>
-      </c>
-      <c r="B162" s="25" t="s">
-        <v>614</v>
       </c>
       <c r="C162" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="G162" s="25" t="s">
         <v>615</v>
-      </c>
-      <c r="G162" s="25" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="B163" s="25" t="s">
         <v>617</v>
-      </c>
-      <c r="B163" s="25" t="s">
-        <v>618</v>
       </c>
       <c r="C163" t="s">
         <v>9</v>
       </c>
       <c r="E163" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="G163" s="25" t="s">
         <v>619</v>
-      </c>
-      <c r="G163" s="25" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="B164" s="25" t="s">
         <v>621</v>
-      </c>
-      <c r="B164" s="25" t="s">
-        <v>622</v>
       </c>
       <c r="C164" t="s">
         <v>24</v>
       </c>
       <c r="E164" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="G164" s="25" t="s">
         <v>623</v>
-      </c>
-      <c r="G164" s="25" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="B165" s="25" t="s">
         <v>625</v>
-      </c>
-      <c r="B165" s="25" t="s">
-        <v>626</v>
       </c>
       <c r="C165" t="s">
         <v>34</v>
       </c>
       <c r="E165" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="G165" s="25" t="s">
         <v>627</v>
-      </c>
-      <c r="G165" s="25" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="B166" s="25" t="s">
         <v>629</v>
-      </c>
-      <c r="B166" s="25" t="s">
-        <v>630</v>
       </c>
       <c r="C166" t="s">
         <v>34</v>
       </c>
       <c r="E166" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="G166" s="25" t="s">
         <v>631</v>
-      </c>
-      <c r="G166" s="25" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="B167" s="25" t="s">
         <v>633</v>
-      </c>
-      <c r="B167" s="25" t="s">
-        <v>634</v>
       </c>
       <c r="C167" t="s">
         <v>34</v>
       </c>
       <c r="E167" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="G167" s="25" t="s">
         <v>635</v>
-      </c>
-      <c r="G167" s="25" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="B168" s="25" t="s">
         <v>637</v>
-      </c>
-      <c r="B168" s="25" t="s">
-        <v>638</v>
       </c>
       <c r="C168" t="s">
         <v>24</v>
       </c>
       <c r="E168" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="G168" s="25" t="s">
         <v>639</v>
-      </c>
-      <c r="G168" s="25" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="B169" s="25" t="s">
         <v>641</v>
-      </c>
-      <c r="B169" s="25" t="s">
-        <v>642</v>
       </c>
       <c r="C169" t="s">
         <v>24</v>
       </c>
       <c r="E169" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="G169" s="25" t="s">
         <v>643</v>
-      </c>
-      <c r="G169" s="25" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="B170" s="25" t="s">
         <v>645</v>
-      </c>
-      <c r="B170" s="25" t="s">
-        <v>646</v>
       </c>
       <c r="C170" t="s">
         <v>24</v>
       </c>
       <c r="E170" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="G170" s="25" t="s">
         <v>647</v>
-      </c>
-      <c r="G170" s="25" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="B171" s="25" t="s">
         <v>649</v>
-      </c>
-      <c r="B171" s="25" t="s">
-        <v>650</v>
       </c>
       <c r="C171" t="s">
         <v>9</v>
       </c>
       <c r="E171" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="G171" s="25" t="s">
         <v>651</v>
-      </c>
-      <c r="G171" s="25" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="B172" s="25" t="s">
         <v>653</v>
-      </c>
-      <c r="B172" s="25" t="s">
-        <v>654</v>
       </c>
       <c r="C172" t="s">
         <v>34</v>
       </c>
       <c r="E172" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="G172" s="25" t="s">
         <v>655</v>
-      </c>
-      <c r="G172" s="25" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="B173" s="25" t="s">
         <v>657</v>
-      </c>
-      <c r="B173" s="25" t="s">
-        <v>658</v>
       </c>
       <c r="C173" t="s">
         <v>24</v>
       </c>
       <c r="E173" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="G173" s="25" t="s">
         <v>659</v>
-      </c>
-      <c r="G173" s="25" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="B174" s="25" t="s">
         <v>661</v>
-      </c>
-      <c r="B174" s="25" t="s">
-        <v>662</v>
       </c>
       <c r="C174" t="s">
         <v>34</v>
       </c>
       <c r="E174" s="25" t="s">
+        <v>662</v>
+      </c>
+      <c r="G174" s="25" t="s">
         <v>663</v>
-      </c>
-      <c r="G174" s="25" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="B175" s="25" t="s">
         <v>665</v>
-      </c>
-      <c r="B175" s="25" t="s">
-        <v>666</v>
       </c>
       <c r="C175" t="s">
         <v>24</v>
       </c>
       <c r="E175" s="25" t="s">
+        <v>666</v>
+      </c>
+      <c r="G175" s="25" t="s">
         <v>667</v>
-      </c>
-      <c r="G175" s="25" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="B176" s="25" t="s">
         <v>617</v>
-      </c>
-      <c r="B176" s="25" t="s">
-        <v>618</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
       </c>
       <c r="E176" s="25" t="s">
+        <v>668</v>
+      </c>
+      <c r="G176" s="25" t="s">
         <v>669</v>
-      </c>
-      <c r="G176" s="25" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B177" s="25" t="s">
         <v>438</v>
@@ -7258,1446 +7453,1605 @@
         <v>9</v>
       </c>
       <c r="E177" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="G177" s="25" t="s">
         <v>672</v>
-      </c>
-      <c r="G177" s="25" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
+        <v>673</v>
+      </c>
+      <c r="E178" s="25" t="s">
         <v>674</v>
-      </c>
-      <c r="E178" s="25" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
+        <v>675</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="C179" t="s">
         <v>34</v>
       </c>
       <c r="D179" t="s">
+        <v>677</v>
+      </c>
+      <c r="E179" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="G179" s="6" t="s">
         <v>679</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C180" t="s">
         <v>34</v>
       </c>
       <c r="E180" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="F180" s="27" t="s">
         <v>683</v>
       </c>
-      <c r="F180" s="27" t="s">
+      <c r="G180" s="10" t="s">
         <v>684</v>
-      </c>
-      <c r="G180" s="10" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C181" t="s">
         <v>34</v>
       </c>
       <c r="D181" t="s">
+        <v>686</v>
+      </c>
+      <c r="E181" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="G181" s="6" t="s">
         <v>688</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="28.8">
       <c r="A182" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F182" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="G182" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
       </c>
       <c r="E183" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F183" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="G183" s="28" t="s">
         <v>698</v>
-      </c>
-      <c r="G183" s="28" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E184" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="F184" s="28" t="s">
         <v>702</v>
-      </c>
-      <c r="F184" s="28" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E185" s="5" t="s">
         <v>704</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="E187" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="G187" t="s">
         <v>712</v>
-      </c>
-      <c r="G187" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F188" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="D189" t="s">
         <v>718</v>
-      </c>
-      <c r="D189" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
+        <v>719</v>
+      </c>
+      <c r="E190" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="F190" t="s">
         <v>721</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>722</v>
-      </c>
-      <c r="G190" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E191" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E192" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E193" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
+        <v>726</v>
+      </c>
+      <c r="E194" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="16.8">
+      <c r="A195" t="s">
         <v>727</v>
       </c>
-      <c r="E194" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" t="s">
-        <v>728</v>
+      <c r="C195" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="35" t="s">
+        <v>1044</v>
       </c>
       <c r="E195" t="s">
-        <v>735</v>
+        <v>1045</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E196" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E197" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="26.4">
       <c r="A198" t="s">
+        <v>740</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C198" t="s">
         <v>742</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="E198" s="29" t="s">
         <v>743</v>
       </c>
-      <c r="C198" t="s">
+      <c r="G198" s="6" t="s">
         <v>744</v>
-      </c>
-      <c r="E198" s="29" t="s">
-        <v>745</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="28.8">
       <c r="A199" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C199" t="s">
         <v>24</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
+        <v>751</v>
+      </c>
+      <c r="C200" t="s">
+        <v>742</v>
+      </c>
+      <c r="D200" t="s">
+        <v>752</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="F200" t="s">
         <v>753</v>
-      </c>
-      <c r="C200" t="s">
-        <v>744</v>
-      </c>
-      <c r="D200" t="s">
-        <v>754</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F200" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C201" t="s">
         <v>24</v>
       </c>
       <c r="D201" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E201" t="s">
+        <v>756</v>
+      </c>
+      <c r="G201" s="6" t="s">
         <v>758</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E202" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E203" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E204" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="30" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E205" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E206" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E207" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E208" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C209" t="s">
         <v>34</v>
       </c>
       <c r="E209" s="24" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
+        <v>777</v>
+      </c>
+      <c r="E210" t="s">
         <v>779</v>
-      </c>
-      <c r="E210" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
+        <v>778</v>
+      </c>
+      <c r="E211" t="s">
         <v>780</v>
-      </c>
-      <c r="E211" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="43.2">
       <c r="A212" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C212" t="s">
         <v>24</v>
       </c>
       <c r="D212" t="s">
+        <v>781</v>
+      </c>
+      <c r="E212" t="s">
         <v>783</v>
       </c>
-      <c r="E212" t="s">
-        <v>785</v>
-      </c>
       <c r="F212" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E213" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E214" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E215" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E216" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E217" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E218" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E219" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E220" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E221" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E222" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E223" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E224" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>809</v>
+      </c>
+      <c r="E225" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
+      <c r="E226" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
         <v>811</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E227" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
         <v>812</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E228" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
         <v>813</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E229" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
-      <c r="A228" t="s">
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
         <v>814</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E230" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
-      <c r="A229" t="s">
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
         <v>815</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E231" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
-      <c r="A230" t="s">
-        <v>816</v>
-      </c>
-      <c r="E230" t="s">
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D232" s="33" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E232" t="s">
+        <v>833</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" t="s">
-        <v>817</v>
-      </c>
-      <c r="E231" t="s">
+      <c r="E233" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" t="s">
+      <c r="E234" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
         <v>825</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E235" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>826</v>
+      </c>
+      <c r="E237" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
-      <c r="A233" t="s">
-        <v>826</v>
-      </c>
-      <c r="E233" t="s">
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>827</v>
+      </c>
+      <c r="E238" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
-      <c r="A234" t="s">
-        <v>827</v>
-      </c>
-      <c r="E234" t="s">
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>828</v>
+      </c>
+      <c r="E239" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
-      <c r="A235" t="s">
-        <v>828</v>
-      </c>
-      <c r="E235" t="s">
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>829</v>
+      </c>
+      <c r="E240" t="s">
         <v>840</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" t="s">
-        <v>829</v>
-      </c>
-      <c r="E236" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" t="s">
-        <v>830</v>
-      </c>
-      <c r="E237" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" t="s">
-        <v>831</v>
-      </c>
-      <c r="E238" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" t="s">
-        <v>832</v>
-      </c>
-      <c r="E239" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" t="s">
-        <v>833</v>
-      </c>
-      <c r="E240" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E241" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E242" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E243" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E245" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E247" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E248" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="E249" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E250" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E251" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="E252" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E253" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E254" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E255" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E256" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="E257" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E258" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E259" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E260" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E261" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E262" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E263" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="E264" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="E265" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="E266" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E267" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="E268" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="E269" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="E270" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
+        <v>899</v>
+      </c>
+      <c r="E271" t="s">
         <v>904</v>
-      </c>
-      <c r="E271" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
+        <v>900</v>
+      </c>
+      <c r="E272" t="s">
         <v>905</v>
-      </c>
-      <c r="E272" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
+        <v>901</v>
+      </c>
+      <c r="E273" t="s">
         <v>906</v>
-      </c>
-      <c r="E273" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
+        <v>902</v>
+      </c>
+      <c r="E274" t="s">
         <v>907</v>
-      </c>
-      <c r="E274" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
+        <v>903</v>
+      </c>
+      <c r="E275" t="s">
         <v>908</v>
-      </c>
-      <c r="E275" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="E276" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="E277" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E278" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="28.8">
       <c r="A279" t="s">
-        <v>917</v>
+        <v>912</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C279" t="s">
+        <v>24</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1079</v>
       </c>
       <c r="E279" t="s">
-        <v>926</v>
+        <v>1080</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E280" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>919</v>
+        <v>914</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C281" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1074</v>
       </c>
       <c r="E281" t="s">
-        <v>928</v>
+        <v>1077</v>
+      </c>
+      <c r="F281" s="36" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G281" s="6" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="E282" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="E283" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="E284" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="E285" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="28.8">
       <c r="A286" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="E286" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="E287" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="E288" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="D289" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="E289" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="129.6">
       <c r="A290" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E290" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="G290" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="57.6">
       <c r="A291" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E292" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="G292" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="409.6">
       <c r="A293" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D293" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="E294" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="E295" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="E296" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="E297" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E298" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="E299" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="E300" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>961</v>
+        <v>955</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C301" t="s">
+        <v>9</v>
       </c>
       <c r="E301" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="E302" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
+        <v>966</v>
+      </c>
+      <c r="E303" t="s">
         <v>972</v>
-      </c>
-      <c r="E303" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
+        <v>967</v>
+      </c>
+      <c r="E304" t="s">
         <v>973</v>
-      </c>
-      <c r="E304" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
+        <v>968</v>
+      </c>
+      <c r="E305" t="s">
         <v>974</v>
-      </c>
-      <c r="E305" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
+        <v>969</v>
+      </c>
+      <c r="E306" t="s">
         <v>975</v>
-      </c>
-      <c r="E306" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
+        <v>970</v>
+      </c>
+      <c r="E307" t="s">
         <v>976</v>
       </c>
-      <c r="E307" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+    </row>
+    <row r="308" spans="1:7" ht="26.4">
       <c r="A308" t="s">
-        <v>977</v>
+        <v>971</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C308" t="s">
+        <v>24</v>
       </c>
       <c r="E308" t="s">
-        <v>983</v>
+        <v>1084</v>
+      </c>
+      <c r="G308" s="6" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="E309" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="57.6">
       <c r="A310" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="E310" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="E311" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>987</v>
+        <v>980</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C312" t="s">
+        <v>24</v>
       </c>
       <c r="E312" t="s">
-        <v>1002</v>
+        <v>995</v>
+      </c>
+      <c r="F312" s="33" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="E313" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="E314" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="E315" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="E316" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="28.8">
       <c r="A317" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="E317" s="31" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="28.8">
       <c r="A318" t="s">
+        <v>984</v>
+      </c>
+      <c r="E318" t="s">
         <v>991</v>
       </c>
-      <c r="E318" t="s">
-        <v>998</v>
-      </c>
       <c r="G318" s="3" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
+        <v>985</v>
+      </c>
+      <c r="E319" t="s">
         <v>992</v>
-      </c>
-      <c r="E319" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="E320" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="G320" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="E321" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G321" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="E322" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="E323" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="E324" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="E325" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="G325" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="86.4">
       <c r="A326" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E326" s="31" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G326" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="E326" s="31" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G326" s="3" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" ht="39.6">
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D327" s="6" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="E327" t="s">
-        <v>1037</v>
+        <v>1030</v>
+      </c>
+      <c r="F327" s="6" t="s">
+        <v>1031</v>
       </c>
       <c r="G327" s="6" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D328" s="32" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F328" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G328" s="6" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="34" t="s">
         <v>1041</v>
       </c>
-      <c r="E328" s="5" t="s">
+      <c r="E329" s="5" t="s">
         <v>1042</v>
       </c>
-      <c r="G328" s="6" t="s">
+      <c r="G329" t="s">
         <v>1043</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C330" t="s">
+        <v>9</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C331" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F331" s="33" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C332" t="s">
+        <v>24</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F332" s="33" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1072</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED14381-A4FD-4786-B67A-37A8618E3DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFED032F-CA91-4057-AD89-E719449576D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="0" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1177">
   <si>
     <t>Word</t>
   </si>
@@ -3024,9 +3024,6 @@
     <t>sử dụng hết các sản phẩm chăm sóc da hiện có</t>
   </si>
   <si>
-    <t>tôi đã phát hiện ra một số sản phẩm mà tôi không biết là mình có</t>
-  </si>
-  <si>
     <t>mẩu dầu gội đầu</t>
   </si>
   <si>
@@ -3388,9 +3385,6 @@
     <t>kẻ biến hình</t>
   </si>
   <si>
-    <t>cản trở</t>
-  </si>
-  <si>
     <t>hai tuần</t>
   </si>
   <si>
@@ -3407,9 +3401,6 @@
   </si>
   <si>
     <t xml:space="preserve">coleslaw </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sucess in longevity hinge on taste </t>
   </si>
   <si>
     <t>thịt gà mềm</t>
@@ -4097,12 +4088,354 @@
     <t>Two soldiers were killed in a terrorist ambush.
 They were lying in ambush, waiting for the aid convoy.</t>
   </si>
+  <si>
+    <t>overrated</t>
+  </si>
+  <si>
+    <t>controversial</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obnoxious </t>
+  </si>
+  <si>
+    <t xml:space="preserve">come off </t>
+  </si>
+  <si>
+    <t>venture</t>
+  </si>
+  <si>
+    <t>flaw</t>
+  </si>
+  <si>
+    <t>master of the ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">novice (formal) = newbie (casual) = beginner </t>
+  </si>
+  <si>
+    <t>take hold &lt;&gt; engulf</t>
+  </si>
+  <si>
+    <t>được đánh giá quá cao</t>
+  </si>
+  <si>
+    <t>gây tranh cãi</t>
+  </si>
+  <si>
+    <t>nhận xét</t>
+  </si>
+  <si>
+    <t>khuyết điểm</t>
+  </si>
+  <si>
+    <t>người điều khiển võ đài</t>
+  </si>
+  <si>
+    <t>"Take hold": "The new idea took hold in the community, gradually gaining acceptance."
+(Focus on the beginning or gradual establishment.)
+"Engulf": "The tsunami engulfed the coastal village."
+(Focus on complete and overwhelming coverage.)</t>
+  </si>
+  <si>
+    <t>In summary, "take hold" emphasizes starting or gaining influence, while "engulf" emphasizes complete envelopment or overwhelming action., nắm lấy &lt;&gt; nhấn chìm</t>
+  </si>
+  <si>
+    <t>both mean "beginner," but "newbie" is more casual, while "novice" is more formal</t>
+  </si>
+  <si>
+    <t>controversial remark</t>
+  </si>
+  <si>
+    <t>extremely unpleasant, especially in a way that offends people</t>
+  </si>
+  <si>
+    <t>/əbˈnɒkʃəs/</t>
+  </si>
+  <si>
+    <t>to be able to be removed// to take place; to happen</t>
+  </si>
+  <si>
+    <t>Does this hood come off? // Did the trip to Rome ever come off?</t>
+  </si>
+  <si>
+    <t>/ˈventʃə(r)/</t>
+  </si>
+  <si>
+    <t>a business project or activity, especially one that involves taking risks</t>
+  </si>
+  <si>
+    <t>A disastrous business venture lost him thousands of dollars.</t>
+  </si>
+  <si>
+    <t>/ˈdɪsɪpeɪt/</t>
+  </si>
+  <si>
+    <t>dig up</t>
+  </si>
+  <si>
+    <t>dig something  up</t>
+  </si>
+  <si>
+    <t>tôi đã phát hiện ra một số sản phẩm mà tôi không biết là mình có, uearth: to find or discover something by chance or after searching for it</t>
+  </si>
+  <si>
+    <t>I unearthed my old diaries when we moved house.
+to unearth buried treasures</t>
+  </si>
+  <si>
+    <t>sucess in longevity hinge on taste /hinge: bản lề (n)</t>
+  </si>
+  <si>
+    <t>breach</t>
+  </si>
+  <si>
+    <t>sự vi phạm</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>/briːtʃ/</t>
+  </si>
+  <si>
+    <t>/ˈhɪndrəns/</t>
+  </si>
+  <si>
+    <t>idiom: without let or hindrance (without being prevented from doing something; freely) //
+hindrance to something/somebody</t>
+  </si>
+  <si>
+    <t>New regulations will allow residents to travel between member states without let or hindrance. //
+The high price is a major hindrance to potential buyers.</t>
+  </si>
+  <si>
+    <t>a person or thing that makes it more difficult for somebody to do something or for something to happen</t>
+  </si>
+  <si>
+    <t>decompress</t>
+  </si>
+  <si>
+    <t>to have the air pressure in something reduced to a normal level or to reduce it to its normal level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I need time to decompress after talking with other people </t>
+  </si>
+  <si>
+    <t>congestion</t>
+  </si>
+  <si>
+    <r>
+      <t>If there is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF1D2129"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>congestion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1D2129"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> in a place, the place is extremely crowded and blocked with traffic or people. </t>
+    </r>
+  </si>
+  <si>
+    <t>/kənˈdʒestʃən/</t>
+  </si>
+  <si>
+    <t>traffic congesion</t>
+  </si>
+  <si>
+    <t>insult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intrapersonal </t>
+  </si>
+  <si>
+    <t>interpersonal</t>
+  </si>
+  <si>
+    <t>endure = bear</t>
+  </si>
+  <si>
+    <t>embody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aspire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shortcoming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">double edged sword </t>
+  </si>
+  <si>
+    <t>bodily kinesthetic</t>
+  </si>
+  <si>
+    <t>sự xúc phạm</t>
+  </si>
+  <si>
+    <t>nội tâm</t>
+  </si>
+  <si>
+    <t>giữa các cá nhân</t>
+  </si>
+  <si>
+    <t>chịu đựng = chịu đựng</t>
+  </si>
+  <si>
+    <t>thể hiện</t>
+  </si>
+  <si>
+    <t>khát vọng</t>
+  </si>
+  <si>
+    <t>con dao hai lưỡi</t>
+  </si>
+  <si>
+    <t>cơ thể vận động</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ward off anxiety and feelings of depression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">worse cognitive function </t>
+  </si>
+  <si>
+    <t>alive is the biggest privilege</t>
+  </si>
+  <si>
+    <t>democratized information</t>
+  </si>
+  <si>
+    <t>tránh khỏi sự lo lắng và cảm giác chán nản</t>
+  </si>
+  <si>
+    <t>chức năng nhận thức kém hơn</t>
+  </si>
+  <si>
+    <t>sống là đặc quyền lớn nhất</t>
+  </si>
+  <si>
+    <t>thông tin dân chủ hóa</t>
+  </si>
+  <si>
+    <t>stumble upon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediocre life </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bashing other people </t>
+  </si>
+  <si>
+    <t xml:space="preserve">depress </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulling an all nighter </t>
+  </si>
+  <si>
+    <t>cuộc sống tầm thường</t>
+  </si>
+  <si>
+    <t>chỉ trích người khác</t>
+  </si>
+  <si>
+    <t>trầm cảm</t>
+  </si>
+  <si>
+    <t>thức trắng đêm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tình cờ gặp được </t>
+  </si>
+  <si>
+    <t>I stumbled upon my first productive video on YouTube</t>
+  </si>
+  <si>
+    <t>mediocrity</t>
+  </si>
+  <si>
+    <t>/ˌmiːdiˈɒkrəti/</t>
+  </si>
+  <si>
+    <t>His acting career started brilliantly, then sank into mediocrity.</t>
+  </si>
+  <si>
+    <t>the fact of being average or not very good; a person who is not very good at something</t>
+  </si>
+  <si>
+    <t>/ɪmˈbɒdi/</t>
+  </si>
+  <si>
+    <t>insomnia</t>
+  </si>
+  <si>
+    <t>/ɪnˈsɒmniə/</t>
+  </si>
+  <si>
+    <r>
+      <t>Shallow work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> refers to tasks that are relatively low in cognitive demand and can be performed while distracted. These tasks often do not create significant value or help you progress toward your most important goals. The term was popularized by Cal Newport in his book </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deep Work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, where he contrasts it with "deep work," which involves focused, high-value tasks.</t>
+    </r>
+  </si>
+  <si>
+    <t>shallow work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some more footage of me </t>
+  </si>
+  <si>
+    <t>một số cảnh quay khác về tôi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4322,6 +4655,40 @@
       <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF1D2129"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4365,7 +4732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4419,6 +4786,12 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4722,11 +5095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G334"/>
+  <dimension ref="A1:G369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G301" sqref="G301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E375" sqref="E375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5792,7 +6165,7 @@
         <v>268</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -5939,7 +6312,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.6">
@@ -6282,6 +6655,12 @@
       <c r="A90" t="s">
         <v>389</v>
       </c>
+      <c r="B90" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
       <c r="E90" t="s">
         <v>390</v>
       </c>
@@ -6640,7 +7019,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B123" t="s">
         <v>500</v>
@@ -6723,10 +7102,10 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B130" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C130" t="s">
         <v>34</v>
@@ -6746,7 +7125,7 @@
         <v>493</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C131" t="s">
         <v>34</v>
@@ -6783,7 +7162,7 @@
         <v>513</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C133" t="s">
         <v>409</v>
@@ -7702,13 +8081,13 @@
         <v>34</v>
       </c>
       <c r="D195" s="35" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E195" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -7895,7 +8274,7 @@
     </row>
     <row r="212" spans="1:7" ht="43.2">
       <c r="A212" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>782</v>
@@ -7977,12 +8356,21 @@
         <v>804</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" ht="26.4">
       <c r="A221" t="s">
         <v>793</v>
       </c>
+      <c r="D221" s="37" t="s">
+        <v>1110</v>
+      </c>
       <c r="E221" t="s">
-        <v>805</v>
+        <v>1112</v>
+      </c>
+      <c r="F221" s="38" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7990,7 +8378,7 @@
         <v>794</v>
       </c>
       <c r="E222" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7998,7 +8386,7 @@
         <v>795</v>
       </c>
       <c r="E223" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -8006,842 +8394,854 @@
         <v>796</v>
       </c>
       <c r="E224" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E225" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E226" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E227" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E228" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E229" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E230" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E231" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D232" s="33" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E232" t="s">
+        <v>832</v>
+      </c>
+      <c r="G232" s="6" t="s">
         <v>1052</v>
-      </c>
-      <c r="C232" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D232" s="33" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E232" t="s">
-        <v>833</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E233" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E234" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E235" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G236" s="6" t="s">
         <v>1047</v>
-      </c>
-      <c r="D236" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E236" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G236" s="6" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E237" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E238" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E239" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E240" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E241" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E242" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E243" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
+        <v>845</v>
+      </c>
+      <c r="E245" t="s">
         <v>846</v>
-      </c>
-      <c r="E245" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E247" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E248" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="E249" t="s">
         <v>884</v>
       </c>
-      <c r="E249" t="s">
+      <c r="G249" s="6" t="s">
         <v>885</v>
-      </c>
-      <c r="G249" s="6" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E250" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E251" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E252" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E253" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E254" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E255" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E256" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E257" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E258" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E259" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E260" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E261" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E262" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E263" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E264" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E265" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E266" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E267" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E268" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E269" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E270" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E271" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E272" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E273" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E274" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E275" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E276" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E277" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E278" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="28.8">
       <c r="A279" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C279" t="s">
         <v>24</v>
       </c>
       <c r="D279" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E279" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E280" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C281" t="s">
         <v>9</v>
       </c>
       <c r="D281" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E281" t="s">
         <v>1074</v>
       </c>
-      <c r="E281" t="s">
-        <v>1077</v>
-      </c>
       <c r="F281" s="36" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="G281" s="6" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="28.2">
       <c r="A282" t="s">
-        <v>915</v>
-      </c>
-      <c r="E282" t="s">
-        <v>922</v>
+        <v>914</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C282" t="s">
+        <v>9</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F282" s="39" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G282" s="6" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E283" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E284" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E285" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="28.8">
       <c r="A286" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E286" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E287" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E288" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>929</v>
+        <v>1114</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D289" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E289" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="129.6">
       <c r="A290" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E290" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G290" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="57.6">
       <c r="A291" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E292" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="G292" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="409.6">
       <c r="A293" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D293" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E294" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E295" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E296" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E297" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E298" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E299" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E300" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C301" t="s">
         <v>9</v>
       </c>
       <c r="E301" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E302" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E303" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E304" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E305" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E306" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E307" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="26.4">
       <c r="A308" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C308" t="s">
         <v>24</v>
       </c>
       <c r="E308" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E309" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="57.6">
       <c r="A310" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E310" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E311" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C312" t="s">
         <v>24</v>
       </c>
       <c r="E312" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F312" s="33" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E313" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E314" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E315" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E316" t="s">
         <v>779</v>
@@ -8849,209 +9249,570 @@
     </row>
     <row r="317" spans="1:7" ht="28.8">
       <c r="A317" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E317" s="31" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="28.8">
       <c r="A318" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E318" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E319" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E320" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="G320" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E321" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G321" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E322" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E323" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E324" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E325" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G325" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="86.4">
       <c r="A326" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E326" s="31" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F327" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="G327" s="6" t="s">
         <v>1029</v>
-      </c>
-      <c r="E327" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F327" s="6" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G327" s="6" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F328" s="32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G328" s="6" t="s">
         <v>1033</v>
-      </c>
-      <c r="E328" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F328" s="32" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G328" s="6" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="34" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="G329" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="330" spans="1:7">
       <c r="A330" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C330" t="s">
         <v>9</v>
       </c>
       <c r="E330" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C331" t="s">
         <v>9</v>
       </c>
       <c r="E331" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="F331" s="33" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C332" t="s">
         <v>24</v>
       </c>
       <c r="D332" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E332" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="F332" s="33" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E333" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E334" t="s">
-        <v>1072</v>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C335" t="s">
+        <v>34</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C336" t="s">
+        <v>34</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C337" t="s">
+        <v>9</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C338" t="s">
+        <v>34</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C339" t="s">
+        <v>24</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G339" s="6" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C340" t="s">
+        <v>9</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G340" s="6" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" ht="72">
+      <c r="A344" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C346" t="s">
+        <v>24</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G346" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B347" s="40" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C347" t="s">
+        <v>9</v>
+      </c>
+      <c r="E347" s="40" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D352" t="s">
+        <v>24</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E355" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E356" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E357" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E358" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E359" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E360" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G361" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D362" t="s">
+        <v>34</v>
+      </c>
+      <c r="E362" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D363" t="s">
+        <v>9</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G363" s="6" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E364" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E365" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E366" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E368" s="31" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E369" t="s">
+        <v>1176</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFED032F-CA91-4057-AD89-E719449576D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEA0689-3AB0-46DD-90DA-FA8448F71DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="0" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="1265">
   <si>
     <t>Word</t>
   </si>
@@ -4429,6 +4429,270 @@
   </si>
   <si>
     <t>một số cảnh quay khác về tôi</t>
+  </si>
+  <si>
+    <t>finite</t>
+  </si>
+  <si>
+    <t>/ˈfaɪnaɪt/</t>
+  </si>
+  <si>
+    <t>having a definite limit or fixed size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">op: infinite </t>
+  </si>
+  <si>
+    <t>the world's resource is finite</t>
+  </si>
+  <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>kỷ luật, ngành học// rèn luyện, trừng phạt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tweak </t>
+  </si>
+  <si>
+    <t>/twiːk/</t>
+  </si>
+  <si>
+    <t>to make slight changes to a machine, system, etc. to improve it</t>
+  </si>
+  <si>
+    <t>adjust</t>
+  </si>
+  <si>
+    <t>I think you'll have to tweak these figures a little before you show them to the boss.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuel that change </t>
+  </si>
+  <si>
+    <t>thúc đẩy sự thay đổi</t>
+  </si>
+  <si>
+    <t>sanity</t>
+  </si>
+  <si>
+    <t>sự tính táo</t>
+  </si>
+  <si>
+    <t>stackle</t>
+  </si>
+  <si>
+    <t>giải quyết</t>
+  </si>
+  <si>
+    <t>trying to juggle fitness</t>
+  </si>
+  <si>
+    <t>cố gắng cân bằng giữa thể lực</t>
+  </si>
+  <si>
+    <t xml:space="preserve">side business </t>
+  </si>
+  <si>
+    <t>side hustle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remarkable </t>
+  </si>
+  <si>
+    <t>evasive</t>
+  </si>
+  <si>
+    <t>evasive excuses</t>
+  </si>
+  <si>
+    <t>flimsy corporate promises</t>
+  </si>
+  <si>
+    <t>communal fridge</t>
+  </si>
+  <si>
+    <t>absolve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genuinely </t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-apology </t>
+  </si>
+  <si>
+    <t>offense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrongdoing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconciliation </t>
+  </si>
+  <si>
+    <t>đáng chú ý</t>
+  </si>
+  <si>
+    <t>tránh né</t>
+  </si>
+  <si>
+    <t>lý do tránh né</t>
+  </si>
+  <si>
+    <t>lời hứa mỏng manh của công ty</t>
+  </si>
+  <si>
+    <t>tủ lạnh chung</t>
+  </si>
+  <si>
+    <t>giải oan</t>
+  </si>
+  <si>
+    <t>thật sự</t>
+  </si>
+  <si>
+    <t>không xin lỗi</t>
+  </si>
+  <si>
+    <t>tội lỗi</t>
+  </si>
+  <si>
+    <t>làm sai</t>
+  </si>
+  <si>
+    <t>hòa giải</t>
+  </si>
+  <si>
+    <t>how we can avoid choking when it really counts</t>
+  </si>
+  <si>
+    <t>performer extol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cue words </t>
+  </si>
+  <si>
+    <t>doing a rhythmic sequence of movements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water polo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">short ritual  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scratch pad </t>
+  </si>
+  <si>
+    <t>làm sao chúng ta có thể tránh bị nghẹn khi thực sự cần</t>
+  </si>
+  <si>
+    <t>người biểu diễn ca ngợi</t>
+  </si>
+  <si>
+    <t>lời nhắc</t>
+  </si>
+  <si>
+    <t>thực hiện một chuỗi chuyển động nhịp nhàng</t>
+  </si>
+  <si>
+    <t>bóng nước</t>
+  </si>
+  <si>
+    <t>nghi lễ ngắn</t>
+  </si>
+  <si>
+    <t>tờ giấy ghi chú</t>
+  </si>
+  <si>
+    <t>/ˈrɪðmɪk/</t>
+  </si>
+  <si>
+    <t>/ɪkˈstəʊl/</t>
+  </si>
+  <si>
+    <t>ultimate goal</t>
+  </si>
+  <si>
+    <t>mục tiêu cuối cùng</t>
+  </si>
+  <si>
+    <t>/ˈʌltɪmət/</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>practice, under pressure, with focus, and with that glorious end goal in sigh, make perfect.</t>
+  </si>
+  <si>
+    <t>Luyện tập dưới áp lực, với sự tập trung và luôn hướng tới mục tiêu cuối cùng tuyệt vời sẽ tạo nên sự hoàn hảo</t>
+  </si>
+  <si>
+    <t>choking under pressure</t>
+  </si>
+  <si>
+    <t>mất bình tĩnh hoặc thất bại trong việc thực hiện một nhiệm vụ khi chịu áp lực,</t>
+  </si>
+  <si>
+    <t>Despite months of preparation, she ended up choking under pressure during her final presentation and forgot her key points</t>
+  </si>
+  <si>
+    <t>external focus &lt;&gt; internal focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contestant in spelling bees </t>
+  </si>
+  <si>
+    <t>haunt public speaker</t>
+  </si>
+  <si>
+    <t>most people intuitively blame it on their nerves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why does being nerves undermine expert performance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">choking under pressure boils down to focus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the task at hand </t>
+  </si>
+  <si>
+    <t>something has to give</t>
+  </si>
+  <si>
+    <t xml:space="preserve">susceptible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hits chip shots </t>
+  </si>
+  <si>
+    <t>thí sinh trong cuộc thi đánh vần</t>
+  </si>
+  <si>
+    <t>ám ảnh diễn giả trước công chúng</t>
+  </si>
+  <si>
+    <t>hầu hết mọi người trực giác đổ lỗi cho sự lo lắng của họ</t>
+  </si>
+  <si>
+    <t>tại sao sự lo lắng lại làm giảm hiệu suất của chuyên gia</t>
+  </si>
+  <si>
+    <t>nghẹt thở dưới áp lực chỉ là sự tập trung</t>
+  </si>
+  <si>
+    <t>nhiệm vụ trong tầm tay</t>
+  </si>
+  <si>
+    <t>một cái gì đó phải cho</t>
+  </si>
+  <si>
+    <t>dễ bị</t>
+  </si>
+  <si>
+    <t>đánh những cú đánh chip</t>
   </si>
 </sst>
 </file>
@@ -5095,11 +5359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G369"/>
+  <dimension ref="A1:G408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E375" sqref="E375"/>
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E399" sqref="E399:E407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9743,7 +10007,7 @@
       <c r="A362" t="s">
         <v>1156</v>
       </c>
-      <c r="D362" t="s">
+      <c r="C362" t="s">
         <v>34</v>
       </c>
       <c r="E362" t="s">
@@ -9757,7 +10021,7 @@
       <c r="B363" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="D363" t="s">
+      <c r="C363" t="s">
         <v>9</v>
       </c>
       <c r="E363" s="5" t="s">
@@ -9807,12 +10071,357 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>1175</v>
       </c>
       <c r="E369" t="s">
         <v>1176</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G370" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C371" t="s">
+        <v>350</v>
+      </c>
+      <c r="E371" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G372" s="6" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E379" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E381" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E382" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E383" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E386" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E394" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E395" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E396" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G398" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E400" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>1255</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEA0689-3AB0-46DD-90DA-FA8448F71DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46251DB1-9D7F-4E8B-AF5E-42759A8ED333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="0" windowWidth="20760" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="0" windowWidth="20760" windowHeight="12504" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1544">
   <si>
     <t>Word</t>
   </si>
@@ -4693,6 +4693,843 @@
   </si>
   <si>
     <t>đánh những cú đánh chip</t>
+  </si>
+  <si>
+    <t>memories like these are consolidated and slotted into long-term storage in your brain's neocortex.</t>
+  </si>
+  <si>
+    <t>Những ký ức như thế này được củng cố và sắp xếp vào bộ nhớ dài hạn trong tân vỏ não của bạn.</t>
+  </si>
+  <si>
+    <t>microsleep</t>
+  </si>
+  <si>
+    <t>ngủ gật</t>
+  </si>
+  <si>
+    <t>haywire</t>
+  </si>
+  <si>
+    <t>rối loạn</t>
+  </si>
+  <si>
+    <t>nhịp sinh học</t>
+  </si>
+  <si>
+    <t>circadian rhythms</t>
+  </si>
+  <si>
+    <t> to repeat something you have heard or read without really thinking about it or understanding it</t>
+  </si>
+  <si>
+    <t>regurgitate</t>
+  </si>
+  <si>
+    <t>/rɪˈɡɜːdʒɪteɪt/</t>
+  </si>
+  <si>
+    <t>/ˌdeprɪˈveɪʃn/</t>
+  </si>
+  <si>
+    <t>deprivation</t>
+  </si>
+  <si>
+    <t>jittery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consolidated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slotted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">microsleep </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coordination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">can take its toll </t>
+  </si>
+  <si>
+    <t>cyclical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amydala </t>
+  </si>
+  <si>
+    <t>prefrontal cortext</t>
+  </si>
+  <si>
+    <t>rage</t>
+  </si>
+  <si>
+    <t>bồn chồn</t>
+  </si>
+  <si>
+    <t>củng cố</t>
+  </si>
+  <si>
+    <t>có khe</t>
+  </si>
+  <si>
+    <t>ngủ ngắn</t>
+  </si>
+  <si>
+    <t>thiếu hụt</t>
+  </si>
+  <si>
+    <t>phối hợp</t>
+  </si>
+  <si>
+    <t>có thể gây hại</t>
+  </si>
+  <si>
+    <t>chu kỳ</t>
+  </si>
+  <si>
+    <t>hưng phấn</t>
+  </si>
+  <si>
+    <t>hạnh nhân</t>
+  </si>
+  <si>
+    <t>vỏ não trước trán</t>
+  </si>
+  <si>
+    <t>cơn thịnh nộ</t>
+  </si>
+  <si>
+    <t>intoxicated person, intoxicating eyes</t>
+  </si>
+  <si>
+    <t>say sưa, say đắm</t>
+  </si>
+  <si>
+    <t>intoxicated</t>
+  </si>
+  <si>
+    <t>infactuated</t>
+  </si>
+  <si>
+    <t>infatuated inviduals</t>
+  </si>
+  <si>
+    <t>euphoria/ euphoric</t>
+  </si>
+  <si>
+    <t>n/ a</t>
+  </si>
+  <si>
+    <t>rollercoaster</t>
+  </si>
+  <si>
+    <t>tàu lượn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gadget </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subtle </t>
+  </si>
+  <si>
+    <t>the message is subtle but powerful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i am content </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stuff cluttering our lives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">equilibrium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it halts purchasing cycle </t>
+  </si>
+  <si>
+    <t>possession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanks for tuning in </t>
+  </si>
+  <si>
+    <t>sidelines</t>
+  </si>
+  <si>
+    <t>dull</t>
+  </si>
+  <si>
+    <t>curated</t>
+  </si>
+  <si>
+    <t>their haul segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affiliate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we internalize the message </t>
+  </si>
+  <si>
+    <t>tiện ích</t>
+  </si>
+  <si>
+    <t>tinh tế</t>
+  </si>
+  <si>
+    <t>thông điệp tinh tế nhưng mạnh mẽ</t>
+  </si>
+  <si>
+    <t>tôi hài lòng</t>
+  </si>
+  <si>
+    <t>đồ đạc lộn xộn trong cuộc sống của chúng ta</t>
+  </si>
+  <si>
+    <t>cân bằng</t>
+  </si>
+  <si>
+    <t>nó dừng chu kỳ mua sắm</t>
+  </si>
+  <si>
+    <t>sở hữu</t>
+  </si>
+  <si>
+    <t>cảm ơn vì đã theo dõi</t>
+  </si>
+  <si>
+    <t>bên lề</t>
+  </si>
+  <si>
+    <t>buồn tẻ</t>
+  </si>
+  <si>
+    <t>được tuyển chọn</t>
+  </si>
+  <si>
+    <t>liên kết</t>
+  </si>
+  <si>
+    <t>chúng tôi tiếp thu thông điệp</t>
+  </si>
+  <si>
+    <t>phần nội dung họ giới thiệu những món đồ họ vừa mua</t>
+  </si>
+  <si>
+    <t>real psychological toll</t>
+  </si>
+  <si>
+    <t>fixated</t>
+  </si>
+  <si>
+    <t>it grounds us</t>
+  </si>
+  <si>
+    <t>regain</t>
+  </si>
+  <si>
+    <t>make current possession stale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">influencers employ aspirational imagery </t>
+  </si>
+  <si>
+    <t>endless acquisition</t>
+  </si>
+  <si>
+    <t>thiệt hại tâm lý thực sự</t>
+  </si>
+  <si>
+    <t>bị ám ảnh</t>
+  </si>
+  <si>
+    <t>nó khiến chúng ta phải đứng vững</t>
+  </si>
+  <si>
+    <t>lấy lại</t>
+  </si>
+  <si>
+    <t>làm cho tài sản hiện tại trở nên cũ kỹ</t>
+  </si>
+  <si>
+    <t>những người có ảnh hưởng sử dụng hình ảnh đầy tham vọng</t>
+  </si>
+  <si>
+    <t>sự tiếp thu vô tận.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">painstakingly </t>
+  </si>
+  <si>
+    <t>usher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interchangeable </t>
+  </si>
+  <si>
+    <t>gasket</t>
+  </si>
+  <si>
+    <t>hose</t>
+  </si>
+  <si>
+    <t>sprang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swap </t>
+  </si>
+  <si>
+    <t>authenticate</t>
+  </si>
+  <si>
+    <t>liken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoddy repair </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scrutinize </t>
+  </si>
+  <si>
+    <t>communitiy-led movements have also take root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinvigorating </t>
+  </si>
+  <si>
+    <t>invigorating</t>
+  </si>
+  <si>
+    <t>toss</t>
+  </si>
+  <si>
+    <t>lathe</t>
+  </si>
+  <si>
+    <t>if at all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeopardizing crop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsolescence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">part pairing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">broke open </t>
+  </si>
+  <si>
+    <t>busted</t>
+  </si>
+  <si>
+    <t>bolt</t>
+  </si>
+  <si>
+    <t>nut</t>
+  </si>
+  <si>
+    <t>cẩn thận</t>
+  </si>
+  <si>
+    <t>mở</t>
+  </si>
+  <si>
+    <t>có thể hoán đổi</t>
+  </si>
+  <si>
+    <t>gioăng</t>
+  </si>
+  <si>
+    <t>ống</t>
+  </si>
+  <si>
+    <t>bật</t>
+  </si>
+  <si>
+    <t>hoán đổi</t>
+  </si>
+  <si>
+    <t>xác thực</t>
+  </si>
+  <si>
+    <t>giống như</t>
+  </si>
+  <si>
+    <t>sửa chữa sơ sài</t>
+  </si>
+  <si>
+    <t>xem xét kỹ lưỡng</t>
+  </si>
+  <si>
+    <t>các phong trào do cộng đồng lãnh đạo cũng đã bén rễ</t>
+  </si>
+  <si>
+    <t>làm mới</t>
+  </si>
+  <si>
+    <t>ném</t>
+  </si>
+  <si>
+    <t>máy tiện</t>
+  </si>
+  <si>
+    <t>nếu có</t>
+  </si>
+  <si>
+    <t>gây nguy hiểm cho mùa màng</t>
+  </si>
+  <si>
+    <t>lỗi thời</t>
+  </si>
+  <si>
+    <t>ghép nối bộ phận</t>
+  </si>
+  <si>
+    <t>bị vỡ</t>
+  </si>
+  <si>
+    <t>bu lông</t>
+  </si>
+  <si>
+    <t>đai ốc</t>
+  </si>
+  <si>
+    <t>compile</t>
+  </si>
+  <si>
+    <t>biên soạn</t>
+  </si>
+  <si>
+    <t>/kəmˈpaɪl/</t>
+  </si>
+  <si>
+    <t>predetermined end-of-life dates</t>
+  </si>
+  <si>
+    <t>ngày hết hạn sử dụng được xác định trước</t>
+  </si>
+  <si>
+    <t>companies pose two main arguments in defense of these practice</t>
+  </si>
+  <si>
+    <t>Nhưng các công ty đưa ra hai lập luận chính để bảo vệ cho những hoạt động này.</t>
+  </si>
+  <si>
+    <t>precious time and money</t>
+  </si>
+  <si>
+    <t>liable</t>
+  </si>
+  <si>
+    <t>part pairing</t>
+  </si>
+  <si>
+    <t>thời gian và tiền bạc quý báu</t>
+  </si>
+  <si>
+    <t>ngày kết thúc vòng đời được xác định trước</t>
+  </si>
+  <si>
+    <t>có trách nhiệm</t>
+  </si>
+  <si>
+    <t>ghép nối một phần</t>
+  </si>
+  <si>
+    <t>precise</t>
+  </si>
+  <si>
+    <t>chính xác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stowaway </t>
+  </si>
+  <si>
+    <t xml:space="preserve">notoriety </t>
+  </si>
+  <si>
+    <t xml:space="preserve">treading water </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outcompete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">makeshift </t>
+  </si>
+  <si>
+    <t>a swarm of rat</t>
+  </si>
+  <si>
+    <t>chinese zodiac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biological badge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ascrible </t>
+  </si>
+  <si>
+    <t>coat color</t>
+  </si>
+  <si>
+    <t>a horde of rat</t>
+  </si>
+  <si>
+    <t>dismay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterminator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monumental </t>
+  </si>
+  <si>
+    <t>rats are unrivaled lab animals</t>
+  </si>
+  <si>
+    <t>invasive species</t>
+  </si>
+  <si>
+    <t>kẻ trốn vé</t>
+  </si>
+  <si>
+    <t>tai tiếng</t>
+  </si>
+  <si>
+    <t>nhiều người đổ lỗi cho chuột</t>
+  </si>
+  <si>
+    <t>đạp nước</t>
+  </si>
+  <si>
+    <t>cạnh tranh</t>
+  </si>
+  <si>
+    <t>tạm bợ</t>
+  </si>
+  <si>
+    <t>một đàn chuột</t>
+  </si>
+  <si>
+    <t>con giáp Trung Quốc</t>
+  </si>
+  <si>
+    <t>huy hiệu sinh học</t>
+  </si>
+  <si>
+    <t>có thể ghi chép</t>
+  </si>
+  <si>
+    <t>màu lông</t>
+  </si>
+  <si>
+    <t>thất vọng</t>
+  </si>
+  <si>
+    <t>kẻ diệt trừ</t>
+  </si>
+  <si>
+    <t>tượng đài</t>
+  </si>
+  <si>
+    <t>chuột là loài động vật thí nghiệm vô song</t>
+  </si>
+  <si>
+    <t>loài xâm lấn</t>
+  </si>
+  <si>
+    <t>many lay the blame on rats</t>
+  </si>
+  <si>
+    <t>they often live at the mercy of human priorities</t>
+  </si>
+  <si>
+    <t>"Họ thường sống dưới sự chi phối của các ưu tiên của con người.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is just one of many junctures </t>
+  </si>
+  <si>
+    <t>beyond pilfering</t>
+  </si>
+  <si>
+    <t>to breed</t>
+  </si>
+  <si>
+    <t>captivated crowd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hundred of vermin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scurried onto the sence </t>
+  </si>
+  <si>
+    <t>bolster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dismay of exterminator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monumental turn </t>
+  </si>
+  <si>
+    <t>adorned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leather sash </t>
+  </si>
+  <si>
+    <t>had risen to fame</t>
+  </si>
+  <si>
+    <t>authorized rat catcher</t>
+  </si>
+  <si>
+    <t>between tricks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">craftily survived </t>
+  </si>
+  <si>
+    <t>tag along</t>
+  </si>
+  <si>
+    <t>venture out</t>
+  </si>
+  <si>
+    <t>to influx into</t>
+  </si>
+  <si>
+    <t>fueled their ancient spiritual reverence of cats</t>
+  </si>
+  <si>
+    <t>brown rats had not yet set foot in Europe.</t>
+  </si>
+  <si>
+    <t>outcompete</t>
+  </si>
+  <si>
+    <t>reviled</t>
+  </si>
+  <si>
+    <t>to warrant</t>
+  </si>
+  <si>
+    <t>rid us of our rodent shadow</t>
+  </si>
+  <si>
+    <t>đây chỉ là một trong nhiều ngã ba</t>
+  </si>
+  <si>
+    <t>ngoài việc ăn cắp vặt</t>
+  </si>
+  <si>
+    <t>để sinh sản</t>
+  </si>
+  <si>
+    <t>đám đông bị mê hoặc</t>
+  </si>
+  <si>
+    <t>hàng trăm loài gây hại</t>
+  </si>
+  <si>
+    <t>chạy vội đến chỗ</t>
+  </si>
+  <si>
+    <t>ủng hộ</t>
+  </si>
+  <si>
+    <t>sự kinh hoàng của kẻ diệt côn trùng</t>
+  </si>
+  <si>
+    <t>lượt quay hoành tráng</t>
+  </si>
+  <si>
+    <t>được trang trí</t>
+  </si>
+  <si>
+    <t>dây thắt lưng bằng da</t>
+  </si>
+  <si>
+    <t>đã trở nên nổi tiếng</t>
+  </si>
+  <si>
+    <t>người bắt chuột được ủy quyền</t>
+  </si>
+  <si>
+    <t>giữa các mánh khóe</t>
+  </si>
+  <si>
+    <t>khéo léo sống sót</t>
+  </si>
+  <si>
+    <t>đi theo</t>
+  </si>
+  <si>
+    <t>mạo hiểm ra ngoài</t>
+  </si>
+  <si>
+    <t>để tràn vào</t>
+  </si>
+  <si>
+    <t>thúc đẩy sự tôn kính tâm linh cổ xưa của chúng đối với loài mèo</t>
+  </si>
+  <si>
+    <t>chuột nâu vẫn chưa đặt chân đến châu Âu.</t>
+  </si>
+  <si>
+    <t>bị mắng nhiếc</t>
+  </si>
+  <si>
+    <t>để đảm bảo</t>
+  </si>
+  <si>
+    <t>giải thoát chúng ta khỏi cái bóng loài gặm nhấm</t>
+  </si>
+  <si>
+    <t>brown and black rats are generalists</t>
+  </si>
+  <si>
+    <t>Chuột nâu và chuột đen là loài sống đa dạng (không chuyên biệt)."</t>
+  </si>
+  <si>
+    <t>a biological badge ascribed to specices who can brave diverse climate and diets</t>
+  </si>
+  <si>
+    <t>Một dấu ấn sinh học được gán cho các loài có thể đối mặt với khí hậu và chế độ ăn uống đa dạng.</t>
+  </si>
+  <si>
+    <t>plague</t>
+  </si>
+  <si>
+    <t>bệnh dịch hạch</t>
+  </si>
+  <si>
+    <t>/pleɪɡ/</t>
+  </si>
+  <si>
+    <t>all i'd done on the surface was sit down silently</t>
+  </si>
+  <si>
+    <t>"Tất cả những gì tôi làm bề ngoài chỉ là ngồi xuống một cách im lặng."</t>
+  </si>
+  <si>
+    <t>feel free to skip ahead to the bits that …</t>
+  </si>
+  <si>
+    <t>Hãy thoải mái bỏ qua và chuyển thẳng đến những phần..."</t>
+  </si>
+  <si>
+    <t>our brain's wiring</t>
+  </si>
+  <si>
+    <t>Cách bộ não của chúng ta được kết nối</t>
+  </si>
+  <si>
+    <t>blank slate</t>
+  </si>
+  <si>
+    <t>tờ giấy trắng</t>
+  </si>
+  <si>
+    <t>về mặt kỹ năng</t>
+  </si>
+  <si>
+    <t>in terms of skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mental agility </t>
+  </si>
+  <si>
+    <t>harnessing</t>
+  </si>
+  <si>
+    <t>resilient to stress</t>
+  </si>
+  <si>
+    <t>several trains of thought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equanimity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evenness of mind </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mental composure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">undisturbed </t>
+  </si>
+  <si>
+    <t>external experiences and sensation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">striving </t>
+  </si>
+  <si>
+    <t>sự nhanh nhẹn về mặt tinh thần</t>
+  </si>
+  <si>
+    <t>khai thác</t>
+  </si>
+  <si>
+    <t>chống chọi với căng thẳng</t>
+  </si>
+  <si>
+    <t>nhiều luồng suy nghĩ</t>
+  </si>
+  <si>
+    <t>bình tĩnh</t>
+  </si>
+  <si>
+    <t>tâm trí cân bằng</t>
+  </si>
+  <si>
+    <t>bình tĩnh về mặt tinh thần</t>
+  </si>
+  <si>
+    <t>không bị quấy rầy</t>
+  </si>
+  <si>
+    <t>trải nghiệm và cảm giác bên ngoài</t>
+  </si>
+  <si>
+    <t>phấn đấu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emotional tank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">running off thinking </t>
+  </si>
+  <si>
+    <t>carry off</t>
+  </si>
+  <si>
+    <t>spending literally just 5 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peaceful retreat </t>
+  </si>
+  <si>
+    <t>bể chứa cảm xúc</t>
+  </si>
+  <si>
+    <t>chạy trốn suy nghĩ</t>
+  </si>
+  <si>
+    <t>mang đi</t>
+  </si>
+  <si>
+    <t>chỉ dành đúng 5 phút</t>
+  </si>
+  <si>
+    <t>nơi ẩn dật yên bình</t>
   </si>
 </sst>
 </file>
@@ -5359,11 +6196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G408"/>
+  <dimension ref="A1:G549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E399" sqref="E399:E407"/>
+      <pane ySplit="1" topLeftCell="A531" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E545" sqref="E545:E549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10351,16 +11188,13 @@
       <c r="A399" t="s">
         <v>1246</v>
       </c>
-      <c r="E399" t="s">
-        <v>1256</v>
-      </c>
     </row>
     <row r="400" spans="1:7">
       <c r="A400" t="s">
         <v>1247</v>
       </c>
       <c r="E400" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10368,7 +11202,7 @@
         <v>1248</v>
       </c>
       <c r="E401" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10376,7 +11210,7 @@
         <v>1249</v>
       </c>
       <c r="E402" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10384,7 +11218,7 @@
         <v>1250</v>
       </c>
       <c r="E403" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10392,7 +11226,7 @@
         <v>1251</v>
       </c>
       <c r="E404" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10400,7 +11234,7 @@
         <v>1252</v>
       </c>
       <c r="E405" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10408,7 +11242,7 @@
         <v>1253</v>
       </c>
       <c r="E406" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10416,12 +11250,1158 @@
         <v>1254</v>
       </c>
       <c r="E407" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" t="s">
         <v>1255</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E413" s="5" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F428" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E447" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E448" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E453" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E461" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E462" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E463" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E464" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E465" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E466" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E467" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E468" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E469" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E470" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E471" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E472" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E473" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E474" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E475" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E478" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E479" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E480" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E482" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E483" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E491" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E492" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E498" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E502" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E507" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E509" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E510" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E513" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E514" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E515" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E516" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E517" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E518" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E519" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E520" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E521" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E523" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E526" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E527" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E528" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E530" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E541" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E542" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E543" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E547" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1543</v>
       </c>
     </row>
   </sheetData>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46251DB1-9D7F-4E8B-AF5E-42759A8ED333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4301FD1B-3AC1-4AB3-8D04-E00694AFC93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="0" windowWidth="20760" windowHeight="12504" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1579">
   <si>
     <t>Word</t>
   </si>
@@ -5530,6 +5530,111 @@
   </si>
   <si>
     <t>nơi ẩn dật yên bình</t>
+  </si>
+  <si>
+    <t>machinery</t>
+  </si>
+  <si>
+    <t>headspace</t>
+  </si>
+  <si>
+    <t>consistency</t>
+  </si>
+  <si>
+    <t>ultimate tool</t>
+  </si>
+  <si>
+    <t>acceptance</t>
+  </si>
+  <si>
+    <t>máy móc</t>
+  </si>
+  <si>
+    <t>khoảng trống</t>
+  </si>
+  <si>
+    <t>tính nhất quán</t>
+  </si>
+  <si>
+    <t>công cụ tối thượng</t>
+  </si>
+  <si>
+    <t>sự chấp nhận</t>
+  </si>
+  <si>
+    <t>unwieldy</t>
+  </si>
+  <si>
+    <t>khó sử dụng</t>
+  </si>
+  <si>
+    <t>sử dụng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knowledge can come in clutch </t>
+  </si>
+  <si>
+    <t>Cụm từ này nhấn mạnh tầm quan trọng của việc có kiến thức, vì nó có thể giúp bạn giải quyết vấn đề khi cần thiết nhất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">water splashes </t>
+  </si>
+  <si>
+    <t>sức chứa</t>
+  </si>
+  <si>
+    <t>nước bắn tung tóe</t>
+  </si>
+  <si>
+    <t>unresponsive</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>insulating glass exterior</t>
+  </si>
+  <si>
+    <t>resistive and capacitive touchscreens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constantly transmitting </t>
+  </si>
+  <si>
+    <t>insulator</t>
+  </si>
+  <si>
+    <t>induce</t>
+  </si>
+  <si>
+    <t>conduct</t>
+  </si>
+  <si>
+    <t>không phản hồi</t>
+  </si>
+  <si>
+    <t>bền</t>
+  </si>
+  <si>
+    <t>lớp kính cách điện bên ngoài</t>
+  </si>
+  <si>
+    <t>màn hình cảm ứng điện trở và điện dung</t>
+  </si>
+  <si>
+    <t>liên tục truyền</t>
+  </si>
+  <si>
+    <t>chất cách điện</t>
+  </si>
+  <si>
+    <t>gây ra</t>
+  </si>
+  <si>
+    <t>dẫn</t>
   </si>
 </sst>
 </file>
@@ -6196,11 +6301,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G549"/>
+  <dimension ref="A1:G567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A531" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E545" sqref="E545:E549"/>
+      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B561" sqref="B561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12404,6 +12509,153 @@
         <v>1543</v>
       </c>
     </row>
+    <row r="550" spans="1:5">
+      <c r="A550" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E552" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E553" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E554" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E555" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="A556" t="s">
+        <v>427</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E556" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="A557" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E557" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E558" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E559" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E560" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E561" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E562" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E563" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E564" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E565" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E566" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E567" t="s">
+        <v>1578</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D77" r:id="rId1" tooltip="meaning of splash out (something)" display="https://dictionary.cambridge.org/dictionary/english/splash-out" xr:uid="{9B2475DC-788B-4BD8-81E7-4EAD67015E7D}"/>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4301FD1B-3AC1-4AB3-8D04-E00694AFC93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC54FEF-0835-4558-984D-5A2A07AFB61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="0" windowWidth="20760" windowHeight="12504" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="1688">
   <si>
     <t>Word</t>
   </si>
@@ -5635,6 +5635,356 @@
   </si>
   <si>
     <t>dẫn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the application deadline looms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">why does motivation seem so fickle? </t>
+  </si>
+  <si>
+    <t>khi thời hạn nộp đơn đang đến gần</t>
+  </si>
+  <si>
+    <t>tại sao động lực lại có vẻ thất thường đến vậy?</t>
+  </si>
+  <si>
+    <t>alarm blares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mutter </t>
+  </si>
+  <si>
+    <t>stigmatize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mental instability </t>
+  </si>
+  <si>
+    <t>this outward self-talk</t>
+  </si>
+  <si>
+    <t>morph into</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collegiate tennis player </t>
+  </si>
+  <si>
+    <t>compassionate reflections</t>
+  </si>
+  <si>
+    <t>báo động rền rĩ</t>
+  </si>
+  <si>
+    <t>kỳ thị</t>
+  </si>
+  <si>
+    <t>bất ổn tinh thần</t>
+  </si>
+  <si>
+    <t>lời tự nói bên ngoài này</t>
+  </si>
+  <si>
+    <t>biến thành</t>
+  </si>
+  <si>
+    <t>cầu thủ quần vợt đại học</t>
+  </si>
+  <si>
+    <t>suy ngẫm đầy lòng trắc ẩn</t>
+  </si>
+  <si>
+    <t>corridor</t>
+  </si>
+  <si>
+    <t>hành lang</t>
+  </si>
+  <si>
+    <t>distanced self-talk</t>
+  </si>
+  <si>
+    <t>talk with yourself as if in conservation with another person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prolonged famine </t>
+  </si>
+  <si>
+    <t>nạn đói kéo dài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life expectancy </t>
+  </si>
+  <si>
+    <t>tuổi thọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it not means we are predestined to relive the emotions of our parents </t>
+  </si>
+  <si>
+    <t>Nó không có nghĩa là chúng ta được định sẵn để trải qua lại những cảm xúc của cha mẹ mình.</t>
+  </si>
+  <si>
+    <t>personal tragedy</t>
+  </si>
+  <si>
+    <t>rift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifelong pal </t>
+  </si>
+  <si>
+    <t>confidant</t>
+  </si>
+  <si>
+    <t>falter</t>
+  </si>
+  <si>
+    <t>steep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psych yourself up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acceptance prophecy </t>
+  </si>
+  <si>
+    <t>be well-liked</t>
+  </si>
+  <si>
+    <t>surefire</t>
+  </si>
+  <si>
+    <t>bi kịch cá nhân</t>
+  </si>
+  <si>
+    <t>rạn nứt</t>
+  </si>
+  <si>
+    <t>người bạn tri kỷ</t>
+  </si>
+  <si>
+    <t>người bạn tâm giao</t>
+  </si>
+  <si>
+    <t>chùng xuống</t>
+  </si>
+  <si>
+    <t>dốc</t>
+  </si>
+  <si>
+    <t>tự vực dậy</t>
+  </si>
+  <si>
+    <t>lời tiên tri chấp nhận</t>
+  </si>
+  <si>
+    <t>được yêu mến</t>
+  </si>
+  <si>
+    <t>chắc chắn</t>
+  </si>
+  <si>
+    <t>scientist dubbed this tendency to underestimate how much others enjoy our company as the "liking gap"</t>
+  </si>
+  <si>
+    <t>Các nhà khoa học đã đặt tên cho xu hướng đánh giá thấp mức độ người khác thích sự có mặt của chúng ta là "khoảng cách yêu thích" (liking gap).</t>
+  </si>
+  <si>
+    <t>you are far from alone</t>
+  </si>
+  <si>
+    <t>bạn không hề cô đơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closest relationship hits rough patches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">accusation </t>
+  </si>
+  <si>
+    <t>buddy</t>
+  </si>
+  <si>
+    <t>mối quan hệ gần gũi nhất gặp phải những giai đoạn khó khăn</t>
+  </si>
+  <si>
+    <t>chập chờn</t>
+  </si>
+  <si>
+    <t>cáo buộc</t>
+  </si>
+  <si>
+    <t>bạn thân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doomed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">incremental benchmark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">what's even the point </t>
+  </si>
+  <si>
+    <t xml:space="preserve">term paper </t>
+  </si>
+  <si>
+    <t>untether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feel untethered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it creates less daunting incremental benchmark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a survey of young people found that over half believe humanity is doomed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a unifying factor </t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>misguide</t>
+  </si>
+  <si>
+    <t>impenetrable issue</t>
+  </si>
+  <si>
+    <t>harness</t>
+  </si>
+  <si>
+    <t>outrage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longevity </t>
+  </si>
+  <si>
+    <t>bị diệt vong</t>
+  </si>
+  <si>
+    <t>điểm mấu chốt là gì</t>
+  </si>
+  <si>
+    <t>bài luận học kỳ</t>
+  </si>
+  <si>
+    <t>mang tính hoành tráng</t>
+  </si>
+  <si>
+    <t>không bị trói buộc</t>
+  </si>
+  <si>
+    <t>nó tạo ra chuẩn mực gia tăng ít đáng sợ hơn</t>
+  </si>
+  <si>
+    <t>một cuộc khảo sát những người trẻ tuổi cho thấy hơn một nửa tin rằng nhân loại sẽ bị diệt vong</t>
+  </si>
+  <si>
+    <t>một yếu tố thống nhất</t>
+  </si>
+  <si>
+    <t>sự tự tin</t>
+  </si>
+  <si>
+    <t>lừa dối</t>
+  </si>
+  <si>
+    <t>sự khai thác</t>
+  </si>
+  <si>
+    <t>sự phẫn nộ</t>
+  </si>
+  <si>
+    <t>Tiêu chuẩn đánh giá theo từng bước nhỏ, chuẩn mực đánh giá tăng dần</t>
+  </si>
+  <si>
+    <r>
+      <t>vấn đề không thể hiểu thấu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vấn đề khó giải quyết</t>
+    </r>
+  </si>
+  <si>
+    <t>Con đường chinh phục bất kỳ mục tiêu nào cũng dài và chắc chắn sẽ gặp điểm bế tắc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bound to = inevitable </t>
+  </si>
+  <si>
+    <t>lead them to disengage</t>
+  </si>
+  <si>
+    <t>dẫn đến việc họ rời bỏ hoặc mất hứng thú</t>
+  </si>
+  <si>
+    <t>cảm thấy không bị trói buộc, cảm thấy mất phương hướng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enormity </t>
+  </si>
+  <si>
+    <t>mức độ nghiêm trọng</t>
+  </si>
+  <si>
+    <t>focus on what's at stake</t>
+  </si>
+  <si>
+    <t>tập trung vào những gì đang bị đe dọa</t>
+  </si>
+  <si>
+    <t>galvanized diverse communities</t>
+  </si>
+  <si>
+    <t>thúc đẩy các cộng đồng khác nhau</t>
+  </si>
+  <si>
+    <t>tuổi thọ, tính bền vững</t>
+  </si>
+  <si>
+    <t># simple</t>
+  </si>
+  <si>
+    <t>/ˈɡælvənaɪz/</t>
+  </si>
+  <si>
+    <t>/ˌmɒnjuˈmentl/</t>
+  </si>
+  <si>
+    <t># tether cột</t>
+  </si>
+  <si>
+    <t>/ˈhɑːnɪs/</t>
+  </si>
+  <si>
+    <t>/lɒnˈdʒevəti/</t>
+  </si>
+  <si>
+    <t>the path of conquering any goals is long and bound to hit sticking point</t>
+  </si>
+  <si>
+    <t>/ɪmˈpenɪtrəbl/</t>
   </si>
 </sst>
 </file>
@@ -6301,11 +6651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G567"/>
+  <dimension ref="A1:G619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B561" sqref="B561"/>
+      <pane ySplit="1" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C600" sqref="C600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12656,6 +13006,446 @@
         <v>1578</v>
       </c>
     </row>
+    <row r="568" spans="1:5">
+      <c r="A568" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E568" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E569" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E570" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E571" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E572" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5">
+      <c r="A577" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E577" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E578" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="A580" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="A581" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="A582" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E582" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="A583" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E583" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E584" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E585" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E587" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E588" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="A589" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E589" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E590" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E591" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="A592" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E593" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E594" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="A595" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E595" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E596" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E597" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E598" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E599" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E600" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E601" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E602" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E603" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E604" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E605" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E606" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E607" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E608" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E609" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E610" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E611" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E612" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="A614" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E614" s="31" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E615" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E616" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E617" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E618" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E619" t="s">
+        <v>1676</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D77" r:id="rId1" tooltip="meaning of splash out (something)" display="https://dictionary.cambridge.org/dictionary/english/splash-out" xr:uid="{9B2475DC-788B-4BD8-81E7-4EAD67015E7D}"/>

--- a/new_word.xlsx
+++ b/new_word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC54FEF-0835-4558-984D-5A2A07AFB61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099E8DB5-4443-43DE-BEF4-055B0C4FD3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="0" windowWidth="20760" windowHeight="12504" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="2017">
   <si>
     <t>Word</t>
   </si>
@@ -5985,6 +5985,1052 @@
   </si>
   <si>
     <t>/ɪmˈpenɪtrəbl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lore </t>
+  </si>
+  <si>
+    <t>unanimously</t>
+  </si>
+  <si>
+    <t>truyền thuyết</t>
+  </si>
+  <si>
+    <t>đồng thanh</t>
+  </si>
+  <si>
+    <t>defer their dream</t>
+  </si>
+  <si>
+    <t>hoãn lại giấc mơ của họ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cult </t>
+  </si>
+  <si>
+    <t>miniature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edgy </t>
+  </si>
+  <si>
+    <t>sùng bái</t>
+  </si>
+  <si>
+    <t>sự tỉnh táo</t>
+  </si>
+  <si>
+    <t>thu nhỏ</t>
+  </si>
+  <si>
+    <t>gắt gỏng</t>
+  </si>
+  <si>
+    <t>for a spell</t>
+  </si>
+  <si>
+    <t>trong chốc lát</t>
+  </si>
+  <si>
+    <t>proliferate</t>
+  </si>
+  <si>
+    <t>/prəˈlɪfəreɪt/</t>
+  </si>
+  <si>
+    <t>multiply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biology marches on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sinh học vẫn tiếp tục phát triển </t>
+  </si>
+  <si>
+    <t>edifice</t>
+  </si>
+  <si>
+    <t>hệ thống tư tưởng</t>
+  </si>
+  <si>
+    <t>All-encompassing</t>
+  </si>
+  <si>
+    <t>shelter</t>
+  </si>
+  <si>
+    <t>fend</t>
+  </si>
+  <si>
+    <t>feelings are fluid</t>
+  </si>
+  <si>
+    <t>sort of in miniature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subjective </t>
+  </si>
+  <si>
+    <t>culturally relative</t>
+  </si>
+  <si>
+    <t>i dont meant to be edgy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">physiological craving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">try to live up to, for a fake sense of purpose </t>
+  </si>
+  <si>
+    <t>construct</t>
+  </si>
+  <si>
+    <t>Bao trùm tất cả</t>
+  </si>
+  <si>
+    <t>nơi trú ẩn</t>
+  </si>
+  <si>
+    <t>bảo vệ</t>
+  </si>
+  <si>
+    <t>cảm xúc là chất lỏng</t>
+  </si>
+  <si>
+    <t>loại thu nhỏ</t>
+  </si>
+  <si>
+    <t>chủ quan</t>
+  </si>
+  <si>
+    <t>tương đối về mặt văn hóa</t>
+  </si>
+  <si>
+    <t>tôi không có ý định trở nên cáu kỉnh</t>
+  </si>
+  <si>
+    <t>thèm muốn sinh lý</t>
+  </si>
+  <si>
+    <t>sinh học tiến triển</t>
+  </si>
+  <si>
+    <t>cố gắng sống theo, vì một cảm giác giả tạo về mục đích</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to increase rapidly in number or amount, sinh sôi nảy nở, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">relive </t>
+  </si>
+  <si>
+    <t>gravitate</t>
+  </si>
+  <si>
+    <t>furrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ridges </t>
+  </si>
+  <si>
+    <t>spectrum</t>
+  </si>
+  <si>
+    <t>it rivals seeing</t>
+  </si>
+  <si>
+    <t>rival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mallet </t>
+  </si>
+  <si>
+    <t>flamingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hedgehog </t>
+  </si>
+  <si>
+    <t>quill</t>
+  </si>
+  <si>
+    <t>sống lại</t>
+  </si>
+  <si>
+    <t>rãnh</t>
+  </si>
+  <si>
+    <t>quang phổ</t>
+  </si>
+  <si>
+    <t>nó cạnh tranh với việc nhìn thấy</t>
+  </si>
+  <si>
+    <t>đối thủ</t>
+  </si>
+  <si>
+    <t>cây vồ</t>
+  </si>
+  <si>
+    <t>chim hồng hạc</t>
+  </si>
+  <si>
+    <t>nhím</t>
+  </si>
+  <si>
+    <t>lông vũ</t>
+  </si>
+  <si>
+    <t>khuôn mặt ửng hồng của nữ hoàng</t>
+  </si>
+  <si>
+    <t>irreversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to plateau </t>
+  </si>
+  <si>
+    <t>không thể đảo ngược</t>
+  </si>
+  <si>
+    <t>đến mức ổn định, n: cao nguyên</t>
+  </si>
+  <si>
+    <t>chỉnh sửa</t>
+  </si>
+  <si>
+    <t>tweak the plan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To short-circuit this stress response" có nghĩa là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>làm gián đoạn hoặc ngăn chặn phản ứng căng thẳng một cách nhanh chóng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>To short-circuit this stress response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the blush of the queen's face </t>
+  </si>
+  <si>
+    <t>This is in stark contrast to the other devices, which only support single touch</t>
+  </si>
+  <si>
+    <t>Điều này hoàn toàn trái ngược với các thiết bị khác, vốn chỉ hỗ trợ cảm ứng đơn điểm</t>
+  </si>
+  <si>
+    <t>i found myself in a high stake situation</t>
+  </si>
+  <si>
+    <t>Tôi thấy mình đang ở trong một tình huống rủi ro cao / căng thẳng / quan trọng. High-stakes: Chỉ tình huống có mức độ quan trọng hoặc rủi ro cao, nơi quyết định hoặc hành động có thể dẫn đến hậu quả lớn.</t>
+  </si>
+  <si>
+    <r>
+      <t>I am bursting with excitement!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>(Tôi tràn đầy sự hào hứng!)</t>
+  </si>
+  <si>
+    <t>Aptitude = Tiềm năng, năng khiếu.   Ability = Khả năng thực tế, đã thể hiện được.</t>
+  </si>
+  <si>
+    <t>Aptitude</t>
+  </si>
+  <si>
+    <t>acclimate</t>
+  </si>
+  <si>
+    <t>thích nghi</t>
+  </si>
+  <si>
+    <t>all-new technology</t>
+  </si>
+  <si>
+    <t>công nghệ hoàn toàn mới</t>
+  </si>
+  <si>
+    <t>toil</t>
+  </si>
+  <si>
+    <t>burlap sack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to marvel </t>
+  </si>
+  <si>
+    <t>globe-spanning process</t>
+  </si>
+  <si>
+    <t>coffea tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equatorial regions </t>
+  </si>
+  <si>
+    <t>from dawn to dusk</t>
+  </si>
+  <si>
+    <t>rake</t>
+  </si>
+  <si>
+    <t>an assortment of sieves filter them by size</t>
+  </si>
+  <si>
+    <t>bao bố</t>
+  </si>
+  <si>
+    <t>để ngạc nhiên</t>
+  </si>
+  <si>
+    <t>quy trình trải dài khắp quả địa cầu</t>
+  </si>
+  <si>
+    <t>cây cà phê</t>
+  </si>
+  <si>
+    <t>khu vực xích đạo</t>
+  </si>
+  <si>
+    <t>từ sáng đến tối</t>
+  </si>
+  <si>
+    <t>cào</t>
+  </si>
+  <si>
+    <t>một loạt các loại rây lọc chúng theo kích thước</t>
+  </si>
+  <si>
+    <t>công việc nặng nhọc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fine-tuned brain </t>
+  </si>
+  <si>
+    <t>decathlon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trivia competition </t>
+  </si>
+  <si>
+    <t>roster</t>
+  </si>
+  <si>
+    <t>i have narrowed down the roster</t>
+  </si>
+  <si>
+    <t>recite</t>
+  </si>
+  <si>
+    <t>pruning process</t>
+  </si>
+  <si>
+    <t>finding solution to riddles</t>
+  </si>
+  <si>
+    <t>cuộc thi mười môn phối hợp</t>
+  </si>
+  <si>
+    <t>cuộc thi đố vui</t>
+  </si>
+  <si>
+    <t>danh sách</t>
+  </si>
+  <si>
+    <t>tôi đã thu hẹp danh sách</t>
+  </si>
+  <si>
+    <t>đọc thuộc lòng</t>
+  </si>
+  <si>
+    <t>quy trình cắt tỉa</t>
+  </si>
+  <si>
+    <t>tìm lời giải cho câu đố</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">là một cách nói thường dùng để mô tả một bộ não đã được </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>huấn luyện hoặc điều chỉnh đặc biệt để thực hiện một nhiệm vụ nào đó với độ chính xác cao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>“A fine-tuned brain model for diagnosing pneumonia” = một mô hình não bộ AI đã được tinh chỉnh để chẩn đoán viêm phổi.     She has a fine-tuned brain for business = Cô ấy có đầu óc nhạy bén trong kinh doanh.</t>
+  </si>
+  <si>
+    <t>jack of all trades</t>
+  </si>
+  <si>
+    <t>Jack of all trades, master of none, but oftentimes better than master of one."
+(Người biết nhiều việc, không chuyên sâu một thứ nào, nhưng nhiều khi lại tốt hơn người chỉ giỏi một việc.)</t>
+  </si>
+  <si>
+    <t>untethered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspiciously reinvigorated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avenge </t>
+  </si>
+  <si>
+    <t>to channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immense power </t>
+  </si>
+  <si>
+    <t>imprudent aim</t>
+  </si>
+  <si>
+    <t>divine accountant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monetary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">relinquish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">but to earthling </t>
+  </si>
+  <si>
+    <t>inhospitable</t>
+  </si>
+  <si>
+    <t>unprecedented pace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tantalizing </t>
+  </si>
+  <si>
+    <t>outright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go off </t>
+  </si>
+  <si>
+    <t>revitalise</t>
+  </si>
+  <si>
+    <t>được hồi sinh một cách đáng ngờ</t>
+  </si>
+  <si>
+    <t>trả thù</t>
+  </si>
+  <si>
+    <t>để truyền tải</t>
+  </si>
+  <si>
+    <t>sức mạnh to lớn</t>
+  </si>
+  <si>
+    <t>mục đích thiếu thận trọng</t>
+  </si>
+  <si>
+    <t>kế toán viên thần thánh</t>
+  </si>
+  <si>
+    <t>tiền tệ</t>
+  </si>
+  <si>
+    <t>từ bỏ</t>
+  </si>
+  <si>
+    <t>nhưng với trái đất</t>
+  </si>
+  <si>
+    <t>không hiếu khách</t>
+  </si>
+  <si>
+    <t>tốc độ chưa từng có</t>
+  </si>
+  <si>
+    <t>thẳng thừng</t>
+  </si>
+  <si>
+    <t>đi ra</t>
+  </si>
+  <si>
+    <t>political turmoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">directive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">satiate his sweet tooth </t>
+  </si>
+  <si>
+    <t>delicacy</t>
+  </si>
+  <si>
+    <t>insulated pool</t>
+  </si>
+  <si>
+    <t>ambient temperature</t>
+  </si>
+  <si>
+    <t>debut</t>
+  </si>
+  <si>
+    <t>sherbet</t>
+  </si>
+  <si>
+    <t>dub</t>
+  </si>
+  <si>
+    <t>quite laborious</t>
+  </si>
+  <si>
+    <t>featuring a crank and beater</t>
+  </si>
+  <si>
+    <t>bất ổn chính trị</t>
+  </si>
+  <si>
+    <t>lén lút</t>
+  </si>
+  <si>
+    <t>chỉ thị</t>
+  </si>
+  <si>
+    <t>thỏa mãn sở thích ăn đồ ngọt của anh ấy</t>
+  </si>
+  <si>
+    <t>món ngon</t>
+  </si>
+  <si>
+    <t>hồ bơi cách nhiệt</t>
+  </si>
+  <si>
+    <t>nhiệt độ môi trường</t>
+  </si>
+  <si>
+    <t>ra mắt</t>
+  </si>
+  <si>
+    <t>lồng tiếng</t>
+  </si>
+  <si>
+    <t>khá vất vả</t>
+  </si>
+  <si>
+    <t>có tay quay và máy đánh trứng</t>
+  </si>
+  <si>
+    <t>devour up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinecone </t>
+  </si>
+  <si>
+    <t>saloon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soda fountain </t>
+  </si>
+  <si>
+    <t>brewery</t>
+  </si>
+  <si>
+    <t>thaw</t>
+  </si>
+  <si>
+    <t>lining up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad rap </t>
+  </si>
+  <si>
+    <t>haunted house</t>
+  </si>
+  <si>
+    <t>perplexing</t>
+  </si>
+  <si>
+    <t>worrisome</t>
+  </si>
+  <si>
+    <t>euphoric state</t>
+  </si>
+  <si>
+    <t>loop de loop</t>
+  </si>
+  <si>
+    <t>loathing</t>
+  </si>
+  <si>
+    <t>stomach-drop sensation</t>
+  </si>
+  <si>
+    <t>squeal</t>
+  </si>
+  <si>
+    <t>retreat in terror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual semetary </t>
+  </si>
+  <si>
+    <t>intensify</t>
+  </si>
+  <si>
+    <t>nuốt chửng</t>
+  </si>
+  <si>
+    <t>quả thông</t>
+  </si>
+  <si>
+    <t>quán rượu</t>
+  </si>
+  <si>
+    <t>quầy nước ngọt</t>
+  </si>
+  <si>
+    <t>nhà máy bia</t>
+  </si>
+  <si>
+    <t>tan băng</t>
+  </si>
+  <si>
+    <t>xếp hàng</t>
+  </si>
+  <si>
+    <t>tiếng xấu</t>
+  </si>
+  <si>
+    <t>ngôi nhà ma ám</t>
+  </si>
+  <si>
+    <t>làm bối rối</t>
+  </si>
+  <si>
+    <t>làm lo lắng</t>
+  </si>
+  <si>
+    <t>trạng thái hưng phấn</t>
+  </si>
+  <si>
+    <t>vòng lặp</t>
+  </si>
+  <si>
+    <t>ghê tởm</t>
+  </si>
+  <si>
+    <t>cảm giác buồn nôn</t>
+  </si>
+  <si>
+    <t>la hét</t>
+  </si>
+  <si>
+    <t>rút lui trong nỗi kinh hoàng</t>
+  </si>
+  <si>
+    <t>ngôi mộ thực sự</t>
+  </si>
+  <si>
+    <t>làm tăng cường</t>
+  </si>
+  <si>
+    <t>dầu ô liu nguyên chất</t>
+  </si>
+  <si>
+    <t>(extra-)virgin olive oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lurk </t>
+  </si>
+  <si>
+    <t>if only it were that simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">courageously </t>
+  </si>
+  <si>
+    <t xml:space="preserve">untangle </t>
+  </si>
+  <si>
+    <t>persevere</t>
+  </si>
+  <si>
+    <t>rình rập</t>
+  </si>
+  <si>
+    <t>giá như nó đơn giản như vậy</t>
+  </si>
+  <si>
+    <t>can đảm</t>
+  </si>
+  <si>
+    <t>gỡ rối</t>
+  </si>
+  <si>
+    <t>kiên trì</t>
+  </si>
+  <si>
+    <t>ethics dilemma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grisly murder </t>
+  </si>
+  <si>
+    <t>vấn đề đạo đức</t>
+  </si>
+  <si>
+    <t>vụ giết người ghê rợn</t>
+  </si>
+  <si>
+    <t>hypothetical</t>
+  </si>
+  <si>
+    <t>novel influenza virus</t>
+  </si>
+  <si>
+    <t>wand</t>
+  </si>
+  <si>
+    <t>preemptively</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasp </t>
+  </si>
+  <si>
+    <t>rebound</t>
+  </si>
+  <si>
+    <t>this trend spells trouble for our climate</t>
+  </si>
+  <si>
+    <t>culprit</t>
+  </si>
+  <si>
+    <t>giả thuyết</t>
+  </si>
+  <si>
+    <t>virus cúm mới</t>
+  </si>
+  <si>
+    <t>đũa phép</t>
+  </si>
+  <si>
+    <t>phòng ngừa</t>
+  </si>
+  <si>
+    <t>ong bắp cày</t>
+  </si>
+  <si>
+    <t>phục hồi</t>
+  </si>
+  <si>
+    <t>xu hướng này gây rắc rối cho khí hậu của chúng ta</t>
+  </si>
+  <si>
+    <t>thủ phạm</t>
+  </si>
+  <si>
+    <t>mundane activities</t>
+  </si>
+  <si>
+    <t>cramming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vicious cycle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reclaim </t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>you have to take my word for it</t>
+  </si>
+  <si>
+    <t>recess</t>
+  </si>
+  <si>
+    <t>summer brake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the first lesson on the prerogative of women </t>
+  </si>
+  <si>
+    <t>hoạt động thường ngày</t>
+  </si>
+  <si>
+    <t>nhồi nhét</t>
+  </si>
+  <si>
+    <t>vòng luẩn quẩn</t>
+  </si>
+  <si>
+    <t>tái chiếm</t>
+  </si>
+  <si>
+    <t>tuyên bố</t>
+  </si>
+  <si>
+    <t>bạn phải tin lời tôi</t>
+  </si>
+  <si>
+    <t>giải lao</t>
+  </si>
+  <si>
+    <t>nghỉ hè</t>
+  </si>
+  <si>
+    <t>bài học đầu tiên về đặc quyền của phụ nữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwindling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">feud </t>
+  </si>
+  <si>
+    <t>showcase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ill-tempered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mortified </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scour </t>
+  </si>
+  <si>
+    <t>destructive whirlwind</t>
+  </si>
+  <si>
+    <t>debunking falsehood</t>
+  </si>
+  <si>
+    <t>pitchfork</t>
+  </si>
+  <si>
+    <t>sarcastic</t>
+  </si>
+  <si>
+    <t>blunder</t>
+  </si>
+  <si>
+    <t>out-compete</t>
+  </si>
+  <si>
+    <t>relented</t>
+  </si>
+  <si>
+    <t>đang suy yếu</t>
+  </si>
+  <si>
+    <t>mối thù</t>
+  </si>
+  <si>
+    <t>trình diễn</t>
+  </si>
+  <si>
+    <t>nóng tính</t>
+  </si>
+  <si>
+    <t>xấu hổ</t>
+  </si>
+  <si>
+    <t>quét sạch</t>
+  </si>
+  <si>
+    <t>cơn lốc phá hoại</t>
+  </si>
+  <si>
+    <t>bóc mẽ sự dối trá</t>
+  </si>
+  <si>
+    <t>chĩa ba</t>
+  </si>
+  <si>
+    <t>mỉa mai</t>
+  </si>
+  <si>
+    <t>lỗi lầm</t>
+  </si>
+  <si>
+    <t>cạnh tranh quyết liệt</t>
+  </si>
+  <si>
+    <t>đã nhượng bộ</t>
+  </si>
+  <si>
+    <t># relentless tàn nhẫn, không nao núng</t>
+  </si>
+  <si>
+    <t>sneak</t>
+  </si>
+  <si>
+    <t>profound moment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crap </t>
+  </si>
+  <si>
+    <t>you are cheap whore</t>
+  </si>
+  <si>
+    <t>you are a fraud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low-hanging fruit </t>
+  </si>
+  <si>
+    <t>being broke sucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freak me out </t>
+  </si>
+  <si>
+    <t xml:space="preserve">freed my mind </t>
+  </si>
+  <si>
+    <t>khoảnh khắc sâu sắc</t>
+  </si>
+  <si>
+    <t>rác rưởi</t>
+  </si>
+  <si>
+    <t>mày là con điếm rẻ tiền</t>
+  </si>
+  <si>
+    <t>mày là kẻ lừa đảo</t>
+  </si>
+  <si>
+    <t>trái cây dễ hái</t>
+  </si>
+  <si>
+    <t>bị phá sản thật tệ</t>
+  </si>
+  <si>
+    <t>làm tôi phát hoảng</t>
+  </si>
+  <si>
+    <t>giải thoát tâm trí tôi</t>
+  </si>
+  <si>
+    <t>hardwired to self destruct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scarce </t>
+  </si>
+  <si>
+    <t>sacred</t>
+  </si>
+  <si>
+    <t>hiếm có</t>
+  </si>
+  <si>
+    <t>thiêng liêng</t>
+  </si>
+  <si>
+    <t>được lập trình để tự hủy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">less daunting, incremental benchmark </t>
+  </si>
+  <si>
+    <t>humanity is doomed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unifying </t>
+  </si>
+  <si>
+    <t>impenetrable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moral outrage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">galvanize </t>
+  </si>
+  <si>
+    <t xml:space="preserve">communal goal </t>
+  </si>
+  <si>
+    <t>ít đáng sợ hơn, chuẩn mực gia tăng</t>
+  </si>
+  <si>
+    <t>thậm chí mục đích là gì</t>
+  </si>
+  <si>
+    <t>sự to lớn</t>
+  </si>
+  <si>
+    <t>nhân loại sẽ bị diệt vong</t>
+  </si>
+  <si>
+    <t>thống nhất</t>
+  </si>
+  <si>
+    <t>không thể xuyên thủng</t>
+  </si>
+  <si>
+    <t>phẫn nộ về mặt đạo đức</t>
+  </si>
+  <si>
+    <t>kích động</t>
+  </si>
+  <si>
+    <t>mục tiêu cộng đồng</t>
   </si>
 </sst>
 </file>
@@ -6288,7 +7334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6348,6 +7394,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6651,11 +7698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G619"/>
+  <dimension ref="A1:G787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C600" sqref="C600"/>
+      <pane ySplit="1" topLeftCell="A761" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E779" sqref="E779:E787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13446,6 +14493,1368 @@
         <v>1676</v>
       </c>
     </row>
+    <row r="620" spans="1:5">
+      <c r="A620" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E620" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E621" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E622" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E623" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E624" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="A625" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E625" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5">
+      <c r="A626" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E626" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E627" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="A628" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E628" s="5" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" s="5" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E629" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="A630" s="5" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E630" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="A631" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E631" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E632" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E633" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="A634" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E634" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E635" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E636" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E637" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="A638" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E638" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E639" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E640" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7">
+      <c r="A641" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E641" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7">
+      <c r="A642" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E642" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7">
+      <c r="A643" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E643" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7">
+      <c r="A644" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E644" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7">
+      <c r="A645" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E645" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7">
+      <c r="A646" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E646" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7">
+      <c r="A647" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E647" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7">
+      <c r="A648" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E648" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7">
+      <c r="A649" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E649" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7">
+      <c r="A650" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E650" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7">
+      <c r="A651" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E651" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7">
+      <c r="A652" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E652" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7">
+      <c r="A653" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E653" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7">
+      <c r="A654" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E654" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7">
+      <c r="A655" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E655" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7">
+      <c r="A656" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E656" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G656" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E657" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E658" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E659" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5">
+      <c r="A660" s="41" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E660" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E661" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E662" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E663" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5">
+      <c r="A664" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E664" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E665" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E666" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E667" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="A668" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E668" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E669" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5">
+      <c r="A670" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E670" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E671" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E672" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7">
+      <c r="A673" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E673" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G673" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7">
+      <c r="A674" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E674" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7">
+      <c r="A675" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E675" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7">
+      <c r="A676" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E676" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7">
+      <c r="A677" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E677" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7">
+      <c r="A678" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E678" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7">
+      <c r="A679" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E679" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7">
+      <c r="A680" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E680" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" ht="28.8">
+      <c r="A681" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7">
+      <c r="A682" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E682" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7">
+      <c r="A683" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E683" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7">
+      <c r="A684" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E684" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7">
+      <c r="A685" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E685" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7">
+      <c r="A686" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E686" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7">
+      <c r="A687" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E687" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7">
+      <c r="A688" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E688" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5">
+      <c r="A689" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E689" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5">
+      <c r="A690" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E690" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5">
+      <c r="A691" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E691" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5">
+      <c r="A692" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E692" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5">
+      <c r="A693" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E693" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5">
+      <c r="A694" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E694" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="A695" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E695" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5">
+      <c r="A696" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E696" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5">
+      <c r="A697" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E697" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5">
+      <c r="A698" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E698" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5">
+      <c r="A699" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E699" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5">
+      <c r="A700" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E700" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5">
+      <c r="A701" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E701" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5">
+      <c r="A702" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E702" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5">
+      <c r="A703" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E703" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5">
+      <c r="A704" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E704" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5">
+      <c r="A705" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E705" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5">
+      <c r="A706" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E706" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5">
+      <c r="A707" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E707" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5">
+      <c r="A708" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E708" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5">
+      <c r="A709" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E709" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5">
+      <c r="A710" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E710" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5">
+      <c r="A711" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E711" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5">
+      <c r="A712" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E712" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5">
+      <c r="A713" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E713" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5">
+      <c r="A714" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E714" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5">
+      <c r="A715" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E715" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5">
+      <c r="A716" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E716" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5">
+      <c r="A717" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E717" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="A718" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E718" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5">
+      <c r="A719" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E719" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="A720" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E720" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5">
+      <c r="A721" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E721" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5">
+      <c r="A722" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E722" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5">
+      <c r="A723" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E723" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5">
+      <c r="A724" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E724" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5">
+      <c r="A725" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E725" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5">
+      <c r="A726" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E726" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5">
+      <c r="A727" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E727" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5">
+      <c r="A728" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E728" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5">
+      <c r="A729" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E729" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5">
+      <c r="A730" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E730" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5">
+      <c r="A731" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E731" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5">
+      <c r="A732" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E732" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5">
+      <c r="A733" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E733" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5">
+      <c r="A734" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E734" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5">
+      <c r="A735" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E735" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5">
+      <c r="A736" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E736" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5">
+      <c r="A737" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E737" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5">
+      <c r="A738" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E738" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5">
+      <c r="A739" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E739" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5">
+      <c r="A740" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E740" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5">
+      <c r="A741" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E741" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5">
+      <c r="A742" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E742" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5">
+      <c r="A743" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E743" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5">
+      <c r="A744" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E744" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5">
+      <c r="A745" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E745" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5">
+      <c r="A746" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E746" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5">
+      <c r="A747" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E747" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5">
+      <c r="A748" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E748" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5">
+      <c r="A749" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E749" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5">
+      <c r="A750" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E750" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5">
+      <c r="A751" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E751" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5">
+      <c r="A752" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E752" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5">
+      <c r="A753" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E753" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5">
+      <c r="A754" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E754" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5">
+      <c r="A755" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E755" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5">
+      <c r="A756" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E756" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5">
+      <c r="A757" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E757" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5">
+      <c r="A758" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E758" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5">
+      <c r="A759" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E759" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5">
+      <c r="A760" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E760" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5">
+      <c r="A761" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E761" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5">
+      <c r="A762" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E762" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5">
+      <c r="A763" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E763" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5">
+      <c r="A764" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5">
+      <c r="A765" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E765" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5">
+      <c r="A766" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E766" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5">
+      <c r="A767" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D767" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5">
+      <c r="A768" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E768" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5">
+      <c r="A769" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E769" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5">
+      <c r="A770" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E770" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5">
+      <c r="A771" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E771" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5">
+      <c r="A772" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E772" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5">
+      <c r="A773" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E773" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5">
+      <c r="A774" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E774" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5">
+      <c r="A775" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E775" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5">
+      <c r="A776" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E776" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5">
+      <c r="A777" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5">
+      <c r="A778" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5">
+      <c r="A779" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E779" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5">
+      <c r="A780" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E780" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5">
+      <c r="A781" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E781" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5">
+      <c r="A782" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E782" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5">
+      <c r="A783" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E783" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5">
+      <c r="A784" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E784" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5">
+      <c r="A785" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E785" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5">
+      <c r="A786" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E786" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5">
+      <c r="A787" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E787" t="s">
+        <v>2016</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D77" r:id="rId1" tooltip="meaning of splash out (something)" display="https://dictionary.cambridge.org/dictionary/english/splash-out" xr:uid="{9B2475DC-788B-4BD8-81E7-4EAD67015E7D}"/>
@@ -13453,8 +15862,9 @@
     <hyperlink ref="E83" r:id="rId3" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate" xr:uid="{215C5BBE-BB40-42C7-950E-59BB5AEA7AE1}"/>
     <hyperlink ref="E84" r:id="rId4" tooltip="fate definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/fate" xr:uid="{37FEFB69-3ECE-432E-BD70-6DD80C5EFA7B}"/>
     <hyperlink ref="E148" r:id="rId5" tooltip="complacency definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/complacency" xr:uid="{2BE70147-893A-43F9-8691-063C148C705E}"/>
+    <hyperlink ref="D628" r:id="rId6" tooltip="multiply definition" display="https://www.oxfordlearnersdictionaries.com/definition/english/multiply" xr:uid="{5F15862B-6206-4286-8046-C5793B287470}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>